--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COYNI-ADMIN_WEB\clone_23_02_2022_ADMIN\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(18-07-2022)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ECC274-3E02-45CF-B195-494859824DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA14F40-5716-4E24-8B67-4E2FB96DB780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -27,18 +27,951 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="168">
+  <si>
+    <t>Test Case Name</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>Test Data Path</t>
+  </si>
+  <si>
+    <t>Iteration Mode</t>
+  </si>
+  <si>
+    <t>Start Iteration</t>
+  </si>
+  <si>
+    <t>Stop Iteration</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>Keywords1</t>
+  </si>
+  <si>
+    <t>Keywords2</t>
+  </si>
+  <si>
+    <t>Admin login Page With Valid Credentials</t>
+  </si>
+  <si>
+    <t>testdata-admin.xlsx,Login</t>
+  </si>
+  <si>
+    <t>RunOneIteration</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testAdminLogin,
+-ploginHeading,
+-ploginDescription,
+-pemail,
+-ppassword,
+-pattribute,
+-pauthyHeading,
+-pauthyDescription,
+-pcode,
+-pmessage</t>
+  </si>
+  <si>
+    <t>Admin Login with invalid credentials</t>
+  </si>
+  <si>
+    <t>RunRangeOfIterations</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testLoginInvalidCredentials,
+-ploginHeading,
+-pemail,
+-ppassword,
+-perrMessage,
+-pcolour,
+-pelementName</t>
+  </si>
+  <si>
+    <t>verify Element view</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testLoginView,
+-ploginHeading,
+-pemail,
+-ppassword,
+-pattribute</t>
+  </si>
+  <si>
+    <t>verify CoyniPortal</t>
+  </si>
+  <si>
+    <t>testdata-admin.xlsx,coyniPortal</t>
+  </si>
+  <si>
+    <t>Coyni Portal</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testAdminLogin,
+-ploginHeading,
+-ploginDescription,
+-pemail,
+-ppassword,
+-pauthyHeading,
+-pauthyDescription,
+-pcode,
+-pmessage</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.CoyniPortalTest,
+testCoyniPortal,
+-pcssProp,
+-pexpValue,
+-pexpColor</t>
+  </si>
+  <si>
+    <t>verify TopBar</t>
+  </si>
+  <si>
+    <t>Top Bar</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.CoyniPortalTest,
+testTopBar,
+-pheading</t>
+  </si>
+  <si>
+    <t>verify TokenAccount</t>
+  </si>
+  <si>
+    <t>Coyni Portal Token Account</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.CoyniPortalTest,
+testTokenAccount,
+-pheading</t>
+  </si>
+  <si>
+    <t>Forgot Password with Valid details</t>
+  </si>
+  <si>
+    <t>testdata-admin.xlsx,ForgotPassword</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>Forgot Password View</t>
+  </si>
+  <si>
+    <t>Forgot Password With Invalid Data</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testForgotPasswordWithInvalidData,
+-ploginHeading,
+-pforgotHeading,
+-pemail,
+-pemailHeading,
+-pcode,
+-pcreatePasswordHeading,
+-pcreatePassword,
+-pconfirmPassword,
+-perrMessage,
+-pcolour,
+-pelementName,
+-pvalidatePassword</t>
+  </si>
+  <si>
+    <t>Forgot Email With Invalid Email Verification Code</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testForgotPasswordWithInvalidEmailVerificationCode,
+-ploginHeading,
+-pforgotHeading,
+-pemail,
+-pemailHeading,
+-pcode,
+-pmessage</t>
+  </si>
+  <si>
+    <t>Forgot Password Navigation</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testForgotPasswordNavigation,
+-ploginHeading,
+-pforgotHeading,
+-pemail,
+-pemailHeading,
+-pcode,
+-pcreatePasswordHeading</t>
+  </si>
+  <si>
+    <t>verify ForgotEmailPage</t>
+  </si>
+  <si>
+    <t>testdata-admin.xlsx,forgotEmail</t>
+  </si>
+  <si>
+    <t>ForgotEmailPage</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testForgotEmail,
+-ploginHeading,
+-pforgotEmailHeading,
+-pforgotEmailDescription,
+-pphoneNumber,
+-pforgotEmailNameHeading,
+-pforgotEmailNameDescription,
+-PfirstName,
+-plastName,
+-pphoneEmailVerificationHeading,
+-pphoneEmailVerificationDescription,
+-pcode,
+-pemail,
+-pchooseAccountHeading,
+-ploginHeading,
+-pmessage</t>
+  </si>
+  <si>
+    <t>Forgot email with invalid code</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testForgotEmailWithInvalidVerificationCode,
+-ploginHeading,
+-pforgotEmailHeading,
+-pforgotEmailDescription,
+-pphoneNumber,
+-pforgotEmailNameHeading,
+-pforgotEmailNameDescription,
+-PfirstName,
+-plastName,
+-pphoneEmailVerificationHeading,
+-pcode,
+-pmessage,
+-pcolour,
+-pelementName</t>
+  </si>
+  <si>
+    <t>Forgot email with invalid data</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testForgotEmailWithInvalidData,
+-ploginHeading,
+-pforgotEmailHeading,
+-pforgotEmailDescription,
+-pphoneNumber,
+-pforgotEmailNameHeading,
+-pforgotEmailNameDescription,
+-pvalidateNames,
+-PfirstName,
+-plastName,
+-perrMessage,
+-pcolour,
+-pelementName</t>
+  </si>
+  <si>
+    <t>testForgotEmailFieldValidations</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testForgotEmailFieldValidations,
+-ploginHeading,
+-pforgotEmailHeading,
+-pforgotEmailDescription,
+-pforgotEmailNameHeading,
+-pphoneNumber,
+-pvalidateNames,
+-PfirstName,
+-plastName</t>
+  </si>
+  <si>
+    <t>testForgotEmailNavigationView</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testForgotEmailNavigationView,
+-ploginHeading,
+-pforgotEmailHeading,
+-pforgotEmailDescription,
+-pphoneNumber,
+-pforgotEmailNameHeading,
+-PfirstName,
+-plastName,
+-pcode,
+-pchooseAccountHeading,
+-ploginHeading,
+-pphoneEmailVerificationHeading</t>
+  </si>
+  <si>
+    <t>testAddSignetAccount</t>
+  </si>
+  <si>
+    <t>AddSignetAccount</t>
+  </si>
+  <si>
+    <t>testRemoveSignetAccount</t>
+  </si>
+  <si>
+    <t>testAddSignetAccountInvalidDataValidations</t>
+  </si>
+  <si>
+    <t>testTransactionDetailsDebitCard</t>
+  </si>
+  <si>
+    <t>testData-admin.xlsx,transactionDetails</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.TransactionTest,
+testBuyTokenDebitCard,
+-ptransactionHeading,
+-pledgerInformation,
+-precipientInformation</t>
+  </si>
+  <si>
+    <t>testTransactionDetailsCreditCard</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.TransactionTest,
+testBuyTokenCreditCard,
+-ptransactionHeading,
+-pledgerInformation,
+-precipientInformation</t>
+  </si>
+  <si>
+    <t>testTransactionDetailsWithdrawGiftCard</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.TransactionTest,
+testTransactionDetailsWithdrawGiftCard,
+-ptransactionHeading,
+-pledgerInformation,
+-precipientInformation,
+-psenderInformation</t>
+  </si>
+  <si>
+    <t>testTransactionDetailsBuyTokenExternal Bank Account</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.TransactionTest,
+testTransactionDetailsExternalBankAccount,
+-ptransactionHeading,
+-pledgerInformation,
+-precipientInformation,
+-pbankInformation</t>
+  </si>
+  <si>
+    <t>testTransactionDetailsWithdrawInstantPay</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.TransactionTest,
+testTransactionDetailWithdrawInstantPay,
+-ptransactionHeading,
+-pledgerInformation,
+-psenderInformation,
+-pcardInformation</t>
+  </si>
+  <si>
+    <t>testTransactionDetailsWithdrawExternalBankAccount</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.TransactionTest,
+testTransactionDetailsWithdrawExternalBankAccount,
+-ptransactionHeading,
+-pledgerInformation,
+-psenderInformation,
+-pbankInformation</t>
+  </si>
+  <si>
+    <t>testTransactionListExportsToday</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>testData-admin.xlsx,transaction</t>
+  </si>
+  <si>
+    <t>TransactionListExport</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.TransactionTest,
+testExportSelectedTransactionToday,
+-pheading,
+-pexportHeading</t>
+  </si>
+  <si>
+    <t>testTransactionListExportsYesterday</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.TransactionTest,
+testExportSelectedTransactionYesterday,
+-pheading,
+-pexportHeading</t>
+  </si>
+  <si>
+    <t>testTransactionListExportsLastSevenDays</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.TransactionTest,
+testExportSelectedTransactionLastSevenDays,
+-pheading,
+-pexportHeading</t>
+  </si>
+  <si>
+    <t>testTransactionListExportsLastMonth</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.TransactionTest,
+testExportSelectedTransactionLastMonth,
+-pheading,
+-pexportHeading</t>
+  </si>
+  <si>
+    <t>testTransactionListExportsMonthtoDate</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.TransactionTest,
+testExportSelectedTransactionMonthToDate,
+-pheading,
+-pexportHeading</t>
+  </si>
+  <si>
+    <t>testTransactionListFilters</t>
+  </si>
+  <si>
+    <t>TransactionListFilters</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.TransactionTest,
+testTransactionListFilters,
+-pcssProp,
+-pexpValue,
+-pexpColor,
+-pfilterType,
+-pamount,
+-ptoAmount,
+-preferenceID,
+-pempName</t>
+  </si>
+  <si>
+    <t>testTransactionListResetFilters</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.TransactionTest,
+testTransactionListResetFilters,
+-pcssProp,
+-pexpValue,
+-pexpColor,
+-pfilterType,
+-pamount,
+-ptoAmount,
+-preferenceID,
+-pempName</t>
+  </si>
+  <si>
+    <t>testTransactionList</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.TransactionTest,
+testTransactionList,
+-plistHeading,
+-pquery,
+-pcssProp,
+-pexpValue,
+-pexpColor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify fee struture </t>
+  </si>
+  <si>
+    <t>testdata-admin.xlsx,feeStructure</t>
+  </si>
+  <si>
+    <t>feeStructure</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testAdminLogin,
+-ploginHeading,
+-ploginDescription,
+-pemail,
+-ppassword,
+-pauthyHeading,
+-pauthyDescription,
+-pcode</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.SystemSettingsTest,
+testFeeStructure,
+-pexpHeading,
+-plabelColumn</t>
+  </si>
+  <si>
+    <t>verify fee struture view</t>
+  </si>
+  <si>
+    <t>feeStructureView</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.SystemSettingsTest,
+testViewPersonalFeeStructure,
+-pexpViewHeading</t>
+  </si>
+  <si>
+    <t>verify fee struture Edit</t>
+  </si>
+  <si>
+    <t>feeStructureEdit</t>
+  </si>
+  <si>
+    <t>verify fee struture Merchant Edit</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.SystemSettingsTest,
+testEditMerchantFeeStructure,
+-pexpHeading,
+-pexpEditHeading</t>
+  </si>
+  <si>
+    <t>verify fee struture Merchant view</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.SystemSettingsTest,
+testViewMerchantfeeStructurePage,
+-pexpViewHeading</t>
+  </si>
+  <si>
+    <t>VerifyFeatureControl</t>
+  </si>
+  <si>
+    <t>testdata-admin.xlsx,featureControl</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.SystemSettingsTest,
+testFeatureControl,
+-pexpActivityHeading,
+-pexpHeading,
+-pexpDescription</t>
+  </si>
+  <si>
+    <t>testdata-admin.xlsx,BalanceReport</t>
+  </si>
+  <si>
+    <t>BalanceReportView</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.BalanceReportsTest,
+testBalanceReportTest,
+-pexpHeading</t>
+  </si>
+  <si>
+    <t>verifyExportSelectedTransactions</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.BalanceReportsTest,
+testExportSelectedTransactions,
+-pexpHeading,
+-pexpSubHeading,
+-pdropDown,
+-pcheckBox</t>
+  </si>
+  <si>
+    <t>verify Token Account Activity</t>
+  </si>
+  <si>
+    <t>coyni Portal</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.CoyniPortalTest,
+testTokenAccountActivity,
+-pheading</t>
+  </si>
+  <si>
+    <t>testTotalWithdraw</t>
+  </si>
+  <si>
+    <t>testdata-admin.xlsx,accounting</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.AccountingTest,
+testTotalWithdrawWithSignetAccounts,
+-pwithdraw,
+-pbatchId,
+-pbID,
+-pwithdrawId,
+-prefrenceId,
+-puserId,
+-pnameOnBank,
+-pheading,
+-pexportPrepared</t>
+  </si>
+  <si>
+    <t>testTotalWithdrawBankAccount</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.AccountingTest,
+testTotalWithdrawWithBankAccounts,
+-pwithdraw,
+-pbatchId,
+-pbID,
+-pwithdrawId,
+-prefrenceId,
+-puserId,
+-pnameOnBank,
+-pheading,
+-pexportPrepared</t>
+  </si>
+  <si>
+    <t>testTotalWithdrawInstantPay</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.AccountingTest,
+testTotalWithdrawWithInsantPay,
+-pwithdraw,
+-pbatchId,
+-pbID,
+-pwithdrawId,
+-prefrenceId,
+-puserId,
+-pnameOnBank,
+-pheading,
+-pexportPrepared</t>
+  </si>
+  <si>
+    <t>testTotalWithdrawGiftCard</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.AccountingTest,
+testTotalWithdrawWithGiftCard,
+-pwithdraw,
+-pbatchId,
+-pbID,
+-pwithdrawId,
+-prefrenceId,
+-puserId,
+-pnameOnBank,
+-pheading,
+-pexportPrepared</t>
+  </si>
+  <si>
+    <t>testTotalDepositBankAccount</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.AccountingTest,
+testTotalDepositsBankAccount,
+-pwithdraw,
+-pbatchId,
+-pbID,
+-pwithdrawId,
+-prefrenceId,
+-puserId,
+-pnameOnBank,
+-pheading,
+-pexportPrepared</t>
+  </si>
+  <si>
+    <t>testTotalDepositSignetAccount</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.AccountingTest,
+testTotalDepositSignetAccount,
+-pwithdraw,
+-pbatchId,
+-pbID,
+-pwithdrawId,
+-prefrenceId,
+-puserId,
+-pnameOnBank,
+-pheading,
+-pexportPrepared</t>
+  </si>
+  <si>
+    <t>testTotalDepositCreditandDebit</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.AccountingTest,
+testTotalDepositCreditandDebitCard,
+-pwithdraw,
+-pbatchId,
+-pbID,
+-pwithdrawId,
+-prefrenceId,
+-puserId,
+-pnameOnBank,
+-pheading,
+-pexportPrepared</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>verify Commission Account</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.CoyniPortalTest,
+testCommissionAccount,
+-pheading</t>
+  </si>
+  <si>
+    <t>verify Commission Exports Today</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.CoyniPortalTest,
+testCommissionExportSelectedPayOutToday,
+-pheading,
+-pexportHeading</t>
+  </si>
+  <si>
+    <t>verify Commission Exports Yesterday</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.CoyniPortalTest,
+testCommissionExportSelectedPayOutYesterday,
+-pheading,
+-pexportHeading</t>
+  </si>
+  <si>
+    <t>verify Commission Exports LastSevenDays</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.CoyniPortalTest,
+testCommissionExportSelectedpayOutLastSevenDays,
+-pheading,
+-pexportHeading</t>
+  </si>
+  <si>
+    <t>verify Commission Exports LastMonth</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.CoyniPortalTest,
+testCommissionExportSelectedPayOutLastMonth,
+-pheading,
+-pexportHeading</t>
+  </si>
+  <si>
+    <t>verify Commission Exports MonthtoDate</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.CoyniPortalTest,
+testCommissionExportSelectedPayOutMonthToDate,
+-pheading,
+-pexportHeading</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testForgotPassword,
+-ploginHeading,
+-ploginDescription,
+-pforgotHeading,
+-pforgotDescription,
+-pemail,
+-pemailHeading,
+-pcode,
+-pcreatePasswordHeading,
+-pcreatePasswordDescription,
+-pcreatePassword,
+-pconfirmPassword,
+-psuccessHeading,
+-psuccessDescription</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testForgotPasswordView,
+-ploginHeading,
+-ploginDescription,
+-pforgotHeading,
+-pforgotDescription,
+-pemail,
+-pemailHeading,
+-pcode,
+-pcreatePasswordHeading,
+-pcreatePasswordDescription,
+-pcreatePassword,
+-pconfirmPassword,
+-psuccessHeading</t>
+  </si>
+  <si>
+    <t>AccountLimit</t>
+  </si>
+  <si>
+    <t>verify AccountLimit view</t>
+  </si>
+  <si>
+    <t>verify AccountLimit Merchant view</t>
+  </si>
+  <si>
+    <t>verify AccountLimit Merchant Edit</t>
+  </si>
+  <si>
+    <t>verify AccountLimit  Edit</t>
+  </si>
+  <si>
+    <t>verify Accountlimits</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.SystemSettingsTest,
+testEditMerchantAccountlimit,
+-pexpHeading,
+-pexpEditHeading</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.SystemSettingsTest,
+testViewMerchantAccountlimitPage,
+-pexpViewHeading</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>testData-admin.xlsx,AddSignetAccount</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.SystemSettingsTest,
+testEditPersonalFeeStructure,
+-pexpEditHeading</t>
+  </si>
+  <si>
+    <t>VerifyBalanceReport</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>testdata-admin.xlsx,AccountLimits</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.SystemSettingsTest,
+testAccountLimts,
+-pexpHeading,
+-plabelColumn</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.SystemSettingsTest,
+testEditPersonalAccountLimit,
+-pexpEditHeading</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.SystemSettingsTest,
+testViewPersonalAccountLimits,
+-pexpViewHeading</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.CoyniPortalTest,
+testAddSignetAccount,
+-pnoSignetAccountsExistHeading,
+-pdescription,
+-paddNewSignetAccountHeading,
+-pnewSignetAccount,
+-pwalletID,
+-paddressLine1,
+-paddressLine2,
+-pcity,
+-pstate,
+-pzipCode,
+-pwithdrawToSignetAccountHeading,
+-pamount,
+-pdescription,
+-pwithdrawToSignetPreviewHeading,
+-pcode</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.CoyniPortalTest,
+testRemoveSignetAccount,
+-premoveSignetAccountHeading,
+-pdescription</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.CoyniPortalTest,
+testAddSignetAccountInvalidDataValidations,
+-pnoSignetAccountsExistHeading,
+-pdescription,
+-paddNewSignetAccountHeading,
+-pnewSignetAccount,
+-pwalletID,
+-paddressLine1,
+-paddressLine2,
+-pcity,
+-pstate,
+-pzipCode,
+-pwithdrawToSignetAccountHeading,
+-pamount,
+-pdescription,
+-pwithdrawToSignetPreviewHeading,
+-pcode,
+-perrMessage</t>
+  </si>
+  <si>
+    <t>testSignetAccountInvalidAmount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.admin.tests.CoyniPortalTest,
+testAddSignetAccountInvalidAmount,
+-amount,
+-pdescription,
+-perrMessage
+</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -64,8 +997,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -100,7 +1044,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -112,7 +1056,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -159,23 +1103,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -211,23 +1138,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -379,15 +1289,1858 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D365C4A9-D3EA-42C3-ACEB-F06D1835482A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.42578125" customWidth="1"/>
+    <col min="9" max="9" width="43.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="210.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="255" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="270" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(18-07-2022)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(19-07-2002)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA14F40-5716-4E24-8B67-4E2FB96DB780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EE463B-3216-46FD-969D-C336CBA809FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -932,7 +933,7 @@
   <si>
     <t xml:space="preserve">coyni.admin.tests.CoyniPortalTest,
 testAddSignetAccountInvalidAmount,
--amount,
+-pamount,
 -pdescription,
 -perrMessage
 </t>
@@ -1292,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>31</v>
@@ -1884,7 +1885,7 @@
         <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>57</v>
@@ -1914,7 +1915,7 @@
         <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>57</v>
@@ -1944,7 +1945,7 @@
         <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>57</v>
@@ -1974,7 +1975,7 @@
         <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>57</v>
@@ -2004,7 +2005,7 @@
         <v>65</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>57</v>
@@ -2034,7 +2035,7 @@
         <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>57</v>
@@ -2064,7 +2065,7 @@
         <v>69</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>71</v>
@@ -2188,7 +2189,7 @@
         <v>80</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>71</v>
@@ -2250,7 +2251,7 @@
         <v>85</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>71</v>
@@ -2281,7 +2282,7 @@
         <v>87</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>71</v>
@@ -2312,7 +2313,7 @@
         <v>89</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>90</v>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(19-07-2002)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\web(21-07-2022)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EE463B-3216-46FD-969D-C336CBA809FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67187429-7BE0-4707-A8C6-361856925717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="176">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -937,6 +936,50 @@
 -pdescription,
 -perrMessage
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">create Api Business </t>
+  </si>
+  <si>
+    <t>testdata-admin.xlsx,profileApiBusiness</t>
+  </si>
+  <si>
+    <t>Api Business</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testAddApiBusiness,
+-pheadingInvitation,
+-pheadingContact,
+-pfirstName,
+-plastName,
+-pemail1,
+-pphoneNumber,
+-pbusiness,
+-pdoller,
+-ppercentage,
+-pecoSystem,
+-pbusinessLimit,
+-pecoSystemLimit</t>
+  </si>
+  <si>
+    <t>Verify Business userList</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testveifyGrid,
+-pfilterType,
+-ptoAmount,
+-pamount,
+-pheading,
+-pexportHeading</t>
+  </si>
+  <si>
+    <t>Verify Business Details</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testveifyApiBusinessDetails</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1041,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1011,6 +1054,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1291,26 +1337,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="B65" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.42578125" customWidth="1"/>
-    <col min="9" max="9" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="43.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.44140625" customWidth="1"/>
+    <col min="9" max="9" width="43.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +1385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1365,7 +1411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1391,7 +1437,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1417,7 +1463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,7 +1492,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1475,7 +1521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1504,7 +1550,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="216" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1530,7 +1576,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="210.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="202.8" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -1556,7 +1602,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -1582,7 +1628,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1608,12 +1654,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>31</v>
@@ -1634,7 +1680,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1660,7 +1706,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="216" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
@@ -1686,7 +1732,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -1712,7 +1758,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1738,7 +1784,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1764,12 +1810,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="255" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>155</v>
@@ -1793,12 +1839,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>155</v>
@@ -1822,12 +1868,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>155</v>
@@ -1851,12 +1897,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="270" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>155</v>
@@ -1880,12 +1926,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>57</v>
@@ -1910,12 +1956,12 @@
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>57</v>
@@ -1940,12 +1986,12 @@
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>57</v>
@@ -1970,12 +2016,12 @@
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>57</v>
@@ -2000,12 +2046,12 @@
       </c>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>57</v>
@@ -2030,12 +2076,12 @@
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>57</v>
@@ -2060,12 +2106,12 @@
       </c>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>71</v>
@@ -2091,7 +2137,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -2122,7 +2168,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
@@ -2153,7 +2199,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>78</v>
       </c>
@@ -2184,12 +2230,12 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>71</v>
@@ -2215,7 +2261,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>82</v>
       </c>
@@ -2246,12 +2292,12 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>71</v>
@@ -2277,12 +2323,12 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>71</v>
@@ -2308,12 +2354,12 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>90</v>
@@ -2337,7 +2383,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>94</v>
       </c>
@@ -2366,7 +2412,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>97</v>
       </c>
@@ -2395,7 +2441,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>99</v>
       </c>
@@ -2424,7 +2470,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>101</v>
       </c>
@@ -2453,7 +2499,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>103</v>
       </c>
@@ -2482,7 +2528,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>157</v>
       </c>
@@ -2511,7 +2557,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>109</v>
       </c>
@@ -2540,7 +2586,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>111</v>
       </c>
@@ -2569,7 +2615,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>114</v>
       </c>
@@ -2601,7 +2647,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>117</v>
       </c>
@@ -2633,7 +2679,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>119</v>
       </c>
@@ -2665,7 +2711,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>121</v>
       </c>
@@ -2697,7 +2743,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>123</v>
       </c>
@@ -2729,7 +2775,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>125</v>
       </c>
@@ -2761,7 +2807,7 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>127</v>
       </c>
@@ -2793,7 +2839,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>111</v>
       </c>
@@ -2822,7 +2868,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>130</v>
       </c>
@@ -2851,7 +2897,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>132</v>
       </c>
@@ -2880,7 +2926,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>134</v>
       </c>
@@ -2909,7 +2955,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>136</v>
       </c>
@@ -2938,7 +2984,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>138</v>
       </c>
@@ -2967,7 +3013,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>140</v>
       </c>
@@ -2996,7 +3042,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>149</v>
       </c>
@@ -3025,7 +3071,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>145</v>
       </c>
@@ -3054,7 +3100,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>148</v>
       </c>
@@ -3083,7 +3129,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>147</v>
       </c>
@@ -3112,7 +3158,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>146</v>
       </c>
@@ -3139,6 +3185,93 @@
       </c>
       <c r="I63" s="2" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\web(21-07-2022)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\2022\080822_Web\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67187429-7BE0-4707-A8C6-361856925717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAB60D8-E48C-47D8-832B-7ABA294A86F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="184">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -403,9 +403,6 @@
   </si>
   <si>
     <t>testTransactionListExportsToday</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>testData-admin.xlsx,transaction</t>
@@ -980,6 +977,52 @@
   <si>
     <t>coyni.admin.tests.ProfilesTest,
 testveifyApiBusinessDetails</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Verify Individual SideBar View</t>
+  </si>
+  <si>
+    <t>testdata-admin.xlsx,profiles</t>
+  </si>
+  <si>
+    <t>Individuals</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testIndividualSideBarView,
+-pprofileHeading,
+-psearchText,
+-pexpID,
+-pexpUserName,
+-pexpAccountID</t>
+  </si>
+  <si>
+    <t>Verify Individual User Details View</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testIndividualUserDetailsView,
+-pprofileHeading,
+-psearchText,
+-pexpID,
+-pexpUserHeading,
+-puserName,
+-pexpAccountID,
+-pexpAccountStatus</t>
+  </si>
+  <si>
+    <t>Verify Individual User Details Payment Methods</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testIndividualPaymentMethodView,
+-pprofileHeading,
+-psearchText,
+-pexpID,
+-pexpPaymentMethodHeading</t>
   </si>
 </sst>
 </file>
@@ -1337,26 +1380,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B65" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.44140625" customWidth="1"/>
-    <col min="9" max="9" width="43.109375" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.42578125" customWidth="1"/>
+    <col min="9" max="9" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1385,12 +1428,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1399,10 +1442,10 @@
         <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -1411,12 +1454,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1425,10 +1468,10 @@
         <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -1437,12 +1480,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1451,10 +1494,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -1463,12 +1506,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -1477,10 +1520,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>21</v>
@@ -1492,12 +1535,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -1506,10 +1549,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>25</v>
@@ -1521,12 +1564,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -1535,10 +1578,10 @@
         <v>11</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>28</v>
@@ -1550,12 +1593,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="216" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>31</v>
@@ -1564,24 +1607,24 @@
         <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="202.8" x14ac:dyDescent="0.4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="210.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>31</v>
@@ -1590,24 +1633,24 @@
         <v>15</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>31</v>
@@ -1616,10 +1659,10 @@
         <v>15</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>32</v>
@@ -1628,12 +1671,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>31</v>
@@ -1642,10 +1685,10 @@
         <v>15</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>32</v>
@@ -1654,12 +1697,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>31</v>
@@ -1668,10 +1711,10 @@
         <v>15</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>32</v>
@@ -1680,12 +1723,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>41</v>
@@ -1694,10 +1737,10 @@
         <v>11</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>42</v>
@@ -1706,12 +1749,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="216" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>41</v>
@@ -1720,10 +1763,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>42</v>
@@ -1732,12 +1775,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>41</v>
@@ -1758,12 +1801,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>41</v>
@@ -1784,12 +1827,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>41</v>
@@ -1810,15 +1853,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -1836,18 +1879,18 @@
         <v>22</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>15</v>
@@ -1865,18 +1908,18 @@
         <v>22</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -1894,18 +1937,18 @@
         <v>22</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="259.2" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="270" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>15</v>
@@ -1923,15 +1966,15 @@
         <v>22</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>57</v>
@@ -1940,10 +1983,10 @@
         <v>11</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>53</v>
@@ -1956,12 +1999,12 @@
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>57</v>
@@ -1970,10 +2013,10 @@
         <v>11</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>53</v>
@@ -1986,12 +2029,12 @@
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>57</v>
@@ -2000,10 +2043,10 @@
         <v>11</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>53</v>
@@ -2016,12 +2059,12 @@
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>57</v>
@@ -2030,10 +2073,10 @@
         <v>11</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>53</v>
@@ -2046,12 +2089,12 @@
       </c>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>57</v>
@@ -2060,10 +2103,10 @@
         <v>11</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>53</v>
@@ -2076,12 +2119,12 @@
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>57</v>
@@ -2090,10 +2133,10 @@
         <v>11</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>53</v>
@@ -2106,492 +2149,492 @@
       </c>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I36" s="2" t="s">
+    </row>
+    <row r="37" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I37" s="2" t="s">
+    </row>
+    <row r="38" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I38" s="2" t="s">
+      <c r="B39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I41" s="2" t="s">
+      <c r="B42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>157</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I42" s="2" t="s">
+    </row>
+    <row r="43" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="B43" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I43" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="B44" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>20</v>
@@ -2600,251 +2643,251 @@
         <v>15</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I44" s="2" t="s">
+    </row>
+    <row r="45" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>20</v>
@@ -2853,27 +2896,27 @@
         <v>11</v>
       </c>
       <c r="E52" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="B53" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>20</v>
@@ -2882,27 +2925,27 @@
         <v>15</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="144" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="B54" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>20</v>
@@ -2911,27 +2954,27 @@
         <v>11</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I54" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="144" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="B55" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>20</v>
@@ -2940,27 +2983,27 @@
         <v>11</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I55" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="144" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="B56" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>20</v>
@@ -2969,27 +3012,27 @@
         <v>11</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I56" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="144" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="B57" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>20</v>
@@ -2998,27 +3041,27 @@
         <v>11</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I57" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="144" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="B58" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>20</v>
@@ -3027,251 +3070,367 @@
         <v>11</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+    </row>
+    <row r="63" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I62" s="2" t="s">
+      <c r="B63" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G64" s="1" t="s">
+      <c r="H64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I64" s="2" t="s">
+    </row>
+    <row r="65" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="B65" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I65" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" s="1" t="s">
+    </row>
+    <row r="66" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="H66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I66" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>175</v>
+    </row>
+    <row r="67" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\2022\080822_Web\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\2022\080922-Web\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAB60D8-E48C-47D8-832B-7ABA294A86F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6175F17-9769-49C1-BFFD-0387A931178F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="183">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>testTransactionListExportsToday</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>testData-admin.xlsx,transaction</t>
@@ -938,9 +941,6 @@
     <t xml:space="preserve">create Api Business </t>
   </si>
   <si>
-    <t>testdata-admin.xlsx,profileApiBusiness</t>
-  </si>
-  <si>
     <t>Api Business</t>
   </si>
   <si>
@@ -977,9 +977,6 @@
   <si>
     <t>coyni.admin.tests.ProfilesTest,
 testveifyApiBusinessDetails</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Verify Individual SideBar View</t>
@@ -1382,8 +1379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,7 +1430,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1442,10 +1439,10 @@
         <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -1459,7 +1456,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1468,10 +1465,10 @@
         <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -1485,7 +1482,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1494,10 +1491,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -1511,7 +1508,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -1520,10 +1517,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>21</v>
@@ -1540,7 +1537,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -1549,10 +1546,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>25</v>
@@ -1569,7 +1566,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -1578,10 +1575,10 @@
         <v>11</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>28</v>
@@ -1598,7 +1595,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>31</v>
@@ -1607,16 +1604,16 @@
         <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="210.75" x14ac:dyDescent="0.3">
@@ -1624,7 +1621,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>31</v>
@@ -1633,16 +1630,16 @@
         <v>15</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="210" x14ac:dyDescent="0.25">
@@ -1650,7 +1647,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>31</v>
@@ -1659,10 +1656,10 @@
         <v>15</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>32</v>
@@ -1676,7 +1673,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>31</v>
@@ -1685,10 +1682,10 @@
         <v>15</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>32</v>
@@ -1702,7 +1699,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>31</v>
@@ -1711,10 +1708,10 @@
         <v>15</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>32</v>
@@ -1728,7 +1725,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>41</v>
@@ -1737,10 +1734,10 @@
         <v>11</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>42</v>
@@ -1754,7 +1751,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>41</v>
@@ -1763,10 +1760,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>42</v>
@@ -1780,7 +1777,7 @@
         <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>41</v>
@@ -1806,7 +1803,7 @@
         <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>41</v>
@@ -1832,7 +1829,7 @@
         <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>41</v>
@@ -1858,10 +1855,10 @@
         <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -1879,18 +1876,18 @@
         <v>22</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>15</v>
@@ -1908,7 +1905,7 @@
         <v>22</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="150" x14ac:dyDescent="0.25">
@@ -1916,10 +1913,10 @@
         <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -1937,7 +1934,7 @@
         <v>22</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="270" x14ac:dyDescent="0.25">
@@ -1945,10 +1942,10 @@
         <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>15</v>
@@ -1966,7 +1963,7 @@
         <v>22</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="150" x14ac:dyDescent="0.25">
@@ -1974,7 +1971,7 @@
         <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>57</v>
@@ -1983,10 +1980,10 @@
         <v>11</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>53</v>
@@ -2004,7 +2001,7 @@
         <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>57</v>
@@ -2013,10 +2010,10 @@
         <v>11</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>53</v>
@@ -2034,7 +2031,7 @@
         <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>57</v>
@@ -2043,10 +2040,10 @@
         <v>11</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>53</v>
@@ -2064,7 +2061,7 @@
         <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>57</v>
@@ -2073,10 +2070,10 @@
         <v>11</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>53</v>
@@ -2094,7 +2091,7 @@
         <v>65</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>57</v>
@@ -2103,10 +2100,10 @@
         <v>11</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>53</v>
@@ -2124,7 +2121,7 @@
         <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>57</v>
@@ -2133,10 +2130,10 @@
         <v>11</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>53</v>
@@ -2154,487 +2151,487 @@
         <v>69</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="H39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>20</v>
@@ -2643,48 +2640,48 @@
         <v>15</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -2692,31 +2689,31 @@
     </row>
     <row r="46" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -2724,31 +2721,31 @@
     </row>
     <row r="47" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -2756,31 +2753,31 @@
     </row>
     <row r="48" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -2788,31 +2785,31 @@
     </row>
     <row r="49" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -2820,31 +2817,31 @@
     </row>
     <row r="50" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -2852,31 +2849,31 @@
     </row>
     <row r="51" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -2884,10 +2881,10 @@
     </row>
     <row r="52" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>20</v>
@@ -2896,27 +2893,27 @@
         <v>11</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>20</v>
@@ -2925,27 +2922,27 @@
         <v>15</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>20</v>
@@ -2954,27 +2951,27 @@
         <v>11</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>20</v>
@@ -2983,27 +2980,27 @@
         <v>11</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>20</v>
@@ -3012,27 +3009,27 @@
         <v>11</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>20</v>
@@ -3041,27 +3038,27 @@
         <v>11</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>20</v>
@@ -3070,190 +3067,190 @@
         <v>11</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="H60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>169</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>170</v>
@@ -3264,25 +3261,25 @@
         <v>171</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>169</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I65" s="8" t="s">
         <v>172</v>
@@ -3293,25 +3290,25 @@
         <v>173</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>169</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I66" s="8" t="s">
         <v>174</v>
@@ -3319,118 +3316,118 @@
     </row>
     <row r="67" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G67" s="1" t="s">
+      <c r="H67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I67" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I67" s="8" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I68" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I69" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I70" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\2022\080922-Web\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin Test Data And Test Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6175F17-9769-49C1-BFFD-0387A931178F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CF4684-D926-45B0-99FD-8BB78DEF71AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="202">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1020,6 +1020,108 @@
 -psearchText,
 -pexpID,
 -pexpPaymentMethodHeading</t>
+  </si>
+  <si>
+    <t>test Change Password</t>
+  </si>
+  <si>
+    <t>TokenAccount-ChangePassword</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testAdminLogin,
+-ploginHeading,
+-pemail,
+-ppassword,
+-pauthyHeading,
+-pauthyDescription,
+-pcode</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.HomeTest,
+testUserDetailsChangePasswordWithValid,
+-pcode,
+-pcurrentPassword,
+-pnewPassword,
+-pconfirmPassword</t>
+  </si>
+  <si>
+    <t>test Change Password invalid information</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.HomeTest,
+testUserDetailsChangePasswordInvalidCredentials,
+-pcode,
+-pcurrentPassword,
+-pnewPassword,
+-pconfirmPassword,
+-perrMessage</t>
+  </si>
+  <si>
+    <t>testdata-admin.xlsx,changePassword</t>
+  </si>
+  <si>
+    <t>test upload image</t>
+  </si>
+  <si>
+    <t>testdata-admin.xlsx,userDetails</t>
+  </si>
+  <si>
+    <t>UserDetails-Upload Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.admin.tests.HomeTest,
+uploadImg,
+-paccountProfileHeading,
+-pcropYourImageHeading,
+-pfolderName,
+-pfileName
+</t>
+  </si>
+  <si>
+    <t>testTransactionFiltersList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.admin.tests.TransactionTest,
+testverifyFilters,
+-pfilters
+</t>
+  </si>
+  <si>
+    <t>testTransactionDetailsWithChargeBack</t>
+  </si>
+  <si>
+    <t>testData-admin.xlsx,TransactionDetails</t>
+  </si>
+  <si>
+    <t>ChargeBack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.admin.tests.TransactionTest,
+testgenerateDisputes,
+-pchargeBackHeading,
+-pcaseNumber,
+-pstartDate,
+-pendDate,
+-ptableData,
+-pmessage,
+-pwonHeading,
+-pcontent,
+-pnameOfUser
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin login Page With Invalid Email </t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testAdminLoginWithInvalidEmail,
+-ploginHeading,
+-ploginDescription,
+-pemail,
+-ppassword,
+-ptitle,
+-ptoastMessage</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1096,6 +1198,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1377,26 +1488,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.42578125" customWidth="1"/>
-    <col min="9" max="9" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="43.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.44140625" customWidth="1"/>
+    <col min="9" max="9" width="43.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1425,7 +1536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1451,7 +1562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1477,64 +1588,61 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>70</v>
@@ -1552,18 +1660,18 @@
         <v>129</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>70</v>
@@ -1580,45 +1688,48 @@
       <c r="F7" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:9" ht="216" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="210.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>70</v>
@@ -1639,12 +1750,12 @@
         <v>32</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="202.8" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>70</v>
@@ -1659,18 +1770,18 @@
         <v>129</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>70</v>
@@ -1685,18 +1796,18 @@
         <v>129</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>70</v>
@@ -1711,44 +1822,44 @@
         <v>129</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="255" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>70</v>
@@ -1769,12 +1880,12 @@
         <v>42</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="216" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>70</v>
@@ -1783,24 +1894,24 @@
         <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>70</v>
@@ -1809,24 +1920,24 @@
         <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>70</v>
@@ -1847,18 +1958,18 @@
         <v>42</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="255" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -1870,18 +1981,15 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>166</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>70</v>
@@ -1890,13 +1998,13 @@
         <v>155</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>53</v>
@@ -1905,12 +2013,12 @@
         <v>22</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>70</v>
@@ -1919,13 +2027,13 @@
         <v>155</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>53</v>
@@ -1934,12 +2042,12 @@
         <v>22</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="270" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>70</v>
@@ -1948,13 +2056,13 @@
         <v>155</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>53</v>
@@ -1963,27 +2071,27 @@
         <v>22</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>129</v>
+        <v>15</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>53</v>
@@ -1992,13 +2100,12 @@
         <v>22</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>70</v>
@@ -2022,13 +2129,13 @@
         <v>22</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>70</v>
@@ -2052,13 +2159,13 @@
         <v>22</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>70</v>
@@ -2082,13 +2189,13 @@
         <v>22</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>70</v>
@@ -2112,13 +2219,13 @@
         <v>22</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>70</v>
@@ -2142,19 +2249,19 @@
         <v>22</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -2166,20 +2273,19 @@
         <v>129</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>70</v>
@@ -2203,14 +2309,14 @@
         <v>22</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>70</v>
@@ -2234,14 +2340,14 @@
         <v>22</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>70</v>
@@ -2265,14 +2371,14 @@
         <v>22</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>70</v>
@@ -2296,14 +2402,14 @@
         <v>22</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>70</v>
@@ -2321,20 +2427,20 @@
         <v>129</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>70</v>
@@ -2358,14 +2464,14 @@
         <v>22</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>70</v>
@@ -2389,43 +2495,45 @@
         <v>22</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>70</v>
@@ -2443,18 +2551,18 @@
         <v>129</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>92</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>70</v>
@@ -2472,18 +2580,18 @@
         <v>129</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>92</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>70</v>
@@ -2507,12 +2615,12 @@
         <v>92</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>70</v>
@@ -2530,24 +2638,24 @@
         <v>129</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>92</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>11</v>
@@ -2565,18 +2673,18 @@
         <v>92</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>157</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
@@ -2588,18 +2696,18 @@
         <v>129</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>92</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>157</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>70</v>
@@ -2608,13 +2716,13 @@
         <v>106</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>107</v>
@@ -2623,18 +2731,18 @@
         <v>92</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>15</v>
@@ -2643,30 +2751,30 @@
         <v>129</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>92</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>129</v>
@@ -2675,21 +2783,18 @@
         <v>129</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>92</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-    </row>
-    <row r="46" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>70</v>
@@ -2713,15 +2818,15 @@
         <v>92</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>70</v>
@@ -2745,15 +2850,15 @@
         <v>92</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>70</v>
@@ -2777,15 +2882,15 @@
         <v>92</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>70</v>
@@ -2809,15 +2914,15 @@
         <v>92</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>70</v>
@@ -2841,15 +2946,15 @@
         <v>92</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>70</v>
@@ -2873,21 +2978,21 @@
         <v>92</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -2899,18 +3004,21 @@
         <v>129</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I52" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="I52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>70</v>
@@ -2919,7 +3027,7 @@
         <v>20</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>129</v>
@@ -2934,12 +3042,12 @@
         <v>92</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>70</v>
@@ -2948,7 +3056,7 @@
         <v>20</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>129</v>
@@ -2960,15 +3068,15 @@
         <v>112</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>70</v>
@@ -2992,12 +3100,12 @@
         <v>22</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>70</v>
@@ -3021,12 +3129,12 @@
         <v>22</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>70</v>
@@ -3050,12 +3158,12 @@
         <v>22</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>70</v>
@@ -3079,41 +3187,41 @@
         <v>22</v>
       </c>
       <c r="I58" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>70</v>
@@ -3137,12 +3245,12 @@
         <v>92</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>70</v>
@@ -3166,12 +3274,12 @@
         <v>92</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>70</v>
@@ -3195,12 +3303,12 @@
         <v>92</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>70</v>
@@ -3224,18 +3332,18 @@
         <v>92</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>11</v>
@@ -3247,18 +3355,18 @@
         <v>129</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>92</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>70</v>
@@ -3281,16 +3389,16 @@
       <c r="H65" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I65" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="I65" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>176</v>
@@ -3311,15 +3419,15 @@
         <v>92</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>176</v>
@@ -3334,18 +3442,18 @@
         <v>129</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>92</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>70</v>
@@ -3369,15 +3477,15 @@
         <v>92</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>176</v>
@@ -3398,10 +3506,10 @@
         <v>92</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>181</v>
       </c>
@@ -3429,6 +3537,196 @@
       <c r="I70" s="8" t="s">
         <v>182</v>
       </c>
+    </row>
+    <row r="71" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin Test Data And Test Script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(25-08-2022)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CF4684-D926-45B0-99FD-8BB78DEF71AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560B4510-BBBE-4573-BB66-5F74A8D296D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$76</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="206">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -412,12 +415,6 @@
   </si>
   <si>
     <t>TransactionListExport</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.TransactionTest,
-testExportSelectedTransactionToday,
--pheading,
--pexportHeading</t>
   </si>
   <si>
     <t>testTransactionListExportsYesterday</t>
@@ -1122,6 +1119,28 @@
 -ppassword,
 -ptitle,
 -ptoastMessage</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.TransactionTest,
+testExportSelectedTransactionToday,
+-pheading,
+-pexportHeading
+-pcontent</t>
+  </si>
+  <si>
+    <t>TransactionDetails</t>
+  </si>
+  <si>
+    <t>testFiltersWithClearListOfData</t>
+  </si>
+  <si>
+    <t>Verify Filters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.admin.tests.TransactionTest,
+testverifyApplyFilterAndClearFilters,
+-pfilters
+</t>
   </si>
 </sst>
 </file>
@@ -1202,11 +1221,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1488,26 +1507,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.44140625" customWidth="1"/>
-    <col min="9" max="9" width="43.109375" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.42578125" customWidth="1"/>
+    <col min="9" max="9" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1536,7 +1555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1550,10 +1569,10 @@
         <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -1562,7 +1581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1576,10 +1595,10 @@
         <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -1588,12 +1607,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1602,19 +1621,19 @@
         <v>15</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1628,10 +1647,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -1640,7 +1659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1654,10 +1673,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>21</v>
@@ -1669,7 +1688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1683,10 +1702,10 @@
         <v>11</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>25</v>
@@ -1698,7 +1717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1712,10 +1731,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>28</v>
@@ -1727,7 +1746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="216" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1741,19 +1760,19 @@
         <v>15</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="202.8" x14ac:dyDescent="0.4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="210.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
@@ -1767,19 +1786,19 @@
         <v>15</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1793,10 +1812,10 @@
         <v>15</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>32</v>
@@ -1805,7 +1824,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1819,10 +1838,10 @@
         <v>15</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>32</v>
@@ -1831,7 +1850,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1845,10 +1864,10 @@
         <v>15</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>32</v>
@@ -1857,7 +1876,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1871,10 +1890,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>42</v>
@@ -1883,7 +1902,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="216" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -1897,10 +1916,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>42</v>
@@ -1909,7 +1928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1935,7 +1954,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -1961,7 +1980,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -1987,7 +2006,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>52</v>
       </c>
@@ -1995,7 +2014,7 @@
         <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -2013,18 +2032,18 @@
         <v>22</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>15</v>
@@ -2042,10 +2061,10 @@
         <v>22</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
@@ -2053,7 +2072,7 @@
         <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
@@ -2071,10 +2090,10 @@
         <v>22</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="259.2" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="270" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
@@ -2082,7 +2101,7 @@
         <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>15</v>
@@ -2100,10 +2119,10 @@
         <v>22</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -2117,13 +2136,13 @@
         <v>11</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>22</v>
@@ -2133,7 +2152,7 @@
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
@@ -2147,10 +2166,10 @@
         <v>11</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>53</v>
@@ -2163,7 +2182,7 @@
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -2177,10 +2196,10 @@
         <v>11</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>53</v>
@@ -2193,7 +2212,7 @@
       </c>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>63</v>
       </c>
@@ -2207,10 +2226,10 @@
         <v>11</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>53</v>
@@ -2223,7 +2242,7 @@
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
@@ -2237,10 +2256,10 @@
         <v>11</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>53</v>
@@ -2253,7 +2272,7 @@
       </c>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>67</v>
       </c>
@@ -2267,10 +2286,10 @@
         <v>11</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>53</v>
@@ -2283,7 +2302,7 @@
       </c>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
@@ -2297,10 +2316,10 @@
         <v>11</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>72</v>
@@ -2309,14 +2328,14 @@
         <v>22</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>70</v>
@@ -2328,10 +2347,10 @@
         <v>11</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>72</v>
@@ -2340,14 +2359,14 @@
         <v>22</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>70</v>
@@ -2359,10 +2378,10 @@
         <v>11</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>72</v>
@@ -2371,14 +2390,14 @@
         <v>22</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>70</v>
@@ -2390,10 +2409,10 @@
         <v>11</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>72</v>
@@ -2402,14 +2421,14 @@
         <v>22</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>70</v>
@@ -2421,10 +2440,10 @@
         <v>11</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>72</v>
@@ -2433,14 +2452,14 @@
         <v>22</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>70</v>
@@ -2452,26 +2471,26 @@
         <v>11</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>70</v>
@@ -2483,26 +2502,26 @@
         <v>11</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>70</v>
@@ -2514,258 +2533,258 @@
         <v>11</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I37" s="2" t="s">
+    </row>
+    <row r="38" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I38" s="2" t="s">
+    </row>
+    <row r="39" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I39" s="2" t="s">
+      <c r="B40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I42" s="2" t="s">
+      <c r="B43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>157</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I43" s="2" t="s">
+    </row>
+    <row r="44" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="B44" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I44" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>70</v>
@@ -2777,248 +2796,248 @@
         <v>15</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I45" s="2" t="s">
+    </row>
+    <row r="46" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>70</v>
@@ -3030,24 +3049,24 @@
         <v>11</v>
       </c>
       <c r="E53" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>70</v>
@@ -3059,24 +3078,24 @@
         <v>15</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I54" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="144" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>70</v>
@@ -3088,24 +3107,24 @@
         <v>11</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I55" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="144" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>70</v>
@@ -3117,24 +3136,24 @@
         <v>11</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I56" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="144" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>70</v>
@@ -3146,24 +3165,24 @@
         <v>11</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I57" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="144" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>70</v>
@@ -3175,24 +3194,24 @@
         <v>11</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I58" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="144" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>70</v>
@@ -3204,471 +3223,471 @@
         <v>11</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+    </row>
+    <row r="64" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I63" s="2" t="s">
+      <c r="B64" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="H65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="H68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="H69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I67" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="H70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="D71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="H71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I71" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I70" s="8" t="s">
+    </row>
+    <row r="72" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>153</v>
+      <c r="E72" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="G72" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H72" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="I72" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>158</v>
+        <v>186</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>154</v>
+      <c r="E73" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="G73" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H73" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H73" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="I73" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E74" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>129</v>
+      <c r="E74" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="G74" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I74" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>70</v>
@@ -3680,10 +3699,10 @@
         <v>11</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>72</v>
@@ -3692,43 +3711,75 @@
         <v>22</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
+    <row r="77" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I76" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(25-08-2022)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(06-09-2022)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560B4510-BBBE-4573-BB66-5F74A8D296D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C316EB-27B5-4795-A35F-673EFC0C9E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$78</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="219">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1067,15 +1067,6 @@
     <t>UserDetails-Upload Image</t>
   </si>
   <si>
-    <t xml:space="preserve">coyni.admin.tests.HomeTest,
-uploadImg,
--paccountProfileHeading,
--pcropYourImageHeading,
--pfolderName,
--pfileName
-</t>
-  </si>
-  <si>
     <t>testTransactionFiltersList</t>
   </si>
   <si>
@@ -1141,6 +1132,72 @@
 testverifyApplyFilterAndClearFilters,
 -pfilters
 </t>
+  </si>
+  <si>
+    <t>verify Payout transactionList</t>
+  </si>
+  <si>
+    <t>Commission History</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.CoyniPortalTest,
+testVerifyPayoutTransactionHistory,
+-pheading</t>
+  </si>
+  <si>
+    <t>testApplyFiltersCountWithDB</t>
+  </si>
+  <si>
+    <t>Verify Apply Filters Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.admin.tests.TransactionTest,
+testVerifyFiltersDataInTransaction,
+-pquery
+</t>
+  </si>
+  <si>
+    <t>test remove image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.admin.tests.HomeTest,
+testRemoveUploadedImg,
+-paccountProfileHeading,
+-premoveHeading,
+-pcontent
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.admin.tests.HomeTest,
+uploadImg,
+-paccountProfileHeading,
+-pcropYourImageHeading,
+-pfolderName,
+-pfileName,
+-ptitle,
+-pmessage
+</t>
+  </si>
+  <si>
+    <t>UserDetails-RemoveImage</t>
+  </si>
+  <si>
+    <t>test checkOut Transaction</t>
+  </si>
+  <si>
+    <t>testData-admin.xlsx,checkOut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.checkout.tests.CheckOutTest,
+tesCheckOutTransaction,
+-pdomain,
+-porderId,
+-ppublicKey,
+-psecretKey
+</t>
+  </si>
+  <si>
+    <t>Verify Check Out Transaction</t>
   </si>
 </sst>
 </file>
@@ -1182,12 +1239,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1202,7 +1265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1226,6 +1289,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1507,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,7 +1590,7 @@
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="47.42578125" customWidth="1"/>
     <col min="9" max="9" width="43.140625" customWidth="1"/>
   </cols>
@@ -1609,7 +1678,7 @@
     </row>
     <row r="4" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>70</v>
@@ -1630,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.25">
@@ -2142,7 +2211,7 @@
         <v>128</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>22</v>
@@ -2328,7 +2397,7 @@
         <v>22</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -3652,7 +3721,7 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>189</v>
       </c>
@@ -3678,53 +3747,55 @@
         <v>184</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>193</v>
+    <row r="75" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>72</v>
+      <c r="C75" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
-    </row>
-    <row r="76" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
@@ -3736,50 +3807,170 @@
         <v>128</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I77" s="11" t="s">
-        <v>205</v>
+      <c r="I77" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
+    <row r="78" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I81" s="11"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I76" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I78" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(06-09-2022)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(06-09-2022)[2]\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C316EB-27B5-4795-A35F-673EFC0C9E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5CB7FF-13DF-46FB-8938-1A43A71AE9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="223">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1188,16 +1188,64 @@
     <t>testData-admin.xlsx,checkOut</t>
   </si>
   <si>
+    <t>Verify Check Out Transaction</t>
+  </si>
+  <si>
+    <t>test checkOut Transaction invalid PopUp</t>
+  </si>
+  <si>
+    <t>coyni.checkout.tests.CheckOutTest,
+tesCheckOutInvalidData,
+-pdomain,
+-porderId,
+-ppublicKey,
+-psecretKey</t>
+  </si>
+  <si>
+    <t>test checkOut Cancel Transaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.checkout.tests.CheckOutTest,
+tesCheckOutCancelTransaction,
+-pdomain,
+-ppublicKey,
+-psecretKey,
+-pemail,
+-ppassword,
+-pheading,
+-pcode,
+-pcancelHeading,
+-pcontent,
+-pcheckOutContent
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">coyni.checkout.tests.CheckOutTest,
 tesCheckOutTransaction,
 -pdomain,
--porderId,
 -ppublicKey,
--psecretKey
+-psecretKey,
+-pemail,
+-ppassword,
+-pheading,
+-pcode,
+-psuccessContent,
+-pinsufficient,
+-pcvv,
+-pamount,
+-pnameOnCard,
+-pcardNumber,
+-pcardType,
+-pcardExpiry,
+-pcvvNumber,
+-paddressLine1,
+-paddressLine2,
+-pcity,
+-pzipCode,
+-pstate,
+-pcountry,
+-ppreamount
 </t>
-  </si>
-  <si>
-    <t>Verify Check Out Transaction</t>
   </si>
 </sst>
 </file>
@@ -1576,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3940,7 +3988,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>215</v>
       </c>
@@ -3960,14 +4008,72 @@
         <v>128</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="I81" s="11"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I82" s="11"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I83" s="11"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I78" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(06-09-2022)[2]\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(13-09-2022)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5CB7FF-13DF-46FB-8938-1A43A71AE9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B00A37E-753F-4B1C-9007-DFAE26F9AD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$91</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="245">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -198,19 +198,6 @@
 -pcolour,
 -pelementName,
 -pvalidatePassword</t>
-  </si>
-  <si>
-    <t>Forgot Email With Invalid Email Verification Code</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.LoginTest,
-testForgotPasswordWithInvalidEmailVerificationCode,
--ploginHeading,
--pforgotHeading,
--pemail,
--pemailHeading,
--pcode,
--pmessage</t>
   </si>
   <si>
     <t>Forgot Password Navigation</t>
@@ -855,9 +842,6 @@
   </si>
   <si>
     <t>VerifyBalanceReport</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>testdata-admin.xlsx,AccountLimits</t>
@@ -938,9 +922,6 @@
     <t xml:space="preserve">create Api Business </t>
   </si>
   <si>
-    <t>Api Business</t>
-  </si>
-  <si>
     <t>coyni.admin.tests.ProfilesTest,
 testAddApiBusiness,
 -pheadingInvitation,
@@ -1082,9 +1063,6 @@
     <t>testData-admin.xlsx,TransactionDetails</t>
   </si>
   <si>
-    <t>ChargeBack</t>
-  </si>
-  <si>
     <t xml:space="preserve">coyni.admin.tests.TransactionTest,
 testgenerateDisputes,
 -pchargeBackHeading,
@@ -1117,9 +1095,6 @@
 -pheading,
 -pexportHeading
 -pcontent</t>
-  </si>
-  <si>
-    <t>TransactionDetails</t>
   </si>
   <si>
     <t>testFiltersWithClearListOfData</t>
@@ -1246,6 +1221,118 @@
 -pcountry,
 -ppreamount
 </t>
+  </si>
+  <si>
+    <t>test checkOut module with out adding products</t>
+  </si>
+  <si>
+    <t>coyni.checkout.tests.CheckOutTest,
+tesCheckOutWithOutAddingProducts,
+-pdomain,
+-ppublicKey,
+-psecretKey</t>
+  </si>
+  <si>
+    <t>Forgot Password With Invalid Email Verification Code</t>
+  </si>
+  <si>
+    <t>accounting</t>
+  </si>
+  <si>
+    <t>transactionDetails</t>
+  </si>
+  <si>
+    <t>Profile Api Business</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testForgotPasswordWithInvalidEmailVerificationCode,
+-ploginHeading,
+-pforgotHeading,
+-pemail,
+-pemailHeading,
+-pcode,
+-pmessage</t>
+  </si>
+  <si>
+    <t>testGobalSearch</t>
+  </si>
+  <si>
+    <t>Gobal Seach</t>
+  </si>
+  <si>
+    <t>testData-admin.xlsx,gobalSearch</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.HomeTest,
+tesGobalSearchWithID,
+-puserId</t>
+  </si>
+  <si>
+    <t>testGobalSearchWithProfileDetails</t>
+  </si>
+  <si>
+    <t>Gobal Seach with profile details</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.HomeTest,
+tesGobalSearchWithProfileDetails,
+-pprofileDetails</t>
+  </si>
+  <si>
+    <t>testGobalSearchWithReferenceID</t>
+  </si>
+  <si>
+    <t>Gobal Seach with Reference Id</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.HomeTest,
+tesGobalSearchWithReferenceId,
+-preferenceID</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.BalanceReportsTest,
+testVerifyCountAndBalanceReportsTest,
+-pcustomerCountQuery,
+-pcustomerBalanceQuery,
+-ppersonalBalanceCount,
+-pbusinessBalanceQuery</t>
+  </si>
+  <si>
+    <t>VerifyCountAndBalance</t>
+  </si>
+  <si>
+    <t>Disputes-ChargeBack</t>
+  </si>
+  <si>
+    <t>Verify filters headings</t>
+  </si>
+  <si>
+    <t>testdata-admin.xlsx,Disputes</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.DisputesTest,
+VerifyFilter,
+-pfilterHeadings</t>
+  </si>
+  <si>
+    <t>Verify case num filter won dispaly</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.DisputesTest,
+VerifyCaseNumFilterWonDispaly,
+-pcaseNum</t>
+  </si>
+  <si>
+    <t>Verify export status case num dispaly</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.DisputesTest,
+verifyDisputesExportsStatusCaseID,
+-pdisputesExportsStatusCaseID</t>
   </si>
 </sst>
 </file>
@@ -1624,26 +1711,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="47.42578125" customWidth="1"/>
     <col min="9" max="9" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1672,12 +1759,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1686,10 +1773,10 @@
         <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -1698,12 +1785,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1712,10 +1799,10 @@
         <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -1724,12 +1811,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1738,137 +1825,128 @@
         <v>15</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="210.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>150</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>31</v>
@@ -1877,2206 +1955,2458 @@
         <v>15</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="210.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>152</v>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="255" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>42</v>
+      <c r="E15" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>180</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>3</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>42</v>
+      <c r="E16" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>180</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="195" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>180</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>205</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="255" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>52</v>
+        <v>180</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
+      <c r="E19" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
+      <c r="E21" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="270" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>5</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>128</v>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>128</v>
+        <v>15</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>128</v>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="270" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="H42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="H43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="H44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="H45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>156</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="H46" s="2" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="H49" s="2" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-    </row>
-    <row r="51" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>125</v>
+        <v>22</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>198</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-    </row>
-    <row r="52" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>127</v>
+        <v>22</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-    </row>
-    <row r="53" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I53" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D54" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>140</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
     </row>
     <row r="60" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>148</v>
+      <c r="A60" t="s">
+        <v>235</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>144</v>
+      <c r="A61" t="s">
+        <v>154</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G64" s="1" t="s">
+      <c r="B71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="210" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="B73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I75" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" s="1" t="s">
+    </row>
+    <row r="76" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I78" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I66" s="8" t="s">
+    </row>
+    <row r="79" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="D79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I67" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G68" s="1" t="s">
+      <c r="H79" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H68" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I68" s="8" t="s">
+      <c r="B80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I80" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-    </row>
-    <row r="73" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-    </row>
-    <row r="74" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" s="9" t="s">
+    <row r="81" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D74" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G74" s="9" t="s">
+      <c r="B81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H74" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-    </row>
-    <row r="75" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-    </row>
-    <row r="76" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="D81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I81" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="H79" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I79" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I80" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="1:11" ht="390" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I81" s="11"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="390" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I85" s="11"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I86" s="11"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I87" s="11"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H88" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="I82" s="11"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="1:11" ht="195" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="I83" s="11"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I78" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I91" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(13-09-2022)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B00A37E-753F-4B1C-9007-DFAE26F9AD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A8264F-C636-495D-9654-7E1C60273348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1319,9 +1319,6 @@
     <t>Verify case num filter won dispaly</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>coyni.admin.tests.DisputesTest,
 VerifyCaseNumFilterWonDispaly,
 -pcaseNum</t>
@@ -1333,6 +1330,9 @@
     <t>coyni.admin.tests.DisputesTest,
 verifyDisputesExportsStatusCaseID,
 -pdisputesExportsStatusCaseID</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -1711,10 +1711,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,7 +1760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="150.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1811,7 +1812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>193</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="210.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="210.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -1889,7 +1890,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -1915,7 +1916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>219</v>
       </c>
@@ -1941,7 +1942,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1993,7 +1994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -2045,7 +2046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -2071,7 +2072,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -2097,7 +2098,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>178</v>
       </c>
@@ -2130,7 +2131,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>182</v>
       </c>
@@ -2163,7 +2164,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>185</v>
       </c>
@@ -2196,7 +2197,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>205</v>
       </c>
@@ -2229,7 +2230,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2255,7 +2256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2284,7 +2285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -2313,7 +2314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -2342,7 +2343,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>162</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2429,7 +2430,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="270" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -2458,7 +2459,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>199</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>108</v>
       </c>
@@ -2516,7 +2517,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>108</v>
       </c>
@@ -2545,7 +2546,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>127</v>
       </c>
@@ -2574,7 +2575,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>129</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>131</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>133</v>
       </c>
@@ -2661,7 +2662,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>135</v>
       </c>
@@ -2690,7 +2691,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>137</v>
       </c>
@@ -2719,7 +2720,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>54</v>
       </c>
@@ -2749,7 +2750,7 @@
       </c>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -2779,7 +2780,7 @@
       </c>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>59</v>
       </c>
@@ -2809,7 +2810,7 @@
       </c>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>61</v>
       </c>
@@ -2839,7 +2840,7 @@
       </c>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>63</v>
       </c>
@@ -2869,7 +2870,7 @@
       </c>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -2899,7 +2900,7 @@
       </c>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
@@ -2930,7 +2931,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>71</v>
       </c>
@@ -2961,7 +2962,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>73</v>
       </c>
@@ -2992,7 +2993,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>75</v>
       </c>
@@ -3023,7 +3024,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>77</v>
       </c>
@@ -3054,7 +3055,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>79</v>
       </c>
@@ -3085,7 +3086,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
@@ -3116,7 +3117,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>188</v>
       </c>
@@ -3147,7 +3148,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>84</v>
       </c>
@@ -3178,7 +3179,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>196</v>
       </c>
@@ -3209,7 +3210,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>202</v>
       </c>
@@ -3240,7 +3241,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>111</v>
       </c>
@@ -3272,7 +3273,7 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>114</v>
       </c>
@@ -3304,7 +3305,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>116</v>
       </c>
@@ -3336,7 +3337,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>118</v>
       </c>
@@ -3368,7 +3369,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>120</v>
       </c>
@@ -3400,7 +3401,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>122</v>
       </c>
@@ -3432,7 +3433,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>124</v>
       </c>
@@ -3464,7 +3465,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>235</v>
       </c>
@@ -3493,7 +3494,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>154</v>
       </c>
@@ -3522,7 +3523,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>106</v>
       </c>
@@ -3551,7 +3552,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>86</v>
       </c>
@@ -3580,7 +3581,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>91</v>
       </c>
@@ -3609,7 +3610,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>94</v>
       </c>
@@ -3638,7 +3639,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>96</v>
       </c>
@@ -3667,7 +3668,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>98</v>
       </c>
@@ -3696,7 +3697,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>100</v>
       </c>
@@ -3730,7 +3731,7 @@
         <v>146</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>68</v>
+        <v>244</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>155</v>
@@ -3870,7 +3871,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>164</v>
       </c>
@@ -3899,7 +3900,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>166</v>
       </c>
@@ -3928,7 +3929,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>168</v>
       </c>
@@ -3957,7 +3958,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>170</v>
       </c>
@@ -3986,7 +3987,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>174</v>
       </c>
@@ -4015,7 +4016,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>176</v>
       </c>
@@ -4044,7 +4045,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>176</v>
       </c>
@@ -4073,7 +4074,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>190</v>
       </c>
@@ -4104,7 +4105,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>237</v>
       </c>
@@ -4134,12 +4135,12 @@
       </c>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>241</v>
+        <v>68</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>238</v>
@@ -4160,13 +4161,13 @@
         <v>22</v>
       </c>
       <c r="I83" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="J83" s="2"/>
-    </row>
-    <row r="84" spans="1:11" ht="195" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>68</v>
@@ -4190,13 +4191,13 @@
         <v>22</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="390" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="390" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>209</v>
       </c>
@@ -4225,7 +4226,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>212</v>
       </c>
@@ -4254,7 +4255,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>214</v>
       </c>
@@ -4283,7 +4284,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>217</v>
       </c>
@@ -4312,7 +4313,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>224</v>
       </c>
@@ -4343,7 +4344,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>228</v>
       </c>
@@ -4374,7 +4375,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>231</v>
       </c>
@@ -4406,7 +4407,13 @@
       <c r="K91" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I91" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I91" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="AccountLimit"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(13-09-2022)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A8264F-C636-495D-9654-7E1C60273348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CF479B-9077-4DA6-93CD-31C34CF191C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$92</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="248">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1333,6 +1333,17 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>testTransactionSearch</t>
+  </si>
+  <si>
+    <t>transactionDetails-search</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.TransactionTest,
+testTransactionSearch,
+-pdata</t>
   </si>
 </sst>
 </file>
@@ -1712,10 +1723,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2750,12 +2761,12 @@
       </c>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>244</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>55</v>
@@ -2770,19 +2781,19 @@
         <v>126</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>58</v>
+        <v>247</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>68</v>
@@ -2806,13 +2817,13 @@
         <v>22</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>68</v>
@@ -2836,13 +2847,13 @@
         <v>22</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>68</v>
@@ -2866,13 +2877,13 @@
         <v>22</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>68</v>
@@ -2896,19 +2907,19 @@
         <v>22</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
@@ -2920,20 +2931,19 @@
         <v>126</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>68</v>
@@ -2957,14 +2967,14 @@
         <v>22</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>68</v>
@@ -2988,14 +2998,14 @@
         <v>22</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>68</v>
@@ -3019,14 +3029,14 @@
         <v>22</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>68</v>
@@ -3050,14 +3060,14 @@
         <v>22</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>68</v>
@@ -3075,20 +3085,20 @@
         <v>126</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>68</v>
@@ -3112,14 +3122,14 @@
         <v>22</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>68</v>
@@ -3137,20 +3147,20 @@
         <v>126</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>68</v>
@@ -3168,26 +3178,26 @@
         <v>126</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -3199,20 +3209,20 @@
         <v>126</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I51" s="11" t="s">
-        <v>198</v>
+      <c r="I51" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>68</v>
@@ -3230,26 +3240,26 @@
         <v>126</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -3261,21 +3271,20 @@
         <v>126</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>113</v>
+        <v>22</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
     </row>
     <row r="54" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>68</v>
@@ -3299,7 +3308,7 @@
         <v>89</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -3307,7 +3316,7 @@
     </row>
     <row r="55" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>68</v>
@@ -3331,7 +3340,7 @@
         <v>89</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -3339,7 +3348,7 @@
     </row>
     <row r="56" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>68</v>
@@ -3363,7 +3372,7 @@
         <v>89</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -3371,7 +3380,7 @@
     </row>
     <row r="57" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>68</v>
@@ -3395,7 +3404,7 @@
         <v>89</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -3403,7 +3412,7 @@
     </row>
     <row r="58" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>68</v>
@@ -3427,7 +3436,7 @@
         <v>89</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -3435,7 +3444,7 @@
     </row>
     <row r="59" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>68</v>
@@ -3459,21 +3468,21 @@
         <v>89</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>235</v>
+    <row r="60" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
@@ -3485,18 +3494,21 @@
         <v>126</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>234</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
     </row>
     <row r="61" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>154</v>
+        <v>235</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>68</v>
@@ -3520,12 +3532,12 @@
         <v>89</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>105</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>106</v>
+      <c r="A62" t="s">
+        <v>154</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>68</v>
@@ -3534,13 +3546,13 @@
         <v>103</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>126</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>104</v>
@@ -3549,41 +3561,41 @@
         <v>89</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>126</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>68</v>
@@ -3601,18 +3613,18 @@
         <v>126</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>68</v>
@@ -3630,18 +3642,18 @@
         <v>126</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>68</v>
@@ -3665,12 +3677,12 @@
         <v>89</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>68</v>
@@ -3688,24 +3700,24 @@
         <v>126</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
@@ -3723,18 +3735,18 @@
         <v>89</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>244</v>
+        <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -3746,18 +3758,18 @@
         <v>126</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>68</v>
@@ -3781,12 +3793,12 @@
         <v>89</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>68</v>
@@ -3810,12 +3822,12 @@
         <v>89</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>68</v>
@@ -3839,12 +3851,12 @@
         <v>89</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>68</v>
@@ -3868,18 +3880,18 @@
         <v>89</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -3891,18 +3903,18 @@
         <v>126</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>68</v>
@@ -3925,13 +3937,13 @@
       <c r="H75" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I75" s="8" t="s">
-        <v>167</v>
+      <c r="I75" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>68</v>
@@ -3955,12 +3967,12 @@
         <v>89</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>68</v>
@@ -3978,18 +3990,18 @@
         <v>126</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>68</v>
@@ -4013,12 +4025,12 @@
         <v>89</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>68</v>
@@ -4042,7 +4054,7 @@
         <v>89</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -4074,46 +4086,44 @@
         <v>177</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="180" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="B82" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>11</v>
@@ -4131,13 +4141,14 @@
         <v>22</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="J82" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
     </row>
     <row r="83" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>68</v>
@@ -4161,13 +4172,13 @@
         <v>22</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>68</v>
@@ -4193,42 +4204,43 @@
       <c r="I84" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="J84" s="6" t="s">
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J85" s="6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="390" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:11" ht="390" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I85" s="11"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>68</v>
@@ -4249,15 +4261,15 @@
         <v>211</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I86" s="11"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>68</v>
@@ -4278,15 +4290,15 @@
         <v>211</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I87" s="11"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>68</v>
@@ -4307,21 +4319,21 @@
         <v>211</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I88" s="11"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>11</v>
@@ -4333,20 +4345,18 @@
         <v>126</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>227</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="I89" s="11"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
     <row r="90" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>68</v>
@@ -4364,20 +4374,20 @@
         <v>126</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
     <row r="91" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>68</v>
@@ -4395,22 +4405,53 @@
         <v>126</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
+    <row r="92" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I91" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
+  <autoFilter ref="A1:I92" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
       <filters>
-        <filter val="AccountLimit"/>
+        <filter val="Yes"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(13-09-2022)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Code-push\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CF479B-9077-4DA6-93CD-31C34CF191C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CC4B34-4261-437D-B1A7-4F63DCFC40B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$94</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="253">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1332,9 +1332,6 @@
 -pdisputesExportsStatusCaseID</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>testTransactionSearch</t>
   </si>
   <si>
@@ -1344,6 +1341,34 @@
     <t>coyni.admin.tests.TransactionTest,
 testTransactionSearch,
 -pdata</t>
+  </si>
+  <si>
+    <t>verify fee struture status active to sheduled</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.SystemSettingsTest,
+testFeeStructuresActiveToSheduled,
+-pdebitAmnt,
+-pselectDate,
+-psuccess,
+-pmessage</t>
+  </si>
+  <si>
+    <t>verify accountLimits status active to sheduled</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.SystemSettingsTest,
+testAccountLimitsActiveToSheduled,
+-pdebitAmnt,
+-pselectDate,
+-psuccess,
+-pmessage</t>
+  </si>
+  <si>
+    <t>AccountLimit - shedule</t>
   </si>
 </sst>
 </file>
@@ -1723,10 +1748,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M92"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,12 +2786,12 @@
       </c>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>244</v>
+        <v>68</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>55</v>
@@ -2781,13 +2806,13 @@
         <v>126</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J37" s="1"/>
     </row>
@@ -3623,16 +3648,16 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="A65" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="5" t="s">
@@ -3641,19 +3666,19 @@
       <c r="F65" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" s="7" t="s">
         <v>92</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>93</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>68</v>
@@ -3671,18 +3696,18 @@
         <v>126</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>68</v>
@@ -3706,12 +3731,12 @@
         <v>89</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>68</v>
@@ -3729,24 +3754,24 @@
         <v>126</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -3764,18 +3789,18 @@
         <v>89</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -3787,18 +3812,18 @@
         <v>126</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>68</v>
@@ -3822,18 +3847,18 @@
         <v>89</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>145</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>155</v>
+        <v>248</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>11</v>
@@ -3845,18 +3870,18 @@
         <v>126</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>141</v>
+        <v>252</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>68</v>
@@ -3880,12 +3905,12 @@
         <v>89</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>68</v>
@@ -3909,18 +3934,18 @@
         <v>89</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>11</v>
@@ -3932,24 +3957,24 @@
         <v>126</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
@@ -3961,18 +3986,18 @@
         <v>126</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I76" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I76" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>68</v>
@@ -3995,13 +4020,13 @@
       <c r="H77" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I77" s="8" t="s">
-        <v>169</v>
+      <c r="I77" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>68</v>
@@ -4019,18 +4044,18 @@
         <v>126</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>68</v>
@@ -4048,18 +4073,18 @@
         <v>126</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>68</v>
@@ -4083,12 +4108,12 @@
         <v>89</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>68</v>
@@ -4112,79 +4137,76 @@
         <v>89</v>
       </c>
       <c r="I81" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="135" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I82" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="180" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    <row r="83" spans="1:11" ht="135" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="180" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="B84" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="J83" s="2"/>
-    </row>
-    <row r="84" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>11</v>
@@ -4202,13 +4224,14 @@
         <v>22</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="J84" s="2"/>
-    </row>
-    <row r="85" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>68</v>
@@ -4232,73 +4255,75 @@
         <v>22</v>
       </c>
       <c r="I85" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I86" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="J85" s="6" t="s">
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J87" s="6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="390" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="88" spans="1:11" ht="390" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I86" s="11"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I87" s="11"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-    </row>
-    <row r="88" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>68</v>
@@ -4319,15 +4344,15 @@
         <v>211</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I88" s="11"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>68</v>
@@ -4348,21 +4373,21 @@
         <v>211</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I89" s="11"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>11</v>
@@ -4374,26 +4399,24 @@
         <v>126</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>227</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="I90" s="11"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -4405,20 +4428,18 @@
         <v>126</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>230</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="I91" s="11"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
     <row r="92" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>68</v>
@@ -4436,22 +4457,84 @@
         <v>126</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
+    <row r="93" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I92" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
+  <autoFilter ref="A1:I94" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
       <filters>
-        <filter val="Yes"/>
+        <filter val="AccountLimit"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Code-push\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CC4B34-4261-437D-B1A7-4F63DCFC40B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA34D05-8073-4041-A884-228AFF92CDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$92</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="249">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -801,27 +801,10 @@
     <t>verify AccountLimit view</t>
   </si>
   <si>
-    <t>verify AccountLimit Merchant view</t>
-  </si>
-  <si>
-    <t>verify AccountLimit Merchant Edit</t>
-  </si>
-  <si>
     <t>verify AccountLimit  Edit</t>
   </si>
   <si>
     <t>verify Accountlimits</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.SystemSettingsTest,
-testEditMerchantAccountlimit,
--pexpHeading,
--pexpEditHeading</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.SystemSettingsTest,
-testViewMerchantAccountlimitPage,
--pexpViewHeading</t>
   </si>
   <si>
     <t>8</t>
@@ -939,15 +922,6 @@
   </si>
   <si>
     <t>Verify Business userList</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.ProfilesTest,
-testveifyGrid,
--pfilterType,
--ptoAmount,
--pamount,
--pheading,
--pexportHeading</t>
   </si>
   <si>
     <t>Verify Business Details</t>
@@ -1369,6 +1343,16 @@
   </si>
   <si>
     <t>AccountLimit - shedule</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testveifyGrid,
+-pfilterType,
+-ptoAmount,
+-pamount,
+-pheading,
+-pexportHeading,
+-pheading1</t>
   </si>
 </sst>
 </file>
@@ -1748,10 +1732,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,10 +1820,10 @@
         <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -1850,7 +1834,7 @@
     </row>
     <row r="4" spans="1:13" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>68</v>
@@ -1865,13 +1849,13 @@
         <v>126</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="225" hidden="1" x14ac:dyDescent="0.25">
@@ -1943,7 +1927,7 @@
         <v>126</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>32</v>
@@ -1954,7 +1938,7 @@
     </row>
     <row r="8" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>68</v>
@@ -1969,13 +1953,13 @@
         <v>126</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -2136,13 +2120,13 @@
     </row>
     <row r="15" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>15</v>
@@ -2151,16 +2135,16 @@
         <v>126</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2169,13 +2153,13 @@
     </row>
     <row r="16" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>15</v>
@@ -2184,16 +2168,16 @@
         <v>126</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2202,13 +2186,13 @@
     </row>
     <row r="17" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>15</v>
@@ -2220,13 +2204,13 @@
         <v>126</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2235,13 +2219,13 @@
     </row>
     <row r="18" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>15</v>
@@ -2253,13 +2237,13 @@
         <v>126</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2387,7 +2371,7 @@
         <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -2405,18 +2389,18 @@
         <v>22</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>15</v>
@@ -2434,7 +2418,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
@@ -2445,7 +2429,7 @@
         <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
@@ -2463,7 +2447,7 @@
         <v>22</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="270" hidden="1" x14ac:dyDescent="0.25">
@@ -2474,16 +2458,16 @@
         <v>68</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>51</v>
@@ -2492,12 +2476,12 @@
         <v>22</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>68</v>
@@ -2515,13 +2499,13 @@
         <v>126</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>22</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -2776,7 +2760,7 @@
         <v>126</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>22</v>
@@ -2788,7 +2772,7 @@
     </row>
     <row r="37" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>68</v>
@@ -2806,13 +2790,13 @@
         <v>126</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="J37" s="1"/>
     </row>
@@ -2836,7 +2820,7 @@
         <v>126</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>22</v>
@@ -2866,7 +2850,7 @@
         <v>126</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>22</v>
@@ -2896,7 +2880,7 @@
         <v>126</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>22</v>
@@ -2926,7 +2910,7 @@
         <v>126</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>22</v>
@@ -2956,7 +2940,7 @@
         <v>126</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>22</v>
@@ -2992,7 +2976,7 @@
         <v>22</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3185,7 +3169,7 @@
     </row>
     <row r="50" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>68</v>
@@ -3209,7 +3193,7 @@
         <v>22</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -3247,13 +3231,13 @@
     </row>
     <row r="52" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -3265,26 +3249,26 @@
         <v>126</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -3296,13 +3280,13 @@
         <v>126</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -3327,7 +3311,7 @@
         <v>126</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>89</v>
@@ -3359,7 +3343,7 @@
         <v>126</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>89</v>
@@ -3391,7 +3375,7 @@
         <v>126</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>89</v>
@@ -3423,7 +3407,7 @@
         <v>126</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>89</v>
@@ -3455,7 +3439,7 @@
         <v>126</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>89</v>
@@ -3487,7 +3471,7 @@
         <v>126</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>89</v>
@@ -3519,7 +3503,7 @@
         <v>126</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>89</v>
@@ -3533,7 +3517,7 @@
     </row>
     <row r="61" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>68</v>
@@ -3557,12 +3541,12 @@
         <v>89</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>68</v>
@@ -3606,7 +3590,7 @@
         <v>126</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>104</v>
@@ -3649,10 +3633,10 @@
     </row>
     <row r="65" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>87</v>
@@ -3673,7 +3657,7 @@
         <v>89</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -3731,7 +3715,7 @@
         <v>89</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -3821,15 +3805,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
@@ -3847,15 +3831,15 @@
         <v>89</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>87</v>
@@ -3870,16 +3854,16 @@
         <v>126</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>142</v>
       </c>
@@ -3887,7 +3871,7 @@
         <v>68</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>11</v>
@@ -3905,18 +3889,18 @@
         <v>89</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -3934,18 +3918,18 @@
         <v>89</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>11</v>
@@ -3957,24 +3941,24 @@
         <v>126</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
@@ -3986,24 +3970,24 @@
         <v>126</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I76" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I76" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
@@ -4015,25 +3999,25 @@
         <v>126</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I77" s="2" t="s">
-        <v>165</v>
+      <c r="I77" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="D78" s="1" t="s">
         <v>11</v>
       </c>
@@ -4044,24 +4028,24 @@
         <v>126</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>11</v>
@@ -4073,24 +4057,24 @@
         <v>126</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
@@ -4102,24 +4086,24 @@
         <v>126</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>11</v>
@@ -4131,24 +4115,24 @@
         <v>126</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="135" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>11</v>
@@ -4160,24 +4144,26 @@
         <v>126</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I82" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="135" hidden="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>11</v>
@@ -4189,24 +4175,25 @@
         <v>126</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I83" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="180" hidden="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>11</v>
@@ -4218,18 +4205,17 @@
         <v>126</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>237</v>
       </c>
@@ -4237,7 +4223,7 @@
         <v>68</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>11</v>
@@ -4249,25 +4235,27 @@
         <v>126</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="J85" s="2"/>
-    </row>
-    <row r="86" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="390" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
@@ -4279,25 +4267,24 @@
         <v>126</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="J86" s="2"/>
-    </row>
-    <row r="87" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="I86" s="11"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
@@ -4309,19 +4296,16 @@
         <v>126</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="J87" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="390" hidden="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="I87" s="11"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>209</v>
       </c>
@@ -4329,28 +4313,28 @@
         <v>68</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H88" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="I88" s="11"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>212</v>
       </c>
@@ -4358,7 +4342,7 @@
         <v>68</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>11</v>
@@ -4370,7 +4354,7 @@
         <v>126</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>213</v>
@@ -4379,15 +4363,15 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>11</v>
@@ -4399,24 +4383,26 @@
         <v>126</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="I90" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -4428,24 +4414,26 @@
         <v>126</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I91" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
     <row r="92" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>11</v>
@@ -4457,84 +4445,22 @@
         <v>126</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-    </row>
-    <row r="94" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I94" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:I92" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <filters>
-        <filter val="AccountLimit"/>
+        <filter val="Profile Api Business"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Code-push\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA34D05-8073-4041-A884-228AFF92CDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645483C3-61BE-410B-B4B5-8D79D76484FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1731,11 +1731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,7 +1779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1806,7 +1805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="150.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1832,7 +1831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>188</v>
       </c>
@@ -1858,7 +1857,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1884,7 +1883,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="210.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="210.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -1910,7 +1909,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -1936,7 +1935,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>214</v>
       </c>
@@ -1962,7 +1961,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -1988,7 +1987,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -2014,7 +2013,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -2040,7 +2039,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -2066,7 +2065,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -2092,7 +2091,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -2118,7 +2117,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>173</v>
       </c>
@@ -2151,7 +2150,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>177</v>
       </c>
@@ -2184,7 +2183,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>180</v>
       </c>
@@ -2217,7 +2216,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>200</v>
       </c>
@@ -2250,7 +2249,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2276,7 +2275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2305,7 +2304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -2334,7 +2333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -2363,7 +2362,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
@@ -2392,7 +2391,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>158</v>
       </c>
@@ -2421,7 +2420,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2450,7 +2449,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="270" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -2479,7 +2478,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>194</v>
       </c>
@@ -2508,7 +2507,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>108</v>
       </c>
@@ -2537,7 +2536,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>108</v>
       </c>
@@ -2566,7 +2565,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>127</v>
       </c>
@@ -2595,7 +2594,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>129</v>
       </c>
@@ -2624,7 +2623,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>131</v>
       </c>
@@ -2653,7 +2652,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>133</v>
       </c>
@@ -2682,7 +2681,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>135</v>
       </c>
@@ -2711,7 +2710,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>137</v>
       </c>
@@ -2740,7 +2739,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>54</v>
       </c>
@@ -2770,7 +2769,7 @@
       </c>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>239</v>
       </c>
@@ -2800,7 +2799,7 @@
       </c>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>57</v>
       </c>
@@ -2830,7 +2829,7 @@
       </c>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
@@ -2860,7 +2859,7 @@
       </c>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>61</v>
       </c>
@@ -2890,7 +2889,7 @@
       </c>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>63</v>
       </c>
@@ -2920,7 +2919,7 @@
       </c>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
@@ -2950,7 +2949,7 @@
       </c>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -2981,7 +2980,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>71</v>
       </c>
@@ -3012,7 +3011,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>73</v>
       </c>
@@ -3043,7 +3042,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>75</v>
       </c>
@@ -3074,7 +3073,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>77</v>
       </c>
@@ -3105,7 +3104,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>79</v>
       </c>
@@ -3136,7 +3135,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,7 +3166,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>183</v>
       </c>
@@ -3198,7 +3197,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>84</v>
       </c>
@@ -3229,7 +3228,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>191</v>
       </c>
@@ -3260,7 +3259,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>197</v>
       </c>
@@ -3291,7 +3290,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>111</v>
       </c>
@@ -3323,7 +3322,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>114</v>
       </c>
@@ -3355,7 +3354,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>116</v>
       </c>
@@ -3387,7 +3386,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>118</v>
       </c>
@@ -3419,7 +3418,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>120</v>
       </c>
@@ -3451,7 +3450,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>122</v>
       </c>
@@ -3483,7 +3482,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>124</v>
       </c>
@@ -3515,7 +3514,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>230</v>
       </c>
@@ -3544,7 +3543,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>150</v>
       </c>
@@ -3573,7 +3572,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>106</v>
       </c>
@@ -3602,7 +3601,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>86</v>
       </c>
@@ -3631,7 +3630,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>242</v>
       </c>
@@ -3660,7 +3659,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>91</v>
       </c>
@@ -3689,7 +3688,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>94</v>
       </c>
@@ -3718,7 +3717,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>96</v>
       </c>
@@ -3747,7 +3746,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>98</v>
       </c>
@@ -3776,7 +3775,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>100</v>
       </c>
@@ -3805,7 +3804,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>144</v>
       </c>
@@ -3834,7 +3833,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>245</v>
       </c>
@@ -3863,7 +3862,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>142</v>
       </c>
@@ -3892,7 +3891,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>143</v>
       </c>
@@ -4008,7 +4007,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>165</v>
       </c>
@@ -4037,7 +4036,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>169</v>
       </c>
@@ -4066,7 +4065,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>171</v>
       </c>
@@ -4095,7 +4094,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>171</v>
       </c>
@@ -4124,7 +4123,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>185</v>
       </c>
@@ -4155,7 +4154,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>232</v>
       </c>
@@ -4185,7 +4184,7 @@
       </c>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>235</v>
       </c>
@@ -4215,7 +4214,7 @@
       </c>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>237</v>
       </c>
@@ -4247,7 +4246,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="390" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>204</v>
       </c>
@@ -4276,7 +4275,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>207</v>
       </c>
@@ -4305,7 +4304,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>209</v>
       </c>
@@ -4334,7 +4333,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>212</v>
       </c>
@@ -4363,7 +4362,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>219</v>
       </c>
@@ -4394,7 +4393,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>223</v>
       </c>
@@ -4425,7 +4424,7 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>226</v>
       </c>
@@ -4457,13 +4456,7 @@
       <c r="K92" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I92" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Profile Api Business"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I92" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Code-push\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645483C3-61BE-410B-B4B5-8D79D76484FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E459DBB-448D-4596-9E12-0CEC267BB3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$91</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="247">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1207,9 +1207,6 @@
 -psecretKey</t>
   </si>
   <si>
-    <t>Forgot Password With Invalid Email Verification Code</t>
-  </si>
-  <si>
     <t>accounting</t>
   </si>
   <si>
@@ -1217,16 +1214,6 @@
   </si>
   <si>
     <t>Profile Api Business</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.LoginTest,
-testForgotPasswordWithInvalidEmailVerificationCode,
--ploginHeading,
--pforgotHeading,
--pemail,
--pemailHeading,
--pcode,
--pmessage</t>
   </si>
   <si>
     <t>testGobalSearch</t>
@@ -1731,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M92"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,9 +1922,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>214</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>68</v>
@@ -1952,27 +1939,27 @@
         <v>126</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>126</v>
@@ -1981,15 +1968,15 @@
         <v>126</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>68</v>
@@ -2010,12 +1997,12 @@
         <v>40</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>68</v>
@@ -2024,24 +2011,24 @@
         <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>126</v>
+        <v>15</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>68</v>
@@ -2050,24 +2037,24 @@
         <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>68</v>
@@ -2088,38 +2075,45 @@
         <v>40</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="195" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>40</v>
+      <c r="C14" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>68</v>
@@ -2134,7 +2128,7 @@
         <v>126</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>174</v>
@@ -2143,22 +2137,22 @@
         <v>175</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>15</v>
@@ -2167,25 +2161,25 @@
         <v>126</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>175</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>68</v>
@@ -2203,61 +2197,54 @@
         <v>126</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>175</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>200</v>
+    <row r="18" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>203</v>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -2269,15 +2256,18 @@
         <v>126</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>68</v>
@@ -2295,18 +2285,18 @@
         <v>126</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>68</v>
@@ -2323,48 +2313,48 @@
       <c r="F21" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>25</v>
+      <c r="G21" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>28</v>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="255" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>50</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>68</v>
@@ -2373,13 +2363,13 @@
         <v>148</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>51</v>
@@ -2388,12 +2378,12 @@
         <v>22</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>68</v>
@@ -2402,13 +2392,13 @@
         <v>148</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>51</v>
@@ -2417,12 +2407,12 @@
         <v>22</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="270" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>68</v>
@@ -2431,13 +2421,13 @@
         <v>148</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>51</v>
@@ -2446,65 +2436,65 @@
         <v>22</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="270" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>196</v>
+      <c r="E27" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="135" x14ac:dyDescent="0.25">
@@ -2518,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>126</v>
@@ -2532,13 +2522,13 @@
       <c r="H28" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>68</v>
@@ -2547,7 +2537,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>126</v>
@@ -2562,12 +2552,12 @@
         <v>89</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>68</v>
@@ -2576,7 +2566,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>126</v>
@@ -2588,15 +2578,15 @@
         <v>109</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>128</v>
+        <v>22</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>68</v>
@@ -2620,12 +2610,12 @@
         <v>22</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>68</v>
@@ -2649,12 +2639,12 @@
         <v>22</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>68</v>
@@ -2678,12 +2668,12 @@
         <v>22</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>68</v>
@@ -2707,18 +2697,18 @@
         <v>22</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>11</v>
@@ -2730,18 +2720,19 @@
         <v>126</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>109</v>
+        <v>215</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>237</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>68</v>
@@ -2759,19 +2750,19 @@
         <v>126</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>56</v>
+        <v>239</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>239</v>
+        <v>57</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>68</v>
@@ -2789,19 +2780,19 @@
         <v>126</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>241</v>
+        <v>58</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>68</v>
@@ -2819,19 +2810,19 @@
         <v>126</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>68</v>
@@ -2849,19 +2840,19 @@
         <v>126</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>68</v>
@@ -2879,19 +2870,19 @@
         <v>126</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>68</v>
@@ -2909,25 +2900,25 @@
         <v>126</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
@@ -2939,19 +2930,20 @@
         <v>126</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>68</v>
@@ -2975,14 +2967,14 @@
         <v>22</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>68</v>
@@ -3006,14 +2998,14 @@
         <v>22</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>68</v>
@@ -3037,14 +3029,14 @@
         <v>22</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>68</v>
@@ -3068,14 +3060,14 @@
         <v>22</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>68</v>
@@ -3093,20 +3085,20 @@
         <v>126</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>68</v>
@@ -3130,14 +3122,14 @@
         <v>22</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>68</v>
@@ -3155,20 +3147,20 @@
         <v>126</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>68</v>
@@ -3186,26 +3178,26 @@
         <v>126</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>69</v>
+        <v>186</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -3217,20 +3209,20 @@
         <v>126</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>85</v>
+      <c r="I51" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>68</v>
@@ -3248,26 +3240,26 @@
         <v>126</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -3279,20 +3271,21 @@
         <v>126</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>199</v>
+        <v>89</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
     </row>
     <row r="54" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>68</v>
@@ -3310,13 +3303,13 @@
         <v>126</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -3324,7 +3317,7 @@
     </row>
     <row r="55" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>68</v>
@@ -3342,13 +3335,13 @@
         <v>126</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -3356,7 +3349,7 @@
     </row>
     <row r="56" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>68</v>
@@ -3374,13 +3367,13 @@
         <v>126</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -3388,7 +3381,7 @@
     </row>
     <row r="57" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>68</v>
@@ -3406,13 +3399,13 @@
         <v>126</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -3420,7 +3413,7 @@
     </row>
     <row r="58" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>68</v>
@@ -3438,13 +3431,13 @@
         <v>126</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -3452,7 +3445,7 @@
     </row>
     <row r="59" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>68</v>
@@ -3470,27 +3463,27 @@
         <v>126</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>124</v>
+    <row r="60" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>228</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
@@ -3502,21 +3495,18 @@
         <v>126</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
+        <v>227</v>
+      </c>
     </row>
     <row r="61" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>68</v>
@@ -3540,12 +3530,12 @@
         <v>89</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>229</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>150</v>
+      <c r="A62" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>68</v>
@@ -3554,13 +3544,13 @@
         <v>103</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>126</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>104</v>
@@ -3569,49 +3559,49 @@
         <v>89</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>126</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="A64" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="5" t="s">
@@ -3620,27 +3610,27 @@
       <c r="F64" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>88</v>
+      <c r="G64" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>90</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C65" s="7" t="s">
+      <c r="A65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="5" t="s">
@@ -3649,19 +3639,19 @@
       <c r="F65" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G65" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>244</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>68</v>
@@ -3679,18 +3669,18 @@
         <v>126</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>68</v>
@@ -3714,12 +3704,12 @@
         <v>89</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>68</v>
@@ -3737,24 +3727,24 @@
         <v>126</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -3772,18 +3762,18 @@
         <v>89</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -3795,24 +3785,24 @@
         <v>126</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>144</v>
+      <c r="A71" s="7" t="s">
+        <v>243</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>151</v>
+        <v>241</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
@@ -3824,24 +3814,24 @@
         <v>126</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>141</v>
+        <v>245</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>152</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>245</v>
+      <c r="A72" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>87</v>
+        <v>68</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>11</v>
@@ -3853,18 +3843,18 @@
         <v>126</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>247</v>
+        <v>141</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>246</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>68</v>
@@ -3888,18 +3878,18 @@
         <v>89</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -3911,18 +3901,18 @@
         <v>126</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>68</v>
@@ -3940,18 +3930,18 @@
         <v>126</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I75" s="2" t="s">
-        <v>161</v>
+      <c r="I75" s="8" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>68</v>
@@ -3969,18 +3959,18 @@
         <v>126</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>248</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>68</v>
@@ -3998,18 +3988,18 @@
         <v>126</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>68</v>
@@ -4033,12 +4023,12 @@
         <v>89</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>68</v>
@@ -4062,7 +4052,7 @@
         <v>89</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -4094,15 +4084,15 @@
         <v>172</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>11</v>
@@ -4114,24 +4104,26 @@
         <v>126</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I81" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>11</v>
@@ -4143,26 +4135,25 @@
         <v>126</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
+        <v>232</v>
+      </c>
+      <c r="J82" s="2"/>
     </row>
     <row r="83" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>11</v>
@@ -4174,7 +4165,7 @@
         <v>126</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>22</v>
@@ -4184,7 +4175,7 @@
       </c>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>235</v>
       </c>
@@ -4192,7 +4183,7 @@
         <v>68</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>11</v>
@@ -4204,25 +4195,27 @@
         <v>126</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I84" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J84" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="J84" s="2"/>
-    </row>
-    <row r="85" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>11</v>
@@ -4234,21 +4227,18 @@
         <v>126</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="J85" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="390" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="I85" s="11"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>68</v>
@@ -4269,15 +4259,15 @@
         <v>206</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I86" s="11"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>68</v>
@@ -4298,15 +4288,15 @@
         <v>206</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I87" s="11"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>68</v>
@@ -4327,21 +4317,21 @@
         <v>206</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I88" s="11"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>11</v>
@@ -4353,25 +4343,27 @@
         <v>126</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I89" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
     <row r="90" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="D90" s="1" t="s">
         <v>11</v>
       </c>
@@ -4382,26 +4374,26 @@
         <v>126</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
     <row r="91" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -4413,50 +4405,19 @@
         <v>126</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I92" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I91" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Code-push\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E459DBB-448D-4596-9E12-0CEC267BB3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F585F8C-A354-421E-A42A-1CA6460A77CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1718,10 +1718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1766,7 +1767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1792,7 +1793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="150.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1818,7 +1819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>188</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1870,7 +1871,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="210.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="210.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -1896,7 +1897,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -1922,7 +1923,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1948,7 +1949,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -1974,7 +1975,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -2000,7 +2001,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -2052,7 +2053,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>173</v>
       </c>
@@ -2111,7 +2112,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>177</v>
       </c>
@@ -2144,7 +2145,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>180</v>
       </c>
@@ -2177,7 +2178,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>200</v>
       </c>
@@ -2210,7 +2211,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2265,7 +2266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -2294,7 +2295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -2323,7 +2324,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>50</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>158</v>
       </c>
@@ -2381,7 +2382,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -2410,7 +2411,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="270" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -2439,7 +2440,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>194</v>
       </c>
@@ -2468,7 +2469,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>108</v>
       </c>
@@ -2497,7 +2498,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>108</v>
       </c>
@@ -2526,7 +2527,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>127</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>129</v>
       </c>
@@ -2584,7 +2585,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>131</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>133</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>135</v>
       </c>
@@ -2671,7 +2672,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>137</v>
       </c>
@@ -2700,7 +2701,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>54</v>
       </c>
@@ -2730,7 +2731,7 @@
       </c>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>237</v>
       </c>
@@ -2760,7 +2761,7 @@
       </c>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -2790,7 +2791,7 @@
       </c>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>59</v>
       </c>
@@ -2820,7 +2821,7 @@
       </c>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>61</v>
       </c>
@@ -2850,7 +2851,7 @@
       </c>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>63</v>
       </c>
@@ -2880,7 +2881,7 @@
       </c>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -2910,7 +2911,7 @@
       </c>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
@@ -2941,7 +2942,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>71</v>
       </c>
@@ -2972,7 +2973,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>73</v>
       </c>
@@ -3003,7 +3004,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>75</v>
       </c>
@@ -3034,7 +3035,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>77</v>
       </c>
@@ -3065,7 +3066,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>79</v>
       </c>
@@ -3096,7 +3097,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
@@ -3127,7 +3128,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>183</v>
       </c>
@@ -3158,7 +3159,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>84</v>
       </c>
@@ -3189,7 +3190,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>191</v>
       </c>
@@ -3220,7 +3221,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>197</v>
       </c>
@@ -3251,7 +3252,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>111</v>
       </c>
@@ -3283,7 +3284,7 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>114</v>
       </c>
@@ -3315,7 +3316,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>116</v>
       </c>
@@ -3347,7 +3348,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>118</v>
       </c>
@@ -3379,7 +3380,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>120</v>
       </c>
@@ -3411,7 +3412,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>122</v>
       </c>
@@ -3443,7 +3444,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>124</v>
       </c>
@@ -3475,7 +3476,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>228</v>
       </c>
@@ -3504,7 +3505,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>150</v>
       </c>
@@ -3533,7 +3534,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>106</v>
       </c>
@@ -3562,7 +3563,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>86</v>
       </c>
@@ -3591,7 +3592,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>240</v>
       </c>
@@ -3620,7 +3621,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>91</v>
       </c>
@@ -3649,7 +3650,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>94</v>
       </c>
@@ -3678,7 +3679,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>96</v>
       </c>
@@ -3707,7 +3708,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>98</v>
       </c>
@@ -3736,7 +3737,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>100</v>
       </c>
@@ -3765,7 +3766,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>144</v>
       </c>
@@ -3794,7 +3795,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>243</v>
       </c>
@@ -3823,7 +3824,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -3852,7 +3853,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>143</v>
       </c>
@@ -3881,7 +3882,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>160</v>
       </c>
@@ -3939,7 +3940,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>163</v>
       </c>
@@ -3968,7 +3969,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>165</v>
       </c>
@@ -3997,7 +3998,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>169</v>
       </c>
@@ -4026,7 +4027,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>171</v>
       </c>
@@ -4055,7 +4056,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>171</v>
       </c>
@@ -4084,7 +4085,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>185</v>
       </c>
@@ -4115,7 +4116,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>230</v>
       </c>
@@ -4145,7 +4146,7 @@
       </c>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>233</v>
       </c>
@@ -4175,7 +4176,7 @@
       </c>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>235</v>
       </c>
@@ -4207,7 +4208,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="390" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="390" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>204</v>
       </c>
@@ -4236,7 +4237,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>207</v>
       </c>
@@ -4265,7 +4266,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>209</v>
       </c>
@@ -4294,7 +4295,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>212</v>
       </c>
@@ -4323,7 +4324,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>217</v>
       </c>
@@ -4354,7 +4355,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>221</v>
       </c>
@@ -4385,7 +4386,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>224</v>
       </c>
@@ -4417,7 +4418,13 @@
       <c r="K91" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I91" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I91" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Verify Business userList"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Code-push\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ideyaLabs\git\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F585F8C-A354-421E-A42A-1CA6460A77CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A1A142-160C-4952-B3EA-F67D86C93736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="289">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1340,6 +1340,263 @@
 -pheading,
 -pexportHeading,
 -pheading1</t>
+  </si>
+  <si>
+    <t>Verify Individual Token Account Test Transactions List</t>
+  </si>
+  <si>
+    <t>Verify Individual Token Account Test Transactions Sent Details List</t>
+  </si>
+  <si>
+    <t>Verify Individual Token Account Test Transactions Purchased Details List</t>
+  </si>
+  <si>
+    <t>Verify Individual Token Account Test Transactions Withdraw Details List</t>
+  </si>
+  <si>
+    <t>Verify Individual Token Account Test Transactions Recieve Details List</t>
+  </si>
+  <si>
+    <t>Verify Individual Token Account Activity Details</t>
+  </si>
+  <si>
+    <t>Verify Individual Preference and Controls View</t>
+  </si>
+  <si>
+    <t>Verify Individual Preference Disable Controls</t>
+  </si>
+  <si>
+    <t>Verify Individual Preference and Controls Navigation</t>
+  </si>
+  <si>
+    <t>Verify Individual Agreements Privacy Policy</t>
+  </si>
+  <si>
+    <t>Verify Individual Agreements Terms of Service</t>
+  </si>
+  <si>
+    <t>Verify Individual Account Limits</t>
+  </si>
+  <si>
+    <t>Verify Individual Activity Log View</t>
+  </si>
+  <si>
+    <t>Verify Merchant Side Bar View</t>
+  </si>
+  <si>
+    <t>Verify Under Writings With Required Documents</t>
+  </si>
+  <si>
+    <t>testdata-admin.xlsx,underWritings</t>
+  </si>
+  <si>
+    <t>Verify Under Writings</t>
+  </si>
+  <si>
+    <t>Verify Under Writings Assigne Direct Approve</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testIndividualsTokenAccountTrasactionList,
+-pprofileHeading,
+-psearchText,
+-pexpHeading,
+-pquery,
+-pcount,
+-pcssProp,
+-pexpValue,
+-pexpColor</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testIndividualsTokenAccountTrasactionSentDetailsList,
+-pprofileHeading,
+-psearchText,
+-pexpHeading,
+-pqueryToday,
+-pqueryYesterday,
+-pqueryLast7Days,
+-pqueryMonthToDate,
+-pqueryLastMonth</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testIndividualsTokenAccountTrasactionPurchasedDetailsList,
+-pprofileHeading,
+-psearchText,
+-pexpHeading,
+-pqueryToday,
+-pqueryYesterday,
+-pqueryLast7Days,
+-pqueryMonthToDate,
+-pqueryLastMonth</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testIndividualsTokenAccountTrasactionWithdarwDetailsList,
+-pprofileHeading,
+-psearchText,
+-pexpHeading,
+-pqueryToday,
+-pqueryYesterday,
+-pqueryLast7Days,
+-pqueryMonthToDate,
+-pqueryLastMonth</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testIndividualsTokenAccountTrasactionRecieveDetailsList,
+-pprofileHeading,
+-psearchText,
+-pexpHeading,
+-pqueryToday,
+-pqueryYesterday,
+-pqueryLast7Days,
+-pqueryMonthToDate,
+-pqueryLastMonth</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testIndividualsTokenAccountActivityDetalis,
+-pprofileHeading,
+-psearchText</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testIndividualsPreferencesView,
+-pprofileHeading,
+-psearchText</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testIndividualsPreferencesDisableAllControls,
+-pprofileHeading,
+-psearchText</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testIndividualsPreferencesandControlsnavigations,
+-pprofileHeading,
+-psearchText</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testIndividualsPrivacyPolicyAgreement,
+-pprofileHeading,
+-psearchText</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testIndividualsTermsofServiceAgreement,
+-pprofileHeading,
+-psearchText</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testIndividualsAccountLimits,
+-pprofileHeading,
+-psearchText</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testIndividualsActivityLogView,
+-pprofileHeading,
+-psearchText</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testMerchantSideBarView,
+-pmerchantHeading,
+-psearchText,
+-pexpId</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.HomeTest,
+testSignUpCustomer,
+-purlCustomer,
+-pcreateAccountHeading,
+-pfirstName,
+-plastName,
+-pphoneNumber,
+-pemailCustm,
+-pcreatePassword,
+-pconfirmPassword,
+-pcode,
+-paddress1,
+-paddress2,
+-pcity,
+-pstate,
+-pdateOfBirth,
+-pSSNNumber,
+-pzipCode,
+-pfolderName,
+-pfileName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.admin.tests.UnderWritingTest,
+testUnderWritingTest,
+-pdateOfBirth,
+-pSSNNumber,
+-pphoneNumber,
+-pemailCustm
+</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.UnderWritingTest,
+testAssigneLogin,
+-purlAdmin,
+-ploginHeading,
+-ploginDescription,
+-passigneEmail,
+-passingepassword,
+-pauthyHeading,
+-pauthyDescription,
+-pcode</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.UnderWritingTest,
+testAddRequiredDocuments,
+-ptoastTitle,
+-ptoastMessage</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testAdminLogin,
+-purlAdmin,
+-ploginHeading,
+-ploginDescription,
+-pemail,
+-ppassword,
+-pauthyHeading,
+-pauthyDescription,
+-pcode</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.UnderWritingTest,
+testUnderWritingTest,
+-pdateOfBirth,
+-pSSNNumber,
+-pphoneNumber,
+-pemailCustm</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.UnderWritingTest,
+testAssigneDirectApprove</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.HomeTest,
+testLoginCustomer,
+-purlCustomer,
+-pemailCustm,
+-pcustPassword,
+-pcode</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.UnderWritingTest,
+testIdentifivericationSuccesfull</t>
   </si>
 </sst>
 </file>
@@ -1718,11 +1975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,7 +2023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1793,7 +2049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="150.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1819,7 +2075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>188</v>
       </c>
@@ -1845,7 +2101,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1871,7 +2127,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="210.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="210.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -1897,7 +2153,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -1923,7 +2179,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1949,7 +2205,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -1975,7 +2231,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -2001,7 +2257,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -2027,7 +2283,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -2053,7 +2309,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -2079,7 +2335,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>173</v>
       </c>
@@ -2112,7 +2368,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>177</v>
       </c>
@@ -2145,7 +2401,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>180</v>
       </c>
@@ -2178,7 +2434,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>200</v>
       </c>
@@ -2211,7 +2467,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2237,7 +2493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2266,7 +2522,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -2295,7 +2551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -2324,7 +2580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>50</v>
       </c>
@@ -2353,7 +2609,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>158</v>
       </c>
@@ -2382,7 +2638,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -2411,7 +2667,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="270" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -2440,7 +2696,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>194</v>
       </c>
@@ -2469,7 +2725,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>108</v>
       </c>
@@ -2498,7 +2754,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>108</v>
       </c>
@@ -2527,7 +2783,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>127</v>
       </c>
@@ -2556,7 +2812,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>129</v>
       </c>
@@ -2585,7 +2841,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>131</v>
       </c>
@@ -2614,7 +2870,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>133</v>
       </c>
@@ -2643,7 +2899,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>135</v>
       </c>
@@ -2672,7 +2928,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>137</v>
       </c>
@@ -2701,7 +2957,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>54</v>
       </c>
@@ -2731,7 +2987,7 @@
       </c>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>237</v>
       </c>
@@ -2761,7 +3017,7 @@
       </c>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -2791,7 +3047,7 @@
       </c>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>59</v>
       </c>
@@ -2821,7 +3077,7 @@
       </c>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>61</v>
       </c>
@@ -2851,7 +3107,7 @@
       </c>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>63</v>
       </c>
@@ -2881,7 +3137,7 @@
       </c>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -2911,7 +3167,7 @@
       </c>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
@@ -2942,7 +3198,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>71</v>
       </c>
@@ -2973,7 +3229,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>73</v>
       </c>
@@ -3004,7 +3260,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>75</v>
       </c>
@@ -3035,7 +3291,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>77</v>
       </c>
@@ -3066,7 +3322,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>79</v>
       </c>
@@ -3097,7 +3353,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
@@ -3128,7 +3384,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>183</v>
       </c>
@@ -3159,7 +3415,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>84</v>
       </c>
@@ -3190,7 +3446,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>191</v>
       </c>
@@ -3221,7 +3477,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>197</v>
       </c>
@@ -3252,7 +3508,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>111</v>
       </c>
@@ -3284,7 +3540,7 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>114</v>
       </c>
@@ -3316,7 +3572,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>116</v>
       </c>
@@ -3348,7 +3604,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>118</v>
       </c>
@@ -3380,7 +3636,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>120</v>
       </c>
@@ -3412,7 +3668,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>122</v>
       </c>
@@ -3444,7 +3700,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>124</v>
       </c>
@@ -3476,7 +3732,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>228</v>
       </c>
@@ -3505,7 +3761,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>150</v>
       </c>
@@ -3534,7 +3790,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>106</v>
       </c>
@@ -3563,7 +3819,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>86</v>
       </c>
@@ -3592,7 +3848,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>240</v>
       </c>
@@ -3621,7 +3877,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>91</v>
       </c>
@@ -3650,7 +3906,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>94</v>
       </c>
@@ -3679,7 +3935,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>96</v>
       </c>
@@ -3708,7 +3964,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>98</v>
       </c>
@@ -3737,7 +3993,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>100</v>
       </c>
@@ -3766,7 +4022,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>144</v>
       </c>
@@ -3795,7 +4051,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>243</v>
       </c>
@@ -3824,7 +4080,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -3853,7 +4109,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>143</v>
       </c>
@@ -3882,7 +4138,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>160</v>
       </c>
@@ -3940,7 +4196,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>163</v>
       </c>
@@ -3969,7 +4225,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>165</v>
       </c>
@@ -3998,7 +4254,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>169</v>
       </c>
@@ -4027,7 +4283,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>171</v>
       </c>
@@ -4056,7 +4312,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>171</v>
       </c>
@@ -4085,7 +4341,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>185</v>
       </c>
@@ -4116,7 +4372,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>230</v>
       </c>
@@ -4146,7 +4402,7 @@
       </c>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>233</v>
       </c>
@@ -4176,7 +4432,7 @@
       </c>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>235</v>
       </c>
@@ -4208,7 +4464,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="390" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>204</v>
       </c>
@@ -4237,7 +4493,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>207</v>
       </c>
@@ -4266,7 +4522,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>209</v>
       </c>
@@ -4295,7 +4551,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>212</v>
       </c>
@@ -4324,7 +4580,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>217</v>
       </c>
@@ -4355,7 +4611,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>221</v>
       </c>
@@ -4386,7 +4642,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>224</v>
       </c>
@@ -4417,14 +4673,520 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
+    <row r="92" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="300" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I106" s="8"/>
+    </row>
+    <row r="107" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="L108" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="M108" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="N108" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I91" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Verify Business userList"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I91" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ideyaLabs\git\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\2022\101222_Web\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A1A142-160C-4952-B3EA-F67D86C93736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E54CDA-AE75-4612-BFA7-1EFBB90B7F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="290">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1597,6 +1597,9 @@
   <si>
     <t>coyni.admin.tests.UnderWritingTest,
 testIdentifivericationSuccesfull</t>
+  </si>
+  <si>
+    <t>testData-admin.xlsx,profilesIndividuals</t>
   </si>
 </sst>
 </file>
@@ -1977,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:XFD100"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4681,7 +4684,7 @@
         <v>68</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>166</v>
+        <v>289</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>11</v>
@@ -4710,7 +4713,7 @@
         <v>68</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>166</v>
+        <v>289</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>11</v>
@@ -4739,7 +4742,7 @@
         <v>68</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>166</v>
+        <v>289</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>11</v>
@@ -4768,7 +4771,7 @@
         <v>68</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>166</v>
+        <v>289</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>11</v>
@@ -4797,7 +4800,7 @@
         <v>68</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>166</v>
+        <v>289</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
@@ -4826,7 +4829,7 @@
         <v>68</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>166</v>
+        <v>289</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
@@ -4855,7 +4858,7 @@
         <v>68</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>166</v>
+        <v>289</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>11</v>
@@ -4884,7 +4887,7 @@
         <v>68</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>166</v>
+        <v>289</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
@@ -4913,7 +4916,7 @@
         <v>68</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>166</v>
+        <v>289</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>11</v>
@@ -4942,7 +4945,7 @@
         <v>68</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>166</v>
+        <v>289</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>11</v>
@@ -4971,7 +4974,7 @@
         <v>68</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>166</v>
+        <v>289</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
@@ -5000,7 +5003,7 @@
         <v>68</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>166</v>
+        <v>289</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>11</v>
@@ -5029,7 +5032,7 @@
         <v>68</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>166</v>
+        <v>289</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>11</v>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\2022\101222_Web\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E54CDA-AE75-4612-BFA7-1EFBB90B7F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682A4C40-578A-46AB-A074-4B0CFC353D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1980,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4995,7 +4995,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>258</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>167</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I103" s="8" t="s">
         <v>277</v>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\2022\101222_Web\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Admin-Profile\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682A4C40-578A-46AB-A074-4B0CFC353D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7C275F-AF45-4E1A-B1A8-00DC7BA38A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$108</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="291">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1600,6 +1600,9 @@
   </si>
   <si>
     <t>testData-admin.xlsx,profilesIndividuals</t>
+  </si>
+  <si>
+    <t>underWritings</t>
   </si>
 </sst>
 </file>
@@ -1978,10 +1981,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2026,7 +2030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2052,7 +2056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="150.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2078,7 +2082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>188</v>
       </c>
@@ -2104,7 +2108,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -2130,7 +2134,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="210.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="210.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -2156,7 +2160,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -2182,7 +2186,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -2208,7 +2212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -2234,7 +2238,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -2260,7 +2264,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -2286,7 +2290,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -2312,7 +2316,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -2338,7 +2342,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>173</v>
       </c>
@@ -2371,7 +2375,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>177</v>
       </c>
@@ -2404,7 +2408,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>180</v>
       </c>
@@ -2437,7 +2441,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>200</v>
       </c>
@@ -2470,7 +2474,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2496,7 +2500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2525,7 +2529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -2554,7 +2558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -2583,7 +2587,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>50</v>
       </c>
@@ -2612,7 +2616,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>158</v>
       </c>
@@ -2641,7 +2645,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -2670,7 +2674,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="270" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -2699,7 +2703,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>194</v>
       </c>
@@ -2728,7 +2732,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>108</v>
       </c>
@@ -2757,7 +2761,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>108</v>
       </c>
@@ -2786,7 +2790,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>127</v>
       </c>
@@ -2815,7 +2819,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>129</v>
       </c>
@@ -2844,7 +2848,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>131</v>
       </c>
@@ -2873,7 +2877,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>133</v>
       </c>
@@ -2902,7 +2906,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>135</v>
       </c>
@@ -2931,7 +2935,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>137</v>
       </c>
@@ -2960,7 +2964,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>54</v>
       </c>
@@ -2990,7 +2994,7 @@
       </c>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>237</v>
       </c>
@@ -3020,7 +3024,7 @@
       </c>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -3050,7 +3054,7 @@
       </c>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,7 +3084,7 @@
       </c>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>61</v>
       </c>
@@ -3110,7 +3114,7 @@
       </c>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>63</v>
       </c>
@@ -3140,7 +3144,7 @@
       </c>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -3170,7 +3174,7 @@
       </c>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
@@ -3201,7 +3205,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,7 +3236,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>73</v>
       </c>
@@ -3263,7 +3267,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>75</v>
       </c>
@@ -3294,7 +3298,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>77</v>
       </c>
@@ -3325,7 +3329,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>79</v>
       </c>
@@ -3356,7 +3360,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
@@ -3387,7 +3391,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>183</v>
       </c>
@@ -3418,7 +3422,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,7 +3453,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>191</v>
       </c>
@@ -3480,7 +3484,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>197</v>
       </c>
@@ -3511,7 +3515,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>111</v>
       </c>
@@ -3543,7 +3547,7 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>114</v>
       </c>
@@ -3575,7 +3579,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>116</v>
       </c>
@@ -3607,7 +3611,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>118</v>
       </c>
@@ -3639,7 +3643,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>120</v>
       </c>
@@ -3671,7 +3675,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>122</v>
       </c>
@@ -3703,7 +3707,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>124</v>
       </c>
@@ -3735,7 +3739,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>228</v>
       </c>
@@ -3764,7 +3768,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>150</v>
       </c>
@@ -3793,7 +3797,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>106</v>
       </c>
@@ -3822,7 +3826,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>86</v>
       </c>
@@ -3851,7 +3855,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>240</v>
       </c>
@@ -3880,7 +3884,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>91</v>
       </c>
@@ -3909,7 +3913,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>94</v>
       </c>
@@ -3938,7 +3942,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>96</v>
       </c>
@@ -3967,7 +3971,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>98</v>
       </c>
@@ -3996,7 +4000,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>100</v>
       </c>
@@ -4025,7 +4029,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>144</v>
       </c>
@@ -4054,7 +4058,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>243</v>
       </c>
@@ -4083,7 +4087,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -4112,7 +4116,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>143</v>
       </c>
@@ -4141,7 +4145,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>160</v>
       </c>
@@ -4170,7 +4174,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>162</v>
       </c>
@@ -4199,7 +4203,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>163</v>
       </c>
@@ -4344,7 +4348,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>185</v>
       </c>
@@ -4375,7 +4379,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>230</v>
       </c>
@@ -4405,7 +4409,7 @@
       </c>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>233</v>
       </c>
@@ -4435,7 +4439,7 @@
       </c>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>235</v>
       </c>
@@ -4467,7 +4471,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="390" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="390" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>204</v>
       </c>
@@ -4496,7 +4500,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>207</v>
       </c>
@@ -4525,7 +4529,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>209</v>
       </c>
@@ -4554,7 +4558,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>212</v>
       </c>
@@ -4583,7 +4587,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>217</v>
       </c>
@@ -4614,7 +4618,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>221</v>
       </c>
@@ -4645,7 +4649,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>224</v>
       </c>
@@ -5102,7 +5106,7 @@
         <v>126</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>167</v>
+        <v>290</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>280</v>
@@ -5129,7 +5133,7 @@
         <v>126</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>167</v>
+        <v>290</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>89</v>
@@ -5164,7 +5168,7 @@
         <v>126</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>167</v>
+        <v>290</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>280</v>
@@ -5189,7 +5193,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I91" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I108" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Individuals"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Admin-Profile\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(19-10-2022)Crome\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7C275F-AF45-4E1A-B1A8-00DC7BA38A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57382A5E-E4E5-4377-9924-BA31E633743E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$104</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="278">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -77,19 +77,6 @@
   </si>
   <si>
     <t>Login</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.LoginTest,
-testAdminLogin,
--ploginHeading,
--ploginDescription,
--pemail,
--ppassword,
--pattribute,
--pauthyHeading,
--pauthyDescription,
--pcode,
--pmessage</t>
   </si>
   <si>
     <t>Admin Login with invalid credentials</t>
@@ -111,14 +98,6 @@
     <t>verify Element view</t>
   </si>
   <si>
-    <t>coyni.admin.tests.LoginTest,
-testLoginView,
--ploginHeading,
--pemail,
--ppassword,
--pattribute</t>
-  </si>
-  <si>
     <t>verify CoyniPortal</t>
   </si>
   <si>
@@ -126,18 +105,6 @@
   </si>
   <si>
     <t>Coyni Portal</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.LoginTest,
-testAdminLogin,
--ploginHeading,
--ploginDescription,
--pemail,
--ppassword,
--pauthyHeading,
--pauthyDescription,
--pcode,
--pmessage</t>
   </si>
   <si>
     <t>coyni.admin.tests.CoyniPortalTest,
@@ -494,17 +461,6 @@
     <t>feeStructure</t>
   </si>
   <si>
-    <t>coyni.admin.tests.LoginTest,
-testAdminLogin,
--ploginHeading,
--ploginDescription,
--pemail,
--ppassword,
--pauthyHeading,
--pauthyDescription,
--pcode</t>
-  </si>
-  <si>
     <t>coyni.admin.tests.SystemSettingsTest,
 testFeeStructure,
 -pexpHeading,
@@ -847,48 +803,9 @@
   </si>
   <si>
     <t>coyni.admin.tests.CoyniPortalTest,
-testAddSignetAccount,
--pnoSignetAccountsExistHeading,
--pdescription,
--paddNewSignetAccountHeading,
--pnewSignetAccount,
--pwalletID,
--paddressLine1,
--paddressLine2,
--pcity,
--pstate,
--pzipCode,
--pwithdrawToSignetAccountHeading,
--pamount,
--pdescription,
--pwithdrawToSignetPreviewHeading,
--pcode</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.CoyniPortalTest,
 testRemoveSignetAccount,
 -premoveSignetAccountHeading,
 -pdescription</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.CoyniPortalTest,
-testAddSignetAccountInvalidDataValidations,
--pnoSignetAccountsExistHeading,
--pdescription,
--paddNewSignetAccountHeading,
--pnewSignetAccount,
--pwalletID,
--paddressLine1,
--paddressLine2,
--pcity,
--pstate,
--pzipCode,
--pwithdrawToSignetAccountHeading,
--pamount,
--pdescription,
--pwithdrawToSignetPreviewHeading,
--pcode,
--perrMessage</t>
   </si>
   <si>
     <t>testSignetAccountInvalidAmount</t>
@@ -980,34 +897,7 @@
     <t>TokenAccount-ChangePassword</t>
   </si>
   <si>
-    <t>coyni.admin.tests.LoginTest,
-testAdminLogin,
--ploginHeading,
--pemail,
--ppassword,
--pauthyHeading,
--pauthyDescription,
--pcode</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.HomeTest,
-testUserDetailsChangePasswordWithValid,
--pcode,
--pcurrentPassword,
--pnewPassword,
--pconfirmPassword</t>
-  </si>
-  <si>
     <t>test Change Password invalid information</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.HomeTest,
-testUserDetailsChangePasswordInvalidCredentials,
--pcode,
--pcurrentPassword,
--pnewPassword,
--pconfirmPassword,
--perrMessage</t>
   </si>
   <si>
     <t>testdata-admin.xlsx,changePassword</t>
@@ -1131,82 +1021,6 @@
     <t>UserDetails-RemoveImage</t>
   </si>
   <si>
-    <t>test checkOut Transaction</t>
-  </si>
-  <si>
-    <t>testData-admin.xlsx,checkOut</t>
-  </si>
-  <si>
-    <t>Verify Check Out Transaction</t>
-  </si>
-  <si>
-    <t>test checkOut Transaction invalid PopUp</t>
-  </si>
-  <si>
-    <t>coyni.checkout.tests.CheckOutTest,
-tesCheckOutInvalidData,
--pdomain,
--porderId,
--ppublicKey,
--psecretKey</t>
-  </si>
-  <si>
-    <t>test checkOut Cancel Transaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coyni.checkout.tests.CheckOutTest,
-tesCheckOutCancelTransaction,
--pdomain,
--ppublicKey,
--psecretKey,
--pemail,
--ppassword,
--pheading,
--pcode,
--pcancelHeading,
--pcontent,
--pcheckOutContent
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coyni.checkout.tests.CheckOutTest,
-tesCheckOutTransaction,
--pdomain,
--ppublicKey,
--psecretKey,
--pemail,
--ppassword,
--pheading,
--pcode,
--psuccessContent,
--pinsufficient,
--pcvv,
--pamount,
--pnameOnCard,
--pcardNumber,
--pcardType,
--pcardExpiry,
--pcvvNumber,
--paddressLine1,
--paddressLine2,
--pcity,
--pzipCode,
--pstate,
--pcountry,
--ppreamount
-</t>
-  </si>
-  <si>
-    <t>test checkOut module with out adding products</t>
-  </si>
-  <si>
-    <t>coyni.checkout.tests.CheckOutTest,
-tesCheckOutWithOutAddingProducts,
--pdomain,
--ppublicKey,
--psecretKey</t>
-  </si>
-  <si>
     <t>accounting</t>
   </si>
   <si>
@@ -1305,9 +1119,6 @@
   </si>
   <si>
     <t>verify fee struture status active to sheduled</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>coyni.admin.tests.SystemSettingsTest,
@@ -1394,9 +1205,6 @@
   </si>
   <si>
     <t>Verify Under Writings Assigne Direct Approve</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>coyni.admin.tests.ProfilesTest,
@@ -1603,6 +1411,116 @@
   </si>
   <si>
     <t>underWritings</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testAdminLogin,
+-ploginHeading,
+-pemail,
+-ppassword,
+-pauthyHeading,
+-pauthyDescription,
+-pcode,
+-psecurityKey</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.HomeTest,
+testUserDetailsChangePasswordWithValid,
+-pcode,
+-psecurityKey,
+-pcurrentPassword,
+-pnewPassword,
+-pconfirmPassword</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.HomeTest,
+testUserDetailsChangePasswordInvalidCredentials,
+-pcode,
+-p-psecurityKey,
+-pcurrentPassword,
+-pnewPassword,
+-pconfirmPassword,
+-perrMessage</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testAdminLogin,
+-ploginHeading,
+-ploginDescription,
+-pemail,
+-ppassword,
+-pauthyHeading,
+-pauthyDescription,
+-pcode,
+-pmessage,
+-psecurityKey</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.CoyniPortalTest,
+testAddSignetAccount,
+-pnoSignetAccountsExistHeading,
+-pdescription,
+-paddNewSignetAccountHeading,
+-pnewSignetAccount,
+-pwalletID,
+-paddressLine1,
+-paddressLine2,
+-pcity,
+-pstate,
+-pzipCode,
+-pwithdrawToSignetAccountHeading,
+-pamount,
+-pdescription,
+-pwithdrawToSignetPreviewHeading,
+-pcode,
+-psecurityKey</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.CoyniPortalTest,
+testAddSignetAccountInvalidDataValidations,
+-pnoSignetAccountsExistHeading,
+-pdescription,
+-paddNewSignetAccountHeading,
+-pnewSignetAccount,
+-pwalletID,
+-paddressLine1,
+-paddressLine2,
+-pcity,
+-pstate,
+-pzipCode,
+-pwithdrawToSignetAccountHeading,
+-pamount,
+-pdescription,
+-pwithdrawToSignetPreviewHeading,
+-pcode,
+-perrMessage,
+-psecurityKey</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testAdminLogin,
+-ploginHeading,
+-ploginDescription,
+-pemail,
+-ppassword,
+-pauthyHeading,
+-pauthyDescription,
+-pcode,
+-psecurityKey</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testAdminLogin,
+-ploginHeading,
+-ploginDescription,
+-pemail,
+-ppassword,
+-pattribute,
+-pauthyHeading,
+-pauthyDescription,
+-pcode,
+-pmessage,
+-psecurityKey</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1698,9 +1616,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1981,11 +1896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2030,12 +1944,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -2044,238 +1958,238 @@
         <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="150.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="225" hidden="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="210.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="210.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    </row>
+    <row r="8" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="210" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="2" t="s">
+    </row>
+    <row r="9" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="255" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="2" t="s">
+    </row>
+    <row r="11" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="225" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="210" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2284,21 +2198,21 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -2310,21 +2224,21 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="195" hidden="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -2336,150 +2250,150 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>178</v>
+        <v>272</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>10</v>
@@ -2488,114 +2402,114 @@
         <v>11</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="H19" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="B20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="H20" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="H21" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="270" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -2607,27 +2521,27 @@
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -2636,24 +2550,24 @@
         <v>2</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -2665,2541 +2579,2419 @@
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="285" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="270" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="11" t="s">
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="H37" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="2" t="s">
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="2" t="s">
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="2" t="s">
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="2" t="s">
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" s="2" t="s">
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I41" s="2" t="s">
+      <c r="B42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="H42" s="2" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>89</v>
+        <v>276</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>89</v>
+        <v>276</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>89</v>
+        <v>276</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>89</v>
+        <v>276</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>89</v>
+        <v>276</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>89</v>
+        <v>276</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>89</v>
+        <v>276</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H60" s="2" t="s">
+    </row>
+    <row r="63" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I65" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I60" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    </row>
+    <row r="66" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I72" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F62" s="5" t="s">
+    </row>
+    <row r="73" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I66" s="2" t="s">
+      <c r="D73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I72" s="2" t="s">
+    <row r="74" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I79" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I74" s="2" t="s">
+    </row>
+    <row r="80" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="H80" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I80" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I76" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I78" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="390" hidden="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I85" s="11"/>
+        <v>273</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="I86" s="11"/>
+        <v>273</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>206</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I87" s="11"/>
+        <v>273</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>212</v>
+    <row r="88" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>227</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I88" s="11"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-    </row>
-    <row r="89" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>217</v>
+        <v>273</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>228</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-    </row>
-    <row r="90" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>221</v>
+        <v>273</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>229</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-    </row>
-    <row r="91" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>224</v>
+        <v>273</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>230</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-    </row>
-    <row r="92" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
-        <v>247</v>
+        <v>273</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
-        <v>248</v>
+      <c r="A93" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
-        <v>249</v>
+      <c r="A94" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="I94" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="D95" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>289</v>
+        <v>160</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="300" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>167</v>
+        <v>269</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I102" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="I102" s="8"/>
+    </row>
+    <row r="103" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>167</v>
+        <v>269</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H104" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="I104" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" ht="135" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I105" s="8" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="300" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="K104" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="I106" s="8"/>
-    </row>
-    <row r="107" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I107" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="J107" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="K107" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B108" s="1" t="s">
+      <c r="L104" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="I108" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="J108" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="K108" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="L108" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="M108" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="N108" s="6" t="s">
-        <v>288</v>
+      <c r="M104" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I108" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Individuals"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I104" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(19-10-2022)Crome\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(20-10-2022)RegressionTestData and test Script\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57382A5E-E4E5-4377-9924-BA31E633743E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24575901-B5DA-4895-ABA3-F36FEEA48640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$103</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="276">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1192,9 +1192,6 @@
     <t>Verify Individual Activity Log View</t>
   </si>
   <si>
-    <t>Verify Merchant Side Bar View</t>
-  </si>
-  <si>
     <t>Verify Under Writings With Required Documents</t>
   </si>
   <si>
@@ -1313,13 +1310,6 @@
 testIndividualsActivityLogView,
 -pprofileHeading,
 -psearchText</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.ProfilesTest,
-testMerchantSideBarView,
--pmerchantHeading,
--psearchText,
--pexpId</t>
   </si>
   <si>
     <t>coyni.admin.tests.HomeTest,
@@ -1896,10 +1886,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N104"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,7 +1935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1967,10 +1958,10 @@
         <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="150.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1996,7 +1987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>179</v>
       </c>
@@ -2022,7 +2013,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -2048,7 +2039,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="210.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="210.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
@@ -2074,7 +2065,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -2100,7 +2091,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -2126,7 +2117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2152,7 +2143,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -2178,7 +2169,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -2204,7 +2195,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -2230,7 +2221,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -2256,7 +2247,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>167</v>
       </c>
@@ -2279,17 +2270,17 @@
         <v>168</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>169</v>
       </c>
@@ -2312,17 +2303,17 @@
         <v>168</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>171</v>
       </c>
@@ -2345,7 +2336,7 @@
         <v>173</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>193</v>
@@ -2355,7 +2346,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>191</v>
       </c>
@@ -2378,7 +2369,7 @@
         <v>194</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>192</v>
@@ -2388,7 +2379,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2411,10 +2402,10 @@
         <v>12</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2437,13 +2428,13 @@
         <v>19</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -2466,13 +2457,13 @@
         <v>22</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -2495,13 +2486,13 @@
         <v>25</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="270" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>47</v>
       </c>
@@ -2524,13 +2515,13 @@
         <v>48</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>152</v>
       </c>
@@ -2553,13 +2544,13 @@
         <v>48</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
@@ -2582,13 +2573,13 @@
         <v>48</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="285" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -2611,13 +2602,13 @@
         <v>48</v>
       </c>
       <c r="H25" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>185</v>
       </c>
@@ -2640,13 +2631,13 @@
         <v>186</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>104</v>
       </c>
@@ -2669,13 +2660,13 @@
         <v>105</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>104</v>
       </c>
@@ -2698,13 +2689,13 @@
         <v>105</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>123</v>
       </c>
@@ -2727,13 +2718,13 @@
         <v>105</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>125</v>
       </c>
@@ -2756,13 +2747,13 @@
         <v>105</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>127</v>
       </c>
@@ -2785,13 +2776,13 @@
         <v>105</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>129</v>
       </c>
@@ -2814,13 +2805,13 @@
         <v>105</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>131</v>
       </c>
@@ -2843,13 +2834,13 @@
         <v>105</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>133</v>
       </c>
@@ -2872,13 +2863,13 @@
         <v>105</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
@@ -2901,14 +2892,14 @@
         <v>196</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>53</v>
       </c>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>218</v>
       </c>
@@ -2931,14 +2922,14 @@
         <v>219</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>220</v>
       </c>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
@@ -2961,14 +2952,14 @@
         <v>196</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -2991,14 +2982,14 @@
         <v>196</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>58</v>
       </c>
@@ -3021,14 +3012,14 @@
         <v>196</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>59</v>
       </c>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -3051,14 +3042,14 @@
         <v>196</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>62</v>
       </c>
@@ -3081,14 +3072,14 @@
         <v>196</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>64</v>
       </c>
@@ -3111,7 +3102,7 @@
         <v>67</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>181</v>
@@ -3119,7 +3110,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>68</v>
       </c>
@@ -3142,7 +3133,7 @@
         <v>67</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>69</v>
@@ -3150,7 +3141,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>70</v>
       </c>
@@ -3173,7 +3164,7 @@
         <v>67</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>71</v>
@@ -3181,7 +3172,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>72</v>
       </c>
@@ -3204,7 +3195,7 @@
         <v>67</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>73</v>
@@ -3212,7 +3203,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>74</v>
       </c>
@@ -3235,7 +3226,7 @@
         <v>67</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>75</v>
@@ -3243,7 +3234,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>76</v>
       </c>
@@ -3266,7 +3257,7 @@
         <v>77</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>78</v>
@@ -3274,7 +3265,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>79</v>
       </c>
@@ -3297,7 +3288,7 @@
         <v>77</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>80</v>
@@ -3305,7 +3296,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>174</v>
       </c>
@@ -3328,7 +3319,7 @@
         <v>67</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>175</v>
@@ -3336,7 +3327,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,7 +3350,7 @@
         <v>77</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>82</v>
@@ -3367,7 +3358,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>182</v>
       </c>
@@ -3390,7 +3381,7 @@
         <v>183</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I51" s="11" t="s">
         <v>184</v>
@@ -3398,7 +3389,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>188</v>
       </c>
@@ -3421,7 +3412,7 @@
         <v>189</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I52" s="11" t="s">
         <v>190</v>
@@ -3429,7 +3420,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>107</v>
       </c>
@@ -3452,7 +3443,7 @@
         <v>195</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>109</v>
@@ -3461,7 +3452,7 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>110</v>
       </c>
@@ -3484,7 +3475,7 @@
         <v>195</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>111</v>
@@ -3493,7 +3484,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>112</v>
       </c>
@@ -3516,7 +3507,7 @@
         <v>195</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>113</v>
@@ -3525,7 +3516,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>114</v>
       </c>
@@ -3548,7 +3539,7 @@
         <v>195</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>115</v>
@@ -3557,7 +3548,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>116</v>
       </c>
@@ -3580,7 +3571,7 @@
         <v>195</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>117</v>
@@ -3589,7 +3580,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>118</v>
       </c>
@@ -3612,7 +3603,7 @@
         <v>195</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>119</v>
@@ -3621,7 +3612,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>120</v>
       </c>
@@ -3644,7 +3635,7 @@
         <v>195</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>121</v>
@@ -3653,7 +3644,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>209</v>
       </c>
@@ -3676,13 +3667,13 @@
         <v>100</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>146</v>
       </c>
@@ -3705,13 +3696,13 @@
         <v>100</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>102</v>
       </c>
@@ -3734,13 +3725,13 @@
         <v>100</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>83</v>
       </c>
@@ -3763,13 +3754,13 @@
         <v>85</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>221</v>
       </c>
@@ -3792,13 +3783,13 @@
         <v>88</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>87</v>
       </c>
@@ -3821,13 +3812,13 @@
         <v>88</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>90</v>
       </c>
@@ -3850,13 +3841,13 @@
         <v>91</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>92</v>
       </c>
@@ -3879,13 +3870,13 @@
         <v>91</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>94</v>
       </c>
@@ -3908,13 +3899,13 @@
         <v>88</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>96</v>
       </c>
@@ -3937,13 +3928,13 @@
         <v>88</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>140</v>
       </c>
@@ -3966,13 +3957,13 @@
         <v>137</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="141.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>223</v>
       </c>
@@ -3995,13 +3986,13 @@
         <v>225</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>138</v>
       </c>
@@ -4024,13 +4015,13 @@
         <v>137</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>139</v>
       </c>
@@ -4053,13 +4044,13 @@
         <v>137</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>154</v>
       </c>
@@ -4082,13 +4073,13 @@
         <v>197</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>156</v>
       </c>
@@ -4111,13 +4102,13 @@
         <v>197</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I75" s="8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>157</v>
       </c>
@@ -4140,7 +4131,7 @@
         <v>197</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I76" s="8" t="s">
         <v>158</v>
@@ -4169,7 +4160,7 @@
         <v>161</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I77" s="8" t="s">
         <v>162</v>
@@ -4198,7 +4189,7 @@
         <v>161</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I78" s="8" t="s">
         <v>164</v>
@@ -4227,7 +4218,7 @@
         <v>161</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I79" s="8" t="s">
         <v>166</v>
@@ -4256,13 +4247,13 @@
         <v>161</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I80" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>176</v>
       </c>
@@ -4285,7 +4276,7 @@
         <v>210</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>178</v>
@@ -4293,7 +4284,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>211</v>
       </c>
@@ -4316,14 +4307,14 @@
         <v>210</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>213</v>
       </c>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>214</v>
       </c>
@@ -4346,14 +4337,14 @@
         <v>210</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>215</v>
       </c>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>216</v>
       </c>
@@ -4376,7 +4367,7 @@
         <v>210</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>215</v>
@@ -4385,7 +4376,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>198</v>
       </c>
@@ -4408,7 +4399,7 @@
         <v>199</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>201</v>
@@ -4416,7 +4407,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>202</v>
       </c>
@@ -4439,7 +4430,7 @@
         <v>203</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>204</v>
@@ -4447,7 +4438,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>205</v>
       </c>
@@ -4470,7 +4461,7 @@
         <v>206</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>207</v>
@@ -4486,7 +4477,7 @@
         <v>65</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>11</v>
@@ -4501,10 +4492,10 @@
         <v>161</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -4515,7 +4506,7 @@
         <v>65</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>11</v>
@@ -4530,10 +4521,10 @@
         <v>161</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -4544,7 +4535,7 @@
         <v>65</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>11</v>
@@ -4559,10 +4550,10 @@
         <v>161</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -4573,7 +4564,7 @@
         <v>65</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -4588,10 +4579,10 @@
         <v>161</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -4602,7 +4593,7 @@
         <v>65</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>11</v>
@@ -4617,10 +4608,10 @@
         <v>161</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -4631,7 +4622,7 @@
         <v>65</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>11</v>
@@ -4646,10 +4637,10 @@
         <v>161</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -4660,7 +4651,7 @@
         <v>65</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>11</v>
@@ -4675,10 +4666,10 @@
         <v>161</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -4689,7 +4680,7 @@
         <v>65</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>11</v>
@@ -4704,10 +4695,10 @@
         <v>161</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -4718,7 +4709,7 @@
         <v>65</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
@@ -4733,10 +4724,10 @@
         <v>161</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="165" x14ac:dyDescent="0.25">
@@ -4747,7 +4738,7 @@
         <v>65</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
@@ -4762,10 +4753,10 @@
         <v>161</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="165" x14ac:dyDescent="0.25">
@@ -4776,7 +4767,7 @@
         <v>65</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>11</v>
@@ -4791,10 +4782,10 @@
         <v>161</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="165" x14ac:dyDescent="0.25">
@@ -4805,7 +4796,7 @@
         <v>65</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
@@ -4820,10 +4811,10 @@
         <v>161</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="165" x14ac:dyDescent="0.25">
@@ -4834,7 +4825,7 @@
         <v>65</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>11</v>
@@ -4849,13 +4840,13 @@
         <v>161</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>240</v>
       </c>
@@ -4863,7 +4854,7 @@
         <v>65</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>11</v>
@@ -4875,43 +4866,49 @@
         <v>122</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>161</v>
+        <v>267</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I101" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="I101" s="8"/>
+    </row>
+    <row r="102" spans="1:14" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="I102" s="8" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" ht="300" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H102" s="2" t="s">
+      <c r="J102" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I102" s="8"/>
-    </row>
-    <row r="103" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="K102" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>243</v>
       </c>
@@ -4919,7 +4916,7 @@
         <v>65</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>11</v>
@@ -4931,67 +4928,38 @@
         <v>122</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H104" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="I104" s="8" t="s">
+      <c r="L103" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="J104" s="6" t="s">
+      <c r="M103" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="K104" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="L104" s="6" t="s">
+      <c r="N103" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="M104" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="N104" s="6" t="s">
-        <v>267</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I104" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I103" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Individuals"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(20-10-2022)RegressionTestData and test Script\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24575901-B5DA-4895-ABA3-F36FEEA48640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA30316-6A66-4123-8AA9-DA83E5A1AC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1423,16 +1423,6 @@
 -pconfirmPassword</t>
   </si>
   <si>
-    <t>coyni.admin.tests.HomeTest,
-testUserDetailsChangePasswordInvalidCredentials,
--pcode,
--p-psecurityKey,
--pcurrentPassword,
--pnewPassword,
--pconfirmPassword,
--perrMessage</t>
-  </si>
-  <si>
     <t>coyni.admin.tests.LoginTest,
 testAdminLogin,
 -ploginHeading,
@@ -1511,6 +1501,16 @@
 -pcode,
 -pmessage,
 -psecurityKey</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.HomeTest,
+testUserDetailsChangePasswordInvalidCredentials,
+-pcode,
+-psecurityKey,
+-pcurrentPassword,
+-pnewPassword,
+-pconfirmPassword,
+-perrMessage</t>
   </si>
 </sst>
 </file>
@@ -1886,11 +1886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,7 +1934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1958,10 +1957,10 @@
         <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="150.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1987,7 +1986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>179</v>
       </c>
@@ -2013,7 +2012,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -2039,7 +2038,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="210.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="210.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
@@ -2065,7 +2064,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -2091,7 +2090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -2117,7 +2116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -2169,7 +2168,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -2195,7 +2194,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -2221,7 +2220,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -2247,7 +2246,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>167</v>
       </c>
@@ -2280,7 +2279,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>169</v>
       </c>
@@ -2306,14 +2305,14 @@
         <v>268</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>171</v>
       </c>
@@ -2346,7 +2345,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>191</v>
       </c>
@@ -2379,7 +2378,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2405,7 +2404,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2434,7 +2433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -2463,7 +2462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -2486,13 +2485,13 @@
         <v>25</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="270" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>47</v>
       </c>
@@ -2515,13 +2514,13 @@
         <v>48</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>152</v>
       </c>
@@ -2544,13 +2543,13 @@
         <v>48</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
@@ -2573,13 +2572,13 @@
         <v>48</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="285" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -2602,13 +2601,13 @@
         <v>48</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>185</v>
       </c>
@@ -2631,13 +2630,13 @@
         <v>186</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>104</v>
       </c>
@@ -2660,13 +2659,13 @@
         <v>105</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>104</v>
       </c>
@@ -2689,13 +2688,13 @@
         <v>105</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>123</v>
       </c>
@@ -2718,13 +2717,13 @@
         <v>105</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>125</v>
       </c>
@@ -2747,13 +2746,13 @@
         <v>105</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>127</v>
       </c>
@@ -2776,13 +2775,13 @@
         <v>105</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>129</v>
       </c>
@@ -2805,13 +2804,13 @@
         <v>105</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>131</v>
       </c>
@@ -2834,13 +2833,13 @@
         <v>105</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>133</v>
       </c>
@@ -2863,13 +2862,13 @@
         <v>105</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
@@ -2892,14 +2891,14 @@
         <v>196</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>53</v>
       </c>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>218</v>
       </c>
@@ -2922,14 +2921,14 @@
         <v>219</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>220</v>
       </c>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
@@ -2952,14 +2951,14 @@
         <v>196</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -2982,14 +2981,14 @@
         <v>196</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>58</v>
       </c>
@@ -3012,14 +3011,14 @@
         <v>196</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>59</v>
       </c>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -3042,14 +3041,14 @@
         <v>196</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>62</v>
       </c>
@@ -3072,14 +3071,14 @@
         <v>196</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>64</v>
       </c>
@@ -3102,7 +3101,7 @@
         <v>67</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>181</v>
@@ -3110,7 +3109,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>68</v>
       </c>
@@ -3133,7 +3132,7 @@
         <v>67</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>69</v>
@@ -3141,7 +3140,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>70</v>
       </c>
@@ -3164,7 +3163,7 @@
         <v>67</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>71</v>
@@ -3172,7 +3171,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>72</v>
       </c>
@@ -3195,7 +3194,7 @@
         <v>67</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>73</v>
@@ -3203,7 +3202,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>74</v>
       </c>
@@ -3226,7 +3225,7 @@
         <v>67</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>75</v>
@@ -3234,7 +3233,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>76</v>
       </c>
@@ -3257,7 +3256,7 @@
         <v>77</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>78</v>
@@ -3265,7 +3264,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>79</v>
       </c>
@@ -3288,7 +3287,7 @@
         <v>77</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>80</v>
@@ -3296,7 +3295,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>174</v>
       </c>
@@ -3319,7 +3318,7 @@
         <v>67</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>175</v>
@@ -3327,7 +3326,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>81</v>
       </c>
@@ -3350,7 +3349,7 @@
         <v>77</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>82</v>
@@ -3358,7 +3357,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>182</v>
       </c>
@@ -3381,7 +3380,7 @@
         <v>183</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I51" s="11" t="s">
         <v>184</v>
@@ -3389,7 +3388,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>188</v>
       </c>
@@ -3412,7 +3411,7 @@
         <v>189</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I52" s="11" t="s">
         <v>190</v>
@@ -3420,7 +3419,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>107</v>
       </c>
@@ -3443,7 +3442,7 @@
         <v>195</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>109</v>
@@ -3452,7 +3451,7 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>110</v>
       </c>
@@ -3475,7 +3474,7 @@
         <v>195</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>111</v>
@@ -3484,7 +3483,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>112</v>
       </c>
@@ -3507,7 +3506,7 @@
         <v>195</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>113</v>
@@ -3516,7 +3515,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>114</v>
       </c>
@@ -3539,7 +3538,7 @@
         <v>195</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>115</v>
@@ -3548,7 +3547,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>116</v>
       </c>
@@ -3571,7 +3570,7 @@
         <v>195</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>117</v>
@@ -3580,7 +3579,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>118</v>
       </c>
@@ -3603,7 +3602,7 @@
         <v>195</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>119</v>
@@ -3612,7 +3611,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>120</v>
       </c>
@@ -3635,7 +3634,7 @@
         <v>195</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>121</v>
@@ -3644,7 +3643,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>209</v>
       </c>
@@ -3667,13 +3666,13 @@
         <v>100</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>146</v>
       </c>
@@ -3696,13 +3695,13 @@
         <v>100</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>102</v>
       </c>
@@ -3725,13 +3724,13 @@
         <v>100</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>83</v>
       </c>
@@ -3754,13 +3753,13 @@
         <v>85</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>221</v>
       </c>
@@ -3783,13 +3782,13 @@
         <v>88</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>87</v>
       </c>
@@ -3812,13 +3811,13 @@
         <v>88</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>90</v>
       </c>
@@ -3841,13 +3840,13 @@
         <v>91</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>92</v>
       </c>
@@ -3870,13 +3869,13 @@
         <v>91</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>94</v>
       </c>
@@ -3899,13 +3898,13 @@
         <v>88</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>96</v>
       </c>
@@ -3928,13 +3927,13 @@
         <v>88</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>140</v>
       </c>
@@ -3957,13 +3956,13 @@
         <v>137</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="141.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>223</v>
       </c>
@@ -3986,13 +3985,13 @@
         <v>225</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>138</v>
       </c>
@@ -4015,13 +4014,13 @@
         <v>137</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>139</v>
       </c>
@@ -4044,13 +4043,13 @@
         <v>137</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>154</v>
       </c>
@@ -4073,13 +4072,13 @@
         <v>197</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>156</v>
       </c>
@@ -4102,13 +4101,13 @@
         <v>197</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I75" s="8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>157</v>
       </c>
@@ -4131,7 +4130,7 @@
         <v>197</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I76" s="8" t="s">
         <v>158</v>
@@ -4160,7 +4159,7 @@
         <v>161</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I77" s="8" t="s">
         <v>162</v>
@@ -4189,7 +4188,7 @@
         <v>161</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I78" s="8" t="s">
         <v>164</v>
@@ -4218,7 +4217,7 @@
         <v>161</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I79" s="8" t="s">
         <v>166</v>
@@ -4247,13 +4246,13 @@
         <v>161</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I80" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>176</v>
       </c>
@@ -4276,7 +4275,7 @@
         <v>210</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>178</v>
@@ -4284,7 +4283,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>211</v>
       </c>
@@ -4307,14 +4306,14 @@
         <v>210</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>213</v>
       </c>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>214</v>
       </c>
@@ -4337,14 +4336,14 @@
         <v>210</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>215</v>
       </c>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:11" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>216</v>
       </c>
@@ -4367,7 +4366,7 @@
         <v>210</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>215</v>
@@ -4376,7 +4375,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>198</v>
       </c>
@@ -4399,7 +4398,7 @@
         <v>199</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>201</v>
@@ -4407,7 +4406,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>202</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>203</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>204</v>
@@ -4438,7 +4437,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>205</v>
       </c>
@@ -4461,7 +4460,7 @@
         <v>206</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>207</v>
@@ -4492,7 +4491,7 @@
         <v>161</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I88" s="8" t="s">
         <v>244</v>
@@ -4521,7 +4520,7 @@
         <v>161</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I89" s="8" t="s">
         <v>245</v>
@@ -4550,7 +4549,7 @@
         <v>161</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I90" s="8" t="s">
         <v>246</v>
@@ -4579,7 +4578,7 @@
         <v>161</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I91" s="8" t="s">
         <v>247</v>
@@ -4608,7 +4607,7 @@
         <v>161</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I92" s="8" t="s">
         <v>248</v>
@@ -4637,7 +4636,7 @@
         <v>161</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I93" s="8" t="s">
         <v>249</v>
@@ -4666,7 +4665,7 @@
         <v>161</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I94" s="8" t="s">
         <v>250</v>
@@ -4695,7 +4694,7 @@
         <v>161</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I95" s="8" t="s">
         <v>251</v>
@@ -4724,7 +4723,7 @@
         <v>161</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I96" s="8" t="s">
         <v>252</v>
@@ -4753,7 +4752,7 @@
         <v>161</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I97" s="8" t="s">
         <v>253</v>
@@ -4782,7 +4781,7 @@
         <v>161</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I98" s="8" t="s">
         <v>254</v>
@@ -4811,7 +4810,7 @@
         <v>161</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I99" s="8" t="s">
         <v>255</v>
@@ -4840,13 +4839,13 @@
         <v>161</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I100" s="8" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" ht="300" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>240</v>
       </c>
@@ -4873,7 +4872,7 @@
       </c>
       <c r="I101" s="8"/>
     </row>
-    <row r="102" spans="1:14" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>242</v>
       </c>
@@ -4896,7 +4895,7 @@
         <v>267</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I102" s="8" t="s">
         <v>258</v>
@@ -4908,7 +4907,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>243</v>
       </c>
@@ -4953,13 +4952,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I103" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Individuals"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I103" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(20-10-2022)RegressionTestData and test Script\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA30316-6A66-4123-8AA9-DA83E5A1AC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD79C0E-D463-4A95-9535-8A2EF6F47B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="284">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1511,6 +1511,37 @@
 -pnewPassword,
 -pconfirmPassword,
 -perrMessage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exportFile </t>
+  </si>
+  <si>
+    <t>testdata-admin.xlsx,exportFile</t>
+  </si>
+  <si>
+    <t>ExportFile</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ExportFilesTest,
+testDownloadExportFile</t>
+  </si>
+  <si>
+    <t>exportFile Download</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ExportFilesTest,
+testDownloadMultipleExportFiles,
+-ptitle,
+-pmessage</t>
+  </si>
+  <si>
+    <t>exportFile trash</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ExportFilesTest,
+testTrashExportFile,
+-ptitle,
+-pmessage</t>
   </si>
 </sst>
 </file>
@@ -1886,10 +1917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4951,6 +4982,93 @@
         <v>265</v>
       </c>
     </row>
+    <row r="104" spans="1:14" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>276</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" t="s">
+        <v>277</v>
+      </c>
+      <c r="D104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>278</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>280</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C105" t="s">
+        <v>277</v>
+      </c>
+      <c r="D105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>278</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>282</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C106" t="s">
+        <v>277</v>
+      </c>
+      <c r="D106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>278</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I103" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(20-10-2022)RegressionTestData and test Script\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\En-Auto-new(11-11-2-2022)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD79C0E-D463-4A95-9535-8A2EF6F47B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174EFDCF-4255-443F-9E18-AD1522E07C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="286">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -280,18 +280,6 @@
 -pphoneEmailVerificationHeading</t>
   </si>
   <si>
-    <t>testAddSignetAccount</t>
-  </si>
-  <si>
-    <t>AddSignetAccount</t>
-  </si>
-  <si>
-    <t>testRemoveSignetAccount</t>
-  </si>
-  <si>
-    <t>testAddSignetAccountInvalidDataValidations</t>
-  </si>
-  <si>
     <t>testTransactionDetailsDebitCard</t>
   </si>
   <si>
@@ -360,9 +348,6 @@
   </si>
   <si>
     <t>testTransactionListExportsToday</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>testData-admin.xlsx,transaction</t>
@@ -499,19 +484,6 @@
     <t>coyni.admin.tests.SystemSettingsTest,
 testViewMerchantfeeStructurePage,
 -pexpViewHeading</t>
-  </si>
-  <si>
-    <t>VerifyFeatureControl</t>
-  </si>
-  <si>
-    <t>testdata-admin.xlsx,featureControl</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.SystemSettingsTest,
-testFeatureControl,
--pexpActivityHeading,
--pexpHeading,
--pexpDescription</t>
   </si>
   <si>
     <t>testdata-admin.xlsx,BalanceReport</t>
@@ -772,9 +744,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>testData-admin.xlsx,AddSignetAccount</t>
-  </si>
-  <si>
     <t>coyni.admin.tests.SystemSettingsTest,
 testEditPersonalFeeStructure,
 -pexpEditHeading</t>
@@ -800,23 +769,6 @@
     <t>coyni.admin.tests.SystemSettingsTest,
 testViewPersonalAccountLimits,
 -pexpViewHeading</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.CoyniPortalTest,
-testRemoveSignetAccount,
--premoveSignetAccountHeading,
--pdescription</t>
-  </si>
-  <si>
-    <t>testSignetAccountInvalidAmount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coyni.admin.tests.CoyniPortalTest,
-testAddSignetAccountInvalidAmount,
--pamount,
--pdescription,
--perrMessage
-</t>
   </si>
   <si>
     <t xml:space="preserve">create Api Business </t>
@@ -1168,16 +1120,7 @@
     <t>Verify Individual Token Account Test Transactions Recieve Details List</t>
   </si>
   <si>
-    <t>Verify Individual Token Account Activity Details</t>
-  </si>
-  <si>
     <t>Verify Individual Preference and Controls View</t>
-  </si>
-  <si>
-    <t>Verify Individual Preference Disable Controls</t>
-  </si>
-  <si>
-    <t>Verify Individual Preference and Controls Navigation</t>
   </si>
   <si>
     <t>Verify Individual Agreements Privacy Policy</t>
@@ -1265,25 +1208,7 @@
   </si>
   <si>
     <t>coyni.admin.tests.ProfilesTest,
-testIndividualsTokenAccountActivityDetalis,
--pprofileHeading,
--psearchText</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.ProfilesTest,
 testIndividualsPreferencesView,
--pprofileHeading,
--psearchText</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.ProfilesTest,
-testIndividualsPreferencesDisableAllControls,
--pprofileHeading,
--psearchText</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.ProfilesTest,
-testIndividualsPreferencesandControlsnavigations,
 -pprofileHeading,
 -psearchText</t>
   </si>
@@ -1436,8 +1361,75 @@
 -psecurityKey</t>
   </si>
   <si>
+    <t>coyni.admin.tests.LoginTest,
+testAdminLogin,
+-ploginHeading,
+-ploginDescription,
+-pemail,
+-ppassword,
+-pauthyHeading,
+-pauthyDescription,
+-pcode,
+-psecurityKey</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testAdminLogin,
+-ploginHeading,
+-ploginDescription,
+-pemail,
+-ppassword,
+-pattribute,
+-pauthyHeading,
+-pauthyDescription,
+-pcode,
+-pmessage,
+-psecurityKey</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.HomeTest,
+testUserDetailsChangePasswordInvalidCredentials,
+-pcode,
+-psecurityKey,
+-pcurrentPassword,
+-pnewPassword,
+-pconfirmPassword,
+-perrMessage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exportFile </t>
+  </si>
+  <si>
+    <t>testdata-admin.xlsx,exportFile</t>
+  </si>
+  <si>
+    <t>ExportFile</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ExportFilesTest,
+testDownloadExportFile</t>
+  </si>
+  <si>
+    <t>exportFile Download</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ExportFilesTest,
+testDownloadMultipleExportFiles,
+-ptitle,
+-pmessage</t>
+  </si>
+  <si>
+    <t>exportFile trash</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ExportFilesTest,
+testTrashExportFile,
+-ptitle,
+-pmessage</t>
+  </si>
+  <si>
     <t>coyni.admin.tests.CoyniPortalTest,
-testAddSignetAccount,
+testAddCogentAccount,
 -pnoSignetAccountsExistHeading,
 -pdescription,
 -paddNewSignetAccountHeading,
@@ -1457,7 +1449,20 @@
   </si>
   <si>
     <t>coyni.admin.tests.CoyniPortalTest,
-testAddSignetAccountInvalidDataValidations,
+testAddCogentAccountInvalidAmount,
+-pamount,
+-pdescription,
+-perrMessage</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.CoyniPortalTest,
+testRemoveCogentAccount,
+-premoveSignetAccountHeading,
+-pdescription</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.CoyniPortalTest,
+testAddCogentAccountInvalidDataValidations,
 -pnoSignetAccountsExistHeading,
 -pdescription,
 -paddNewSignetAccountHeading,
@@ -1477,78 +1482,167 @@
 -psecurityKey</t>
   </si>
   <si>
+    <t>AddCogentAccount</t>
+  </si>
+  <si>
+    <t>testAddCogentAccount</t>
+  </si>
+  <si>
+    <t>testCogentAccountInvalidAmount</t>
+  </si>
+  <si>
+    <t>testRemoveCogentAccount</t>
+  </si>
+  <si>
+    <t>testAddCogentAccountInvalidDataValidations</t>
+  </si>
+  <si>
+    <t>testData-admin.xlsx,AddCogentAccount</t>
+  </si>
+  <si>
+    <t>testdata-admin.xlsx,SignupPage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.admin.tests.UnderWritingTest,
+testcreateMerchantAccount,
+-plandingHeading1,
+-pcreateAccountHeading1,
+-pfirstName1,
+-plastName1,
+-pphoneNumber1,
+-pemail1,
+-pcreatePassword1,
+-pconfirmPassword1,
+-pverificationHeading1,
+-pverifyPhoneNumber1,
+-pcode1,
+-pemailHeading1,
+-pcode1,
+-pnewEmail1,
+-pcreatedAccountHeading1,
+-pstartPageHeading,
+-pstartPageDescription,
+-pcompanyInfoHeading,
+-pcompanyInfoDescription,
+-pcompanyName,
+-pssn_ein_tin,
+-pcompanyEmail,
+-pcompanyPhoneNumber,
+-paddressline1,
+-paddressline2,
+-pcity,
+-pstate,
+-pzipCode,
+-pcountry,
+-pfolderName,
+-pfileName,
+-pbusinessEntity,
+-pstartPageHeading,
+-pdbaHeading,
+-pdbaName,
+-pbusinessType,
+-pcompanyEmail,
+-pcompanyPhoneNumber,
+-pwebsite,
+-pmonthlyProcessingVolume,
+-phighTicket,
+-paverageTicket,
+-paddressline1,
+-paddressline2,
+-pcity,
+-pstate,
+-pzipCode,
+-ptimezone,
+-pheading,
+-pdescription,
+-pexpOwnerLabels,
+-pownerName,
+-pownerShip,
+-pownerShipLabel,
+-pfirstName,
+-plastName,
+-pdateOfBirth,
+-pssn_ein_tin,
+-pownerShip,
+-paddressline1,
+-paddressline2,
+-pcity,
+-pstate,
+-pzipCode,
+-pcountry,
+-pid,
+-pfolderName,
+-pfileName,
+-pexpColor,
+-pheading,
+-pbankAccountName,
+-proutingNumber,
+-pconfirmRoutingNumber,
+-paccountNumber,
+-pconfirmAccountNumber,
+-pstartPageHeading,
+-psignature
+</t>
+  </si>
+  <si>
+    <t>Verify Underwriting Merchant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.admin.tests.UnderWritingTest,
+testMerchantUnderWriting,
+-pdateOfBirth,
+-pSSNNumber,
+-pphoneNumber,
+-pemailCustm
+</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Verify Create Account Merchant with valid credentials</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.UnderWritingTest,
+testMerchantAddRequiredDocuments,
+-ptoastTitle,
+-ptoastMessage</t>
+  </si>
+  <si>
+    <t>Verify Merchant Under Writings Assigne Direct Approve</t>
+  </si>
+  <si>
+    <t>Admin Login with invalid Authy</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>coyni.admin.tests.LoginTest,
-testAdminLogin,
+testLoginInvalidAuthy,
+-ploginHeading,
+-pemail,
+-ppassword,
+-pauthyHeading,
+-pcode,
+-pchar,
+-pmessage</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testLoginView,
 -ploginHeading,
 -ploginDescription,
 -pemail,
 -ppassword,
--pauthyHeading,
--pauthyDescription,
--pcode,
--psecurityKey</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.LoginTest,
-testAdminLogin,
--ploginHeading,
--ploginDescription,
--pemail,
--ppassword,
--pattribute,
--pauthyHeading,
--pauthyDescription,
--pcode,
--pmessage,
--psecurityKey</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.HomeTest,
-testUserDetailsChangePasswordInvalidCredentials,
--pcode,
--psecurityKey,
--pcurrentPassword,
--pnewPassword,
--pconfirmPassword,
--perrMessage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exportFile </t>
-  </si>
-  <si>
-    <t>testdata-admin.xlsx,exportFile</t>
-  </si>
-  <si>
-    <t>ExportFile</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.ExportFilesTest,
-testDownloadExportFile</t>
-  </si>
-  <si>
-    <t>exportFile Download</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.ExportFilesTest,
-testDownloadMultipleExportFiles,
--ptitle,
--pmessage</t>
-  </si>
-  <si>
-    <t>exportFile trash</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.ExportFilesTest,
-testTrashExportFile,
--ptitle,
--pmessage</t>
+-pattribute</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1582,8 +1676,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1593,6 +1692,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1609,7 +1714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1634,9 +1739,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1919,13 +2053,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.140625" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -1934,6 +2068,11 @@
     <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="47.42578125" customWidth="1"/>
     <col min="9" max="9" width="43.140625" customWidth="1"/>
+    <col min="10" max="10" width="38.85546875" customWidth="1"/>
+    <col min="11" max="11" width="30.28515625" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" customWidth="1"/>
+    <col min="14" max="14" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1970,7 +2109,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1979,24 +2118,24 @@
         <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
+      <c r="A3" s="27" t="s">
+        <v>282</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2005,24 +2144,24 @@
         <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>143</v>
+        <v>283</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2031,76 +2170,76 @@
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="225" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="210.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
@@ -2109,24 +2248,24 @@
         <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="210.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -2135,102 +2274,102 @@
         <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="255" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="225" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="210" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>36</v>
@@ -2238,267 +2377,261 @@
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
+      <c r="E12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="9" t="s">
+    <row r="16" spans="1:13" s="17" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="E16" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>192</v>
+        <v>255</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="H20" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>18</v>
@@ -2507,88 +2640,88 @@
         <v>11</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>25</v>
+        <v>114</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="270" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>47</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
+      <c r="E22" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>271</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="270" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>144</v>
+        <v>273</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -2600,137 +2733,137 @@
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>48</v>
+        <v>268</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="285" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>144</v>
+        <v>273</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>143</v>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>48</v>
+        <v>268</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="285" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>18</v>
+        <v>273</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>104</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="23" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>173</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>106</v>
+      <c r="D28" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>18</v>
@@ -2739,56 +2872,56 @@
         <v>14</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>124</v>
+        <v>252</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>126</v>
+        <v>252</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>18</v>
@@ -2797,27 +2930,27 @@
         <v>11</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>18</v>
@@ -2826,27 +2959,27 @@
         <v>11</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>18</v>
@@ -2855,27 +2988,27 @@
         <v>11</v>
       </c>
       <c r="E33" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>18</v>
@@ -2884,631 +3017,628 @@
         <v>11</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>196</v>
+        <v>97</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J35" s="1"/>
+        <v>126</v>
+      </c>
     </row>
     <row r="36" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>218</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>220</v>
+        <v>49</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>206</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>184</v>
+        <v>252</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>109</v>
+        <v>252</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
     </row>
     <row r="54" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -3516,31 +3646,31 @@
     </row>
     <row r="55" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -3548,31 +3678,31 @@
     </row>
     <row r="56" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -3580,31 +3710,31 @@
     </row>
     <row r="57" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -3612,31 +3742,31 @@
     </row>
     <row r="58" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -3644,1433 +3774,1460 @@
     </row>
     <row r="59" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>209</v>
+    <row r="60" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>208</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
     </row>
     <row r="61" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>102</v>
+      <c r="A62" t="s">
+        <v>137</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="H65" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="D72" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="17" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>155</v>
+        <v>278</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="I74" s="16" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
     <row r="82" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="J82" s="2"/>
     </row>
     <row r="83" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
     <row r="86" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
     <row r="87" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
     <row r="88" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
-        <v>227</v>
+      <c r="A88" s="19" t="s">
+        <v>215</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
-        <v>228</v>
+      <c r="A89" s="19" t="s">
+        <v>216</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
-        <v>229</v>
+      <c r="A90" s="19" t="s">
+        <v>217</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
-        <v>230</v>
+      <c r="A91" s="19" t="s">
+        <v>218</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="300" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>161</v>
+        <v>249</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="I98" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>161</v>
+        <v>249</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="300" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H100" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="I100" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="M100" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="N100" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" ht="300" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="B101" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C101" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C101" t="s">
+        <v>257</v>
+      </c>
+      <c r="D101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>258</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>260</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C102" t="s">
+        <v>257</v>
+      </c>
+      <c r="D102" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="s">
+        <v>258</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>262</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C103" t="s">
+        <v>257</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="s">
+        <v>258</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J105" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="I101" s="8"/>
-    </row>
-    <row r="102" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="K105" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="300" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="K106" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="I102" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="J102" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="K102" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="I103" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="J103" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="K103" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="L103" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="M103" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="N103" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>276</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C104" t="s">
-        <v>277</v>
-      </c>
-      <c r="D104" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104">
-        <v>1</v>
-      </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-      <c r="G104" t="s">
-        <v>278</v>
-      </c>
-      <c r="H104" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>280</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C105" t="s">
-        <v>277</v>
-      </c>
-      <c r="D105" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105" t="s">
-        <v>278</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>282</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C106" t="s">
-        <v>277</v>
-      </c>
-      <c r="D106" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
-      <c r="F106">
-        <v>1</v>
-      </c>
-      <c r="G106" t="s">
-        <v>278</v>
-      </c>
-      <c r="H106" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="I106" s="6" t="s">
-        <v>283</v>
+      <c r="L106" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I103" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\En-Auto-new(11-11-2-2022)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174EFDCF-4255-443F-9E18-AD1522E07C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B92F31-9CBA-476C-879E-BBC91BFB51E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$106</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1337,15 +1337,6 @@
 -pauthyDescription,
 -pcode,
 -psecurityKey</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.HomeTest,
-testUserDetailsChangePasswordWithValid,
--pcode,
--psecurityKey,
--pcurrentPassword,
--pnewPassword,
--pconfirmPassword</t>
   </si>
   <si>
     <t>coyni.admin.tests.LoginTest,
@@ -1635,6 +1626,16 @@
 -ploginDescription,
 -pemail,
 -ppassword,
+-pattribute</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.HomeTest,
+testUserDetailsChangePasswordWithValid,
+-pcode,
+-psecurityKey,
+-pcurrentPassword,
+-pnewPassword,
+-pconfirmPassword,
 -pattribute</t>
   </si>
 </sst>
@@ -2053,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2109,7 +2110,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -2127,15 +2128,15 @@
         <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2147,13 +2148,13 @@
         <v>114</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2161,7 +2162,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2187,7 +2188,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2205,7 +2206,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2213,7 +2214,7 @@
         <v>167</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2239,7 +2240,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
@@ -2265,7 +2266,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -2291,7 +2292,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -2317,7 +2318,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -2343,7 +2344,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>36</v>
@@ -2369,7 +2370,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>36</v>
@@ -2395,7 +2396,7 @@
         <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>36</v>
@@ -2421,7 +2422,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>36</v>
@@ -2447,7 +2448,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>36</v>
@@ -2473,7 +2474,7 @@
         <v>155</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>158</v>
@@ -2494,7 +2495,7 @@
         <v>250</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
@@ -2506,7 +2507,7 @@
         <v>157</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>158</v>
@@ -2527,7 +2528,7 @@
         <v>250</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2539,7 +2540,7 @@
         <v>159</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>160</v>
@@ -2572,7 +2573,7 @@
         <v>179</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>160</v>
@@ -2605,7 +2606,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
@@ -2631,7 +2632,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>18</v>
@@ -2660,7 +2661,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>18</v>
@@ -2689,7 +2690,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>18</v>
@@ -2707,7 +2708,7 @@
         <v>25</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>26</v>
@@ -2715,13 +2716,13 @@
     </row>
     <row r="24" spans="1:13" ht="270" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -2733,24 +2734,24 @@
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -2762,24 +2763,24 @@
         <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -2791,24 +2792,24 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="285" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>14</v>
@@ -2820,13 +2821,13 @@
         <v>135</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="23" customFormat="1" ht="165" x14ac:dyDescent="0.25">
@@ -2834,7 +2835,7 @@
         <v>173</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>18</v>
@@ -2852,7 +2853,7 @@
         <v>174</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I28" s="22" t="s">
         <v>175</v>
@@ -2863,7 +2864,7 @@
         <v>96</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>18</v>
@@ -2881,7 +2882,7 @@
         <v>97</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>98</v>
@@ -2892,7 +2893,7 @@
         <v>115</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>18</v>
@@ -2910,7 +2911,7 @@
         <v>97</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>116</v>
@@ -2921,7 +2922,7 @@
         <v>117</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>18</v>
@@ -2939,7 +2940,7 @@
         <v>97</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>118</v>
@@ -2950,7 +2951,7 @@
         <v>119</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>18</v>
@@ -2968,7 +2969,7 @@
         <v>97</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>120</v>
@@ -2979,7 +2980,7 @@
         <v>121</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>18</v>
@@ -2997,7 +2998,7 @@
         <v>97</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>122</v>
@@ -3008,7 +3009,7 @@
         <v>123</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>18</v>
@@ -3026,7 +3027,7 @@
         <v>97</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>124</v>
@@ -3037,7 +3038,7 @@
         <v>125</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>18</v>
@@ -3055,7 +3056,7 @@
         <v>97</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>126</v>
@@ -3066,7 +3067,7 @@
         <v>47</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>48</v>
@@ -3084,7 +3085,7 @@
         <v>184</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>49</v>
@@ -3096,7 +3097,7 @@
         <v>206</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>48</v>
@@ -3114,7 +3115,7 @@
         <v>207</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>208</v>
@@ -3126,7 +3127,7 @@
         <v>50</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>48</v>
@@ -3144,7 +3145,7 @@
         <v>184</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>51</v>
@@ -3156,7 +3157,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>48</v>
@@ -3174,7 +3175,7 @@
         <v>184</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>53</v>
@@ -3186,7 +3187,7 @@
         <v>54</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>48</v>
@@ -3204,7 +3205,7 @@
         <v>184</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>55</v>
@@ -3216,7 +3217,7 @@
         <v>56</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>48</v>
@@ -3234,7 +3235,7 @@
         <v>184</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>57</v>
@@ -3246,7 +3247,7 @@
         <v>58</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>48</v>
@@ -3264,7 +3265,7 @@
         <v>184</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>59</v>
@@ -3276,7 +3277,7 @@
         <v>60</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>61</v>
@@ -3294,7 +3295,7 @@
         <v>62</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>169</v>
@@ -3307,7 +3308,7 @@
         <v>63</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>61</v>
@@ -3325,7 +3326,7 @@
         <v>62</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>64</v>
@@ -3338,7 +3339,7 @@
         <v>65</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>61</v>
@@ -3356,7 +3357,7 @@
         <v>62</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>66</v>
@@ -3369,7 +3370,7 @@
         <v>67</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>61</v>
@@ -3387,7 +3388,7 @@
         <v>62</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>68</v>
@@ -3400,7 +3401,7 @@
         <v>69</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>61</v>
@@ -3418,7 +3419,7 @@
         <v>62</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>70</v>
@@ -3431,7 +3432,7 @@
         <v>71</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>61</v>
@@ -3449,7 +3450,7 @@
         <v>72</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>73</v>
@@ -3462,7 +3463,7 @@
         <v>74</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>61</v>
@@ -3480,7 +3481,7 @@
         <v>72</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>75</v>
@@ -3493,7 +3494,7 @@
         <v>162</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>61</v>
@@ -3511,7 +3512,7 @@
         <v>62</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>163</v>
@@ -3524,7 +3525,7 @@
         <v>76</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>61</v>
@@ -3542,7 +3543,7 @@
         <v>72</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>77</v>
@@ -3555,7 +3556,7 @@
         <v>170</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>165</v>
@@ -3573,7 +3574,7 @@
         <v>171</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I52" s="11" t="s">
         <v>172</v>
@@ -3586,7 +3587,7 @@
         <v>176</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>165</v>
@@ -3604,7 +3605,7 @@
         <v>177</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>178</v>
@@ -3617,7 +3618,7 @@
         <v>99</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>100</v>
@@ -3635,7 +3636,7 @@
         <v>183</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>101</v>
@@ -3649,7 +3650,7 @@
         <v>102</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>100</v>
@@ -3667,7 +3668,7 @@
         <v>183</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>103</v>
@@ -3681,7 +3682,7 @@
         <v>104</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>100</v>
@@ -3699,7 +3700,7 @@
         <v>183</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>105</v>
@@ -3713,7 +3714,7 @@
         <v>106</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>100</v>
@@ -3731,7 +3732,7 @@
         <v>183</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>107</v>
@@ -3745,7 +3746,7 @@
         <v>108</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>100</v>
@@ -3763,7 +3764,7 @@
         <v>183</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>109</v>
@@ -3777,7 +3778,7 @@
         <v>110</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>100</v>
@@ -3795,7 +3796,7 @@
         <v>183</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>111</v>
@@ -3809,7 +3810,7 @@
         <v>112</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>100</v>
@@ -3827,7 +3828,7 @@
         <v>183</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>113</v>
@@ -3841,7 +3842,7 @@
         <v>197</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>91</v>
@@ -3859,7 +3860,7 @@
         <v>92</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>196</v>
@@ -3870,7 +3871,7 @@
         <v>137</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>91</v>
@@ -3888,7 +3889,7 @@
         <v>92</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>93</v>
@@ -3899,7 +3900,7 @@
         <v>94</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>91</v>
@@ -3917,7 +3918,7 @@
         <v>92</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>95</v>
@@ -3928,7 +3929,7 @@
         <v>78</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>79</v>
@@ -3946,7 +3947,7 @@
         <v>80</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>81</v>
@@ -3957,7 +3958,7 @@
         <v>209</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>79</v>
@@ -3975,7 +3976,7 @@
         <v>83</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>210</v>
@@ -3986,7 +3987,7 @@
         <v>82</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>79</v>
@@ -4004,7 +4005,7 @@
         <v>83</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>84</v>
@@ -4015,7 +4016,7 @@
         <v>85</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>79</v>
@@ -4033,7 +4034,7 @@
         <v>86</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>136</v>
@@ -4044,7 +4045,7 @@
         <v>87</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>79</v>
@@ -4062,7 +4063,7 @@
         <v>86</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>88</v>
@@ -4073,7 +4074,7 @@
         <v>89</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>79</v>
@@ -4091,7 +4092,7 @@
         <v>83</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>90</v>
@@ -4102,7 +4103,7 @@
         <v>132</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>138</v>
@@ -4120,7 +4121,7 @@
         <v>129</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>139</v>
@@ -4131,7 +4132,7 @@
         <v>211</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>79</v>
@@ -4149,7 +4150,7 @@
         <v>213</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>212</v>
@@ -4160,7 +4161,7 @@
         <v>130</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>138</v>
@@ -4178,7 +4179,7 @@
         <v>129</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>141</v>
@@ -4189,7 +4190,7 @@
         <v>131</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>138</v>
@@ -4207,7 +4208,7 @@
         <v>129</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>140</v>
@@ -4218,7 +4219,7 @@
         <v>142</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>148</v>
@@ -4236,7 +4237,7 @@
         <v>185</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I74" s="16" t="s">
         <v>143</v>
@@ -4247,7 +4248,7 @@
         <v>144</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>148</v>
@@ -4265,7 +4266,7 @@
         <v>185</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I75" s="8" t="s">
         <v>214</v>
@@ -4276,7 +4277,7 @@
         <v>145</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>148</v>
@@ -4294,7 +4295,7 @@
         <v>185</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I76" s="8" t="s">
         <v>146</v>
@@ -4305,7 +4306,7 @@
         <v>147</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>148</v>
@@ -4323,7 +4324,7 @@
         <v>149</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I77" s="8" t="s">
         <v>150</v>
@@ -4334,7 +4335,7 @@
         <v>151</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>148</v>
@@ -4352,7 +4353,7 @@
         <v>149</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I78" s="8" t="s">
         <v>152</v>
@@ -4363,7 +4364,7 @@
         <v>153</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>148</v>
@@ -4381,7 +4382,7 @@
         <v>149</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I79" s="8" t="s">
         <v>154</v>
@@ -4392,7 +4393,7 @@
         <v>153</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>148</v>
@@ -4410,7 +4411,7 @@
         <v>149</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I80" s="8" t="s">
         <v>154</v>
@@ -4421,7 +4422,7 @@
         <v>164</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>165</v>
@@ -4439,7 +4440,7 @@
         <v>198</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>166</v>
@@ -4452,7 +4453,7 @@
         <v>199</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>200</v>
@@ -4470,7 +4471,7 @@
         <v>198</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>201</v>
@@ -4482,7 +4483,7 @@
         <v>202</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>200</v>
@@ -4500,7 +4501,7 @@
         <v>198</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>203</v>
@@ -4512,7 +4513,7 @@
         <v>204</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>200</v>
@@ -4530,7 +4531,7 @@
         <v>198</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>203</v>
@@ -4544,7 +4545,7 @@
         <v>186</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>188</v>
@@ -4562,7 +4563,7 @@
         <v>187</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>189</v>
@@ -4575,7 +4576,7 @@
         <v>190</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>188</v>
@@ -4593,7 +4594,7 @@
         <v>191</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>192</v>
@@ -4606,7 +4607,7 @@
         <v>193</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>188</v>
@@ -4624,7 +4625,7 @@
         <v>194</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>195</v>
@@ -4637,7 +4638,7 @@
         <v>215</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>248</v>
@@ -4655,7 +4656,7 @@
         <v>149</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I88" s="8" t="s">
         <v>229</v>
@@ -4666,7 +4667,7 @@
         <v>216</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>248</v>
@@ -4684,7 +4685,7 @@
         <v>149</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I89" s="8" t="s">
         <v>230</v>
@@ -4695,7 +4696,7 @@
         <v>217</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>248</v>
@@ -4713,7 +4714,7 @@
         <v>149</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I90" s="8" t="s">
         <v>231</v>
@@ -4724,7 +4725,7 @@
         <v>218</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>248</v>
@@ -4742,7 +4743,7 @@
         <v>149</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I91" s="8" t="s">
         <v>232</v>
@@ -4753,7 +4754,7 @@
         <v>219</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>248</v>
@@ -4771,7 +4772,7 @@
         <v>149</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I92" s="8" t="s">
         <v>233</v>
@@ -4782,7 +4783,7 @@
         <v>220</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>248</v>
@@ -4800,7 +4801,7 @@
         <v>149</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I93" s="8" t="s">
         <v>234</v>
@@ -4811,7 +4812,7 @@
         <v>221</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>248</v>
@@ -4829,7 +4830,7 @@
         <v>149</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I94" s="8" t="s">
         <v>235</v>
@@ -4840,7 +4841,7 @@
         <v>222</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>248</v>
@@ -4858,7 +4859,7 @@
         <v>149</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I95" s="8" t="s">
         <v>236</v>
@@ -4869,7 +4870,7 @@
         <v>223</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>248</v>
@@ -4887,7 +4888,7 @@
         <v>149</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I96" s="8" t="s">
         <v>237</v>
@@ -4898,7 +4899,7 @@
         <v>224</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>248</v>
@@ -4916,7 +4917,7 @@
         <v>149</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I97" s="8" t="s">
         <v>238</v>
@@ -4927,7 +4928,7 @@
         <v>225</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>226</v>
@@ -4945,7 +4946,7 @@
         <v>249</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>239</v>
@@ -4956,7 +4957,7 @@
         <v>227</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>226</v>
@@ -4974,7 +4975,7 @@
         <v>249</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I99" s="8" t="s">
         <v>240</v>
@@ -4991,7 +4992,7 @@
         <v>228</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>226</v>
@@ -5032,13 +5033,13 @@
     </row>
     <row r="101" spans="1:14" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>255</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C101" t="s">
         <v>256</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C101" t="s">
-        <v>257</v>
       </c>
       <c r="D101" t="s">
         <v>11</v>
@@ -5050,24 +5051,24 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
+        <v>257</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="I101" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C102" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D102" t="s">
         <v>11</v>
@@ -5079,24 +5080,24 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C103" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D103" t="s">
         <v>11</v>
@@ -5108,24 +5109,24 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D104" s="24" t="s">
         <v>11</v>
@@ -5140,18 +5141,18 @@
         <v>249</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>226</v>
@@ -5169,24 +5170,24 @@
         <v>249</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J105" s="6" t="s">
         <v>241</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="300" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>226</v>
@@ -5226,7 +5227,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I103" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I106" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\En-Auto-new(11-11-2-2022)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebAutomation\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B92F31-9CBA-476C-879E-BBC91BFB51E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7F1FB6-4B34-48FF-A158-D12311769FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$107</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="289">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1489,9 +1489,6 @@
   </si>
   <si>
     <t>testData-admin.xlsx,AddCogentAccount</t>
-  </si>
-  <si>
-    <t>testdata-admin.xlsx,SignupPage</t>
   </si>
   <si>
     <t xml:space="preserve">coyni.admin.tests.UnderWritingTest,
@@ -1600,9 +1597,6 @@
 -ptoastMessage</t>
   </si>
   <si>
-    <t>Verify Merchant Under Writings Assigne Direct Approve</t>
-  </si>
-  <si>
     <t>Admin Login with invalid Authy</t>
   </si>
   <si>
@@ -1620,15 +1614,6 @@
 -pmessage</t>
   </si>
   <si>
-    <t>coyni.admin.tests.LoginTest,
-testLoginView,
--ploginHeading,
--ploginDescription,
--pemail,
--ppassword,
--pattribute</t>
-  </si>
-  <si>
     <t>coyni.admin.tests.HomeTest,
 testUserDetailsChangePasswordWithValid,
 -pcode,
@@ -1637,6 +1622,38 @@
 -pnewPassword,
 -pconfirmPassword,
 -pattribute</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testLoginView,
+-ploginHeading,
+-ploginDescription,
+-pemail,
+-ppassword,
+-pattribute,
+-pauthyHeading,
+-pauthyDescription,
+-pcode,
+-psecurityKey,
+-pcolour</t>
+  </si>
+  <si>
+    <t>verify New Verification CodeSend Upto 5Times</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testNewCodeUpto5Times,
+-pemail,
+-ppassword</t>
+  </si>
+  <si>
+    <t>testdata-admin.xlsx,SignupPageMerchant</t>
+  </si>
+  <si>
+    <t>Verify Underwriting Merchant Direct Approve</t>
   </si>
 </sst>
 </file>
@@ -1715,7 +1732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1763,9 +1780,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2052,10 +2066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2076,7 +2090,7 @@
     <col min="14" max="14" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2105,12 +2119,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -2131,12 +2145,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>281</v>
+    <row r="3" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>279</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2148,21 +2162,21 @@
         <v>114</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2174,7 +2188,7 @@
         <v>114</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -2183,12 +2197,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2209,12 +2223,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2235,15 +2249,15 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>285</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>14</v>
@@ -2255,18 +2269,18 @@
         <v>114</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="210.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -2284,15 +2298,15 @@
         <v>29</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="210" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="210.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -2304,21 +2318,21 @@
         <v>114</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -2330,47 +2344,47 @@
         <v>114</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="255" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="225" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>36</v>
@@ -2388,67 +2402,67 @@
         <v>37</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>36</v>
@@ -2466,84 +2480,77 @@
         <v>37</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="17" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    <row r="17" spans="1:13" s="17" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="B17" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="15" t="s">
+      <c r="E17" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G17" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H17" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="I17" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>14</v>
@@ -2552,16 +2559,16 @@
         <v>114</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>250</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>181</v>
+        <v>254</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2570,10 +2577,10 @@
     </row>
     <row r="19" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>160</v>
@@ -2588,54 +2595,61 @@
         <v>114</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>250</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
+    <row r="20" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>12</v>
+        <v>276</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="I20" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
@@ -2647,21 +2661,18 @@
         <v>114</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="22" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>18</v>
@@ -2676,21 +2687,21 @@
         <v>114</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>250</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>18</v>
@@ -2704,63 +2715,63 @@
       <c r="F23" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="270" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>251</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>269</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="270" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>272</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>267</v>
@@ -2769,27 +2780,27 @@
         <v>251</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>272</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>267</v>
@@ -2798,27 +2809,27 @@
         <v>251</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="285" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>272</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>135</v>
+        <v>11</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>267</v>
@@ -2827,73 +2838,73 @@
         <v>251</v>
       </c>
       <c r="I27" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="285" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="23" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+    <row r="29" spans="1:13" s="23" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C28" s="19" t="s">
+      <c r="B29" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" s="19" t="s">
+      <c r="D29" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H29" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="I28" s="22" t="s">
+      <c r="I29" s="22" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>18</v>
@@ -2913,22 +2924,22 @@
       <c r="H30" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I30" s="6" t="s">
-        <v>116</v>
+      <c r="I30" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>114</v>
@@ -2942,16 +2953,16 @@
       <c r="H31" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>118</v>
+      <c r="I31" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>18</v>
@@ -2972,15 +2983,15 @@
         <v>251</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>18</v>
@@ -3001,15 +3012,15 @@
         <v>251</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>18</v>
@@ -3030,15 +3041,15 @@
         <v>251</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>18</v>
@@ -3059,18 +3070,18 @@
         <v>251</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
@@ -3082,22 +3093,21 @@
         <v>114</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>251</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J36" s="1"/>
+        <v>126</v>
+      </c>
     </row>
     <row r="37" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>206</v>
+        <v>47</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>48</v>
@@ -3112,22 +3122,22 @@
         <v>114</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>251</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>48</v>
@@ -3142,22 +3152,22 @@
         <v>114</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>251</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>48</v>
@@ -3178,16 +3188,16 @@
         <v>251</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>48</v>
@@ -3208,16 +3218,16 @@
         <v>251</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>48</v>
@@ -3238,16 +3248,16 @@
         <v>251</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>48</v>
@@ -3268,19 +3278,19 @@
         <v>251</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>11</v>
@@ -3292,23 +3302,22 @@
         <v>114</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>251</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>61</v>
@@ -3329,17 +3338,17 @@
         <v>251</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>61</v>
@@ -3360,17 +3369,17 @@
         <v>251</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>61</v>
@@ -3391,17 +3400,17 @@
         <v>251</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>61</v>
@@ -3422,17 +3431,17 @@
         <v>251</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>61</v>
@@ -3447,23 +3456,23 @@
         <v>114</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>251</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>61</v>
@@ -3484,17 +3493,17 @@
         <v>251</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>61</v>
@@ -3509,23 +3518,23 @@
         <v>114</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>251</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>61</v>
@@ -3540,26 +3549,26 @@
         <v>114</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>251</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -3571,23 +3580,23 @@
         <v>114</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I52" s="11" t="s">
-        <v>172</v>
+      <c r="I52" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>165</v>
@@ -3602,26 +3611,26 @@
         <v>114</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>251</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>11</v>
@@ -3633,24 +3642,23 @@
         <v>114</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>101</v>
+        <v>251</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
     </row>
     <row r="55" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>100</v>
@@ -3671,7 +3679,7 @@
         <v>252</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -3679,10 +3687,10 @@
     </row>
     <row r="56" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>100</v>
@@ -3703,7 +3711,7 @@
         <v>252</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -3711,10 +3719,10 @@
     </row>
     <row r="57" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>100</v>
@@ -3735,7 +3743,7 @@
         <v>252</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -3743,10 +3751,10 @@
     </row>
     <row r="58" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>100</v>
@@ -3767,7 +3775,7 @@
         <v>252</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -3775,10 +3783,10 @@
     </row>
     <row r="59" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>100</v>
@@ -3799,7 +3807,7 @@
         <v>252</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -3807,10 +3815,10 @@
     </row>
     <row r="60" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>100</v>
@@ -3831,21 +3839,21 @@
         <v>252</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>197</v>
+    <row r="61" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
@@ -3857,21 +3865,24 @@
         <v>114</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>252</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>196</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
     </row>
     <row r="62" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>91</v>
@@ -3892,27 +3903,27 @@
         <v>252</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>94</v>
+      <c r="A63" t="s">
+        <v>137</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>114</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>92</v>
@@ -3921,49 +3932,49 @@
         <v>252</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>114</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>252</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>209</v>
+      <c r="A65" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C65" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="5" t="s">
@@ -3972,27 +3983,27 @@
       <c r="F65" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G65" s="7" t="s">
-        <v>83</v>
+      <c r="G65" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>252</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>210</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>82</v>
+      <c r="A66" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C66" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="5" t="s">
@@ -4001,22 +4012,22 @@
       <c r="F66" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" s="7" t="s">
         <v>83</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>252</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>84</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>79</v>
@@ -4031,21 +4042,21 @@
         <v>114</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>252</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>79</v>
@@ -4066,15 +4077,15 @@
         <v>252</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>79</v>
@@ -4089,24 +4100,24 @@
         <v>114</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>252</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -4118,24 +4129,24 @@
         <v>114</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>252</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>211</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>79</v>
+        <v>276</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
@@ -4147,24 +4158,24 @@
         <v>114</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>252</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>138</v>
+        <v>276</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>11</v>
@@ -4176,21 +4187,21 @@
         <v>114</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>252</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>138</v>
@@ -4211,73 +4222,73 @@
         <v>252</v>
       </c>
       <c r="I73" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I74" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="17" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
+    <row r="75" spans="1:9" s="17" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C74" s="12" t="s">
+      <c r="B75" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C75" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D74" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G74" s="12" t="s">
+      <c r="D75" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G75" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="H74" s="16" t="s">
+      <c r="H75" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="I74" s="16" t="s">
+      <c r="I75" s="16" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>148</v>
@@ -4298,15 +4309,15 @@
         <v>252</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>148</v>
@@ -4321,21 +4332,21 @@
         <v>114</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>252</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>148</v>
@@ -4356,15 +4367,15 @@
         <v>252</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>148</v>
@@ -4385,7 +4396,7 @@
         <v>252</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -4393,7 +4404,7 @@
         <v>153</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>148</v>
@@ -4417,15 +4428,15 @@
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>11</v>
@@ -4437,26 +4448,24 @@
         <v>114</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="I81" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="I81" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>11</v>
@@ -4474,16 +4483,17 @@
         <v>252</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J82" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
     </row>
     <row r="83" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>200</v>
@@ -4504,16 +4514,16 @@
         <v>252</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>200</v>
@@ -4531,24 +4541,22 @@
         <v>198</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="J84" s="6" t="s">
-        <v>205</v>
-      </c>
+      <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>11</v>
@@ -4560,23 +4568,24 @@
         <v>114</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>251</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
+        <v>203</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="86" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>188</v>
@@ -4591,23 +4600,23 @@
         <v>114</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>251</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
     <row r="87" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>188</v>
@@ -4622,26 +4631,26 @@
         <v>114</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>251</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
     <row r="88" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
-        <v>215</v>
+      <c r="A88" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>248</v>
+        <v>188</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>11</v>
@@ -4653,21 +4662,23 @@
         <v>114</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I88" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="I88" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
     </row>
     <row r="89" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>248</v>
@@ -4688,15 +4699,15 @@
         <v>251</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>248</v>
@@ -4717,15 +4728,15 @@
         <v>251</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>248</v>
@@ -4746,15 +4757,15 @@
         <v>251</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>219</v>
+      <c r="A92" s="19" t="s">
+        <v>218</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>248</v>
@@ -4775,15 +4786,15 @@
         <v>251</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>248</v>
@@ -4804,15 +4815,15 @@
         <v>251</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>248</v>
@@ -4833,15 +4844,15 @@
         <v>251</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>248</v>
@@ -4862,15 +4873,15 @@
         <v>251</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>248</v>
@@ -4891,15 +4902,15 @@
         <v>251</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>248</v>
@@ -4920,18 +4931,18 @@
         <v>251</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="300" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>11</v>
@@ -4943,21 +4954,21 @@
         <v>114</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I98" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+      <c r="I98" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="300" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>226</v>
@@ -4977,22 +4988,16 @@
       <c r="H99" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I99" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="J99" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="K99" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="300" x14ac:dyDescent="0.25">
+      <c r="I99" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>226</v>
@@ -5010,62 +5015,68 @@
         <v>249</v>
       </c>
       <c r="H100" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="300" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H101" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I100" s="8" t="s">
+      <c r="I101" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="J100" s="6" t="s">
+      <c r="J101" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="K100" s="6" t="s">
+      <c r="K101" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="L100" s="6" t="s">
+      <c r="L101" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="M100" s="6" t="s">
+      <c r="M101" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="N100" s="6" t="s">
+      <c r="N101" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="102" spans="1:14" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>255</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C101" t="s">
-        <v>256</v>
-      </c>
-      <c r="D101" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="G101" t="s">
-        <v>257</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>259</v>
-      </c>
       <c r="B102" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C102" t="s">
         <v>256</v>
@@ -5073,11 +5084,11 @@
       <c r="D102" t="s">
         <v>11</v>
       </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-      <c r="F102">
-        <v>1</v>
+      <c r="E102" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="G102" t="s">
         <v>257</v>
@@ -5086,15 +5097,15 @@
         <v>251</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C103" t="s">
         <v>256</v>
@@ -5102,11 +5113,11 @@
       <c r="D103" t="s">
         <v>11</v>
       </c>
-      <c r="E103">
-        <v>1</v>
-      </c>
-      <c r="F103">
-        <v>1</v>
+      <c r="E103" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="G103" t="s">
         <v>257</v>
@@ -5115,49 +5126,49 @@
         <v>251</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="26" t="s">
-        <v>278</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>261</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D104" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="F104" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>249</v>
+        <v>276</v>
+      </c>
+      <c r="C104" t="s">
+        <v>256</v>
+      </c>
+      <c r="D104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G104" t="s">
+        <v>257</v>
       </c>
       <c r="H104" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="I104" s="8" t="s">
+      <c r="I104" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="25" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B105" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="24" t="s">
         <v>11</v>
       </c>
       <c r="E105" s="5" t="s">
@@ -5169,28 +5180,28 @@
       <c r="G105" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="H105" s="6" t="s">
         <v>251</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J105" s="6" t="s">
         <v>241</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="300" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>226</v>
+        <v>287</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>11</v>
@@ -5205,29 +5216,54 @@
         <v>249</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="J106" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="K106" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+    </row>
+    <row r="107" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J107" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="L106" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="M106" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="N106" s="6" t="s">
-        <v>247</v>
-      </c>
+      <c r="K107" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I106" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I107" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebAutomation\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7F1FB6-4B34-48FF-A158-D12311769FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0822881A-EC6D-4C93-A33B-973A0D0D6E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$108</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="291">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1654,6 +1654,17 @@
   </si>
   <si>
     <t>Verify Underwriting Merchant Direct Approve</t>
+  </si>
+  <si>
+    <t>hand symbol with clickable mode and highlighted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.admin.tests.LoginTest,
+handSymbolHighlighted,
+-pexpValue,
+-pcssProp,
+-pexpColor
+</t>
   </si>
 </sst>
 </file>
@@ -2066,10 +2077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,7 +2265,7 @@
         <v>285</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -2509,81 +2520,77 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="17" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="17" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="B18" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="15" t="s">
+      <c r="E18" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G18" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H18" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I18" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>14</v>
@@ -2592,16 +2599,16 @@
         <v>114</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>250</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>181</v>
+        <v>254</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2610,7 +2617,7 @@
     </row>
     <row r="20" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>276</v>
@@ -2628,54 +2635,61 @@
         <v>114</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>250</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
+    <row r="21" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>12</v>
+      <c r="C21" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="I21" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -2687,18 +2701,15 @@
         <v>114</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="23" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>276</v>
@@ -2716,18 +2727,18 @@
         <v>114</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>250</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>276</v>
@@ -2744,48 +2755,48 @@
       <c r="F24" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="270" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>251</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>269</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="270" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>276</v>
@@ -2794,13 +2805,13 @@
         <v>272</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>267</v>
@@ -2809,12 +2820,12 @@
         <v>251</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>276</v>
@@ -2823,13 +2834,13 @@
         <v>272</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>267</v>
@@ -2838,12 +2849,12 @@
         <v>251</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="285" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>276</v>
@@ -2852,13 +2863,13 @@
         <v>272</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>135</v>
+        <v>11</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>267</v>
@@ -2867,70 +2878,70 @@
         <v>251</v>
       </c>
       <c r="I28" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="300" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="23" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+    <row r="30" spans="1:13" s="23" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C29" s="19" t="s">
+      <c r="B30" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="19" t="s">
+      <c r="D30" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H30" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I30" s="22" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>276</v>
@@ -2953,13 +2964,13 @@
       <c r="H31" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>116</v>
+      <c r="I31" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>276</v>
@@ -2968,7 +2979,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>114</v>
@@ -2982,13 +2993,13 @@
       <c r="H32" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>118</v>
+      <c r="I32" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>276</v>
@@ -3012,12 +3023,12 @@
         <v>251</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>276</v>
@@ -3041,12 +3052,12 @@
         <v>251</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>276</v>
@@ -3070,12 +3081,12 @@
         <v>251</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>276</v>
@@ -3099,18 +3110,18 @@
         <v>251</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -3122,19 +3133,18 @@
         <v>114</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>251</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J37" s="1"/>
+        <v>126</v>
+      </c>
     </row>
     <row r="38" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>206</v>
+        <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>276</v>
@@ -3152,19 +3162,19 @@
         <v>114</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>251</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>276</v>
@@ -3182,19 +3192,19 @@
         <v>114</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>251</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>276</v>
@@ -3218,13 +3228,13 @@
         <v>251</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>276</v>
@@ -3248,13 +3258,13 @@
         <v>251</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>276</v>
@@ -3278,13 +3288,13 @@
         <v>251</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>276</v>
@@ -3308,19 +3318,19 @@
         <v>251</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>11</v>
@@ -3332,20 +3342,19 @@
         <v>114</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>251</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>276</v>
@@ -3369,14 +3378,14 @@
         <v>251</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>276</v>
@@ -3400,14 +3409,14 @@
         <v>251</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>276</v>
@@ -3431,14 +3440,14 @@
         <v>251</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>276</v>
@@ -3462,14 +3471,14 @@
         <v>251</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>276</v>
@@ -3487,20 +3496,20 @@
         <v>114</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>251</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>276</v>
@@ -3524,14 +3533,14 @@
         <v>251</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>276</v>
@@ -3549,20 +3558,20 @@
         <v>114</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>251</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>276</v>
@@ -3580,26 +3589,26 @@
         <v>114</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>251</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -3611,20 +3620,20 @@
         <v>114</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I53" s="11" t="s">
-        <v>172</v>
+      <c r="I53" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>276</v>
@@ -3642,26 +3651,26 @@
         <v>114</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>251</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
@@ -3673,21 +3682,20 @@
         <v>114</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>101</v>
+        <v>251</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
     </row>
     <row r="56" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>276</v>
@@ -3711,7 +3719,7 @@
         <v>252</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -3719,7 +3727,7 @@
     </row>
     <row r="57" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>276</v>
@@ -3743,7 +3751,7 @@
         <v>252</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -3751,7 +3759,7 @@
     </row>
     <row r="58" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>276</v>
@@ -3775,7 +3783,7 @@
         <v>252</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -3783,7 +3791,7 @@
     </row>
     <row r="59" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>276</v>
@@ -3807,7 +3815,7 @@
         <v>252</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -3815,7 +3823,7 @@
     </row>
     <row r="60" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>276</v>
@@ -3839,7 +3847,7 @@
         <v>252</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -3847,7 +3855,7 @@
     </row>
     <row r="61" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>276</v>
@@ -3871,21 +3879,21 @@
         <v>252</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>197</v>
+    <row r="62" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>11</v>
@@ -3897,18 +3905,21 @@
         <v>114</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>252</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>196</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
     </row>
     <row r="63" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>276</v>
@@ -3932,12 +3943,12 @@
         <v>252</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>94</v>
+      <c r="A64" t="s">
+        <v>137</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>276</v>
@@ -3946,13 +3957,13 @@
         <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>114</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>92</v>
@@ -3961,49 +3972,49 @@
         <v>252</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>114</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>252</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>209</v>
+      <c r="A66" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="5" t="s">
@@ -4012,27 +4023,27 @@
       <c r="F66" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G66" s="7" t="s">
-        <v>83</v>
+      <c r="G66" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>252</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>210</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>82</v>
+      <c r="A67" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="5" t="s">
@@ -4041,19 +4052,19 @@
       <c r="F67" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" s="7" t="s">
         <v>83</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>252</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>84</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>276</v>
@@ -4071,18 +4082,18 @@
         <v>114</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>252</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>276</v>
@@ -4106,12 +4117,12 @@
         <v>252</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>276</v>
@@ -4129,24 +4140,24 @@
         <v>114</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>252</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
@@ -4158,24 +4169,24 @@
         <v>114</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>252</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>211</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>79</v>
+      <c r="C72" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>11</v>
@@ -4187,24 +4198,24 @@
         <v>114</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>252</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>138</v>
+      <c r="C73" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>11</v>
@@ -4216,18 +4227,18 @@
         <v>114</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>252</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>276</v>
@@ -4251,70 +4262,70 @@
         <v>252</v>
       </c>
       <c r="I74" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I75" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="17" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
+    <row r="76" spans="1:9" s="17" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C75" s="12" t="s">
+      <c r="B76" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C76" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D75" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G75" s="12" t="s">
+      <c r="D76" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G76" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="H75" s="16" t="s">
+      <c r="H76" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="I75" s="16" t="s">
+      <c r="I76" s="16" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I76" s="8" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>276</v>
@@ -4338,12 +4349,12 @@
         <v>252</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>276</v>
@@ -4361,18 +4372,18 @@
         <v>114</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>252</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>276</v>
@@ -4396,12 +4407,12 @@
         <v>252</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>276</v>
@@ -4425,7 +4436,7 @@
         <v>252</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="150" x14ac:dyDescent="0.25">
@@ -4457,15 +4468,15 @@
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>11</v>
@@ -4477,26 +4488,24 @@
         <v>114</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="I82" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="I82" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>11</v>
@@ -4514,13 +4523,14 @@
         <v>252</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J83" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
     </row>
     <row r="84" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>276</v>
@@ -4544,13 +4554,13 @@
         <v>252</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>276</v>
@@ -4571,24 +4581,22 @@
         <v>198</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="J85" s="6" t="s">
-        <v>205</v>
-      </c>
+      <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
@@ -4600,20 +4608,21 @@
         <v>114</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>251</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
+        <v>203</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="87" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>276</v>
@@ -4631,20 +4640,20 @@
         <v>114</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>251</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
     <row r="88" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>276</v>
@@ -4662,26 +4671,26 @@
         <v>114</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>251</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
     <row r="89" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
-        <v>215</v>
+      <c r="A89" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>248</v>
+        <v>188</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>11</v>
@@ -4693,18 +4702,20 @@
         <v>114</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I89" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="I89" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
     </row>
     <row r="90" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>276</v>
@@ -4728,12 +4739,12 @@
         <v>251</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>276</v>
@@ -4757,12 +4768,12 @@
         <v>251</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>276</v>
@@ -4786,12 +4797,12 @@
         <v>251</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>219</v>
+      <c r="A93" s="19" t="s">
+        <v>218</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>276</v>
@@ -4815,12 +4826,12 @@
         <v>251</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>276</v>
@@ -4844,12 +4855,12 @@
         <v>251</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>276</v>
@@ -4873,12 +4884,12 @@
         <v>251</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>276</v>
@@ -4902,12 +4913,12 @@
         <v>251</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>276</v>
@@ -4931,12 +4942,12 @@
         <v>251</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>276</v>
@@ -4960,18 +4971,18 @@
         <v>251</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="300" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
@@ -4983,18 +4994,18 @@
         <v>114</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I99" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+      <c r="I99" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="300" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>276</v>
@@ -5017,19 +5028,13 @@
       <c r="H100" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I100" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="J100" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="K100" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" ht="300" x14ac:dyDescent="0.25">
+      <c r="I100" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>276</v>
@@ -5050,59 +5055,65 @@
         <v>249</v>
       </c>
       <c r="H101" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="300" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H102" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I101" s="8" t="s">
+      <c r="I102" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="J101" s="6" t="s">
+      <c r="J102" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="K101" s="6" t="s">
+      <c r="K102" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="L101" s="6" t="s">
+      <c r="L102" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="M101" s="6" t="s">
+      <c r="M102" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="N101" s="6" t="s">
+      <c r="N102" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="103" spans="1:14" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>255</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C102" t="s">
-        <v>256</v>
-      </c>
-      <c r="D102" t="s">
-        <v>11</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G102" t="s">
-        <v>257</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>259</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>276</v>
@@ -5126,12 +5137,12 @@
         <v>251</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>276</v>
@@ -5155,20 +5166,20 @@
         <v>251</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="25" t="s">
-        <v>274</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>261</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D105" s="24" t="s">
+      <c r="C105" t="s">
+        <v>256</v>
+      </c>
+      <c r="D105" t="s">
         <v>11</v>
       </c>
       <c r="E105" s="5" t="s">
@@ -5177,33 +5188,27 @@
       <c r="F105" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>249</v>
+      <c r="G105" t="s">
+        <v>257</v>
       </c>
       <c r="H105" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="I105" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="J105" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="K105" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>277</v>
+      <c r="I105" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="25" t="s">
+        <v>274</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D106" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D106" s="24" t="s">
         <v>11</v>
       </c>
       <c r="E106" s="5" t="s">
@@ -5215,24 +5220,28 @@
       <c r="G106" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H106" s="2" t="s">
+      <c r="H106" s="6" t="s">
         <v>251</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-    </row>
-    <row r="107" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>226</v>
+        <v>287</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
@@ -5250,20 +5259,51 @@
         <v>251</v>
       </c>
       <c r="I107" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+    </row>
+    <row r="108" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I108" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="J107" s="6" t="s">
+      <c r="J108" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="K107" s="6" t="s">
+      <c r="K108" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="L107" s="6"/>
-      <c r="M107" s="6"/>
-      <c r="N107" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I107" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I108" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Admin(17-11-2022)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0822881A-EC6D-4C93-A33B-973A0D0D6E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99A6D2E-5D11-41ED-A0DC-862D0F162F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -688,23 +688,6 @@
 testCommissionExportSelectedPayOutMonthToDate,
 -pheading,
 -pexportHeading</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.LoginTest,
-testForgotPassword,
--ploginHeading,
--ploginDescription,
--pforgotHeading,
--pforgotDescription,
--pemail,
--pemailHeading,
--pcode,
--pcreatePasswordHeading,
--pcreatePasswordDescription,
--pcreatePassword,
--pconfirmPassword,
--psuccessHeading,
--psuccessDescription</t>
   </si>
   <si>
     <t>coyni.admin.tests.LoginTest,
@@ -1624,9 +1607,6 @@
 -pattribute</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>coyni.admin.tests.LoginTest,
 testLoginView,
 -ploginHeading,
@@ -1665,6 +1645,27 @@
 -pcssProp,
 -pexpColor
 </t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testForgotPassword,
+-ploginHeading,
+-ploginDescription,
+-pforgotHeading,
+-pforgotDescription,
+-pemail,
+-pemailHeading,
+-pcode,
+-pcreatePasswordHeading,
+-pcreatePasswordDescription,
+-pcreatePassword,
+-pconfirmPassword,
+-psuccessHeading,
+-psuccessDescription,
+-pattribute</t>
   </si>
 </sst>
 </file>
@@ -2079,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2135,7 +2136,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -2153,15 +2154,15 @@
         <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2173,13 +2174,13 @@
         <v>114</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2187,7 +2188,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2199,7 +2200,7 @@
         <v>114</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -2213,7 +2214,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2231,15 +2232,15 @@
         <v>12</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2251,21 +2252,21 @@
         <v>114</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -2283,15 +2284,15 @@
         <v>12</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -2309,7 +2310,7 @@
         <v>29</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>127</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="210.75" x14ac:dyDescent="0.3">
@@ -2317,7 +2318,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -2335,7 +2336,7 @@
         <v>29</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="210" x14ac:dyDescent="0.25">
@@ -2343,7 +2344,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -2355,7 +2356,7 @@
         <v>114</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>29</v>
@@ -2369,7 +2370,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
@@ -2395,7 +2396,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>36</v>
@@ -2421,7 +2422,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>36</v>
@@ -2447,7 +2448,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>36</v>
@@ -2473,7 +2474,7 @@
         <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>36</v>
@@ -2499,7 +2500,7 @@
         <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>36</v>
@@ -2522,10 +2523,10 @@
     </row>
     <row r="17" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
@@ -2543,21 +2544,21 @@
         <v>12</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="17" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>14</v>
@@ -2566,16 +2567,16 @@
         <v>114</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
@@ -2584,13 +2585,13 @@
     </row>
     <row r="19" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>157</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>158</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>14</v>
@@ -2599,16 +2600,16 @@
         <v>114</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2617,13 +2618,13 @@
     </row>
     <row r="20" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>14</v>
@@ -2635,13 +2636,13 @@
         <v>114</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2650,13 +2651,13 @@
     </row>
     <row r="21" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>14</v>
@@ -2668,13 +2669,13 @@
         <v>114</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2686,7 +2687,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
@@ -2704,7 +2705,7 @@
         <v>12</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="135" x14ac:dyDescent="0.25">
@@ -2712,7 +2713,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>18</v>
@@ -2730,7 +2731,7 @@
         <v>19</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>20</v>
@@ -2741,7 +2742,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>18</v>
@@ -2759,7 +2760,7 @@
         <v>22</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>23</v>
@@ -2770,7 +2771,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>18</v>
@@ -2788,7 +2789,7 @@
         <v>25</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>26</v>
@@ -2796,13 +2797,13 @@
     </row>
     <row r="26" spans="1:13" ht="270" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -2814,24 +2815,24 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>14</v>
@@ -2843,24 +2844,24 @@
         <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -2872,50 +2873,50 @@
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="300" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="285" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="23" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>18</v>
@@ -2930,13 +2931,13 @@
         <v>114</v>
       </c>
       <c r="G30" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="I30" s="22" t="s">
         <v>174</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="165" x14ac:dyDescent="0.25">
@@ -2944,7 +2945,7 @@
         <v>96</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>18</v>
@@ -2962,7 +2963,7 @@
         <v>97</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>98</v>
@@ -2973,7 +2974,7 @@
         <v>115</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>18</v>
@@ -2991,7 +2992,7 @@
         <v>97</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>116</v>
@@ -3002,7 +3003,7 @@
         <v>117</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>18</v>
@@ -3020,7 +3021,7 @@
         <v>97</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>118</v>
@@ -3031,7 +3032,7 @@
         <v>119</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>18</v>
@@ -3049,7 +3050,7 @@
         <v>97</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>120</v>
@@ -3060,7 +3061,7 @@
         <v>121</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>18</v>
@@ -3078,7 +3079,7 @@
         <v>97</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>122</v>
@@ -3089,7 +3090,7 @@
         <v>123</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>18</v>
@@ -3107,7 +3108,7 @@
         <v>97</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>124</v>
@@ -3118,7 +3119,7 @@
         <v>125</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>18</v>
@@ -3136,7 +3137,7 @@
         <v>97</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>126</v>
@@ -3147,7 +3148,7 @@
         <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>48</v>
@@ -3162,10 +3163,10 @@
         <v>114</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>49</v>
@@ -3174,10 +3175,10 @@
     </row>
     <row r="39" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>48</v>
@@ -3192,13 +3193,13 @@
         <v>114</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="J39" s="1"/>
     </row>
@@ -3207,7 +3208,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>48</v>
@@ -3222,10 +3223,10 @@
         <v>114</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>51</v>
@@ -3237,7 +3238,7 @@
         <v>52</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>48</v>
@@ -3252,10 +3253,10 @@
         <v>114</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>53</v>
@@ -3267,7 +3268,7 @@
         <v>54</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>48</v>
@@ -3282,10 +3283,10 @@
         <v>114</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>55</v>
@@ -3297,7 +3298,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>48</v>
@@ -3312,10 +3313,10 @@
         <v>114</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>57</v>
@@ -3327,7 +3328,7 @@
         <v>58</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>48</v>
@@ -3342,10 +3343,10 @@
         <v>114</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>59</v>
@@ -3357,7 +3358,7 @@
         <v>60</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>61</v>
@@ -3375,10 +3376,10 @@
         <v>62</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3388,7 +3389,7 @@
         <v>63</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>61</v>
@@ -3406,7 +3407,7 @@
         <v>62</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>64</v>
@@ -3419,7 +3420,7 @@
         <v>65</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>61</v>
@@ -3437,7 +3438,7 @@
         <v>62</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>66</v>
@@ -3450,7 +3451,7 @@
         <v>67</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>61</v>
@@ -3468,7 +3469,7 @@
         <v>62</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>68</v>
@@ -3481,7 +3482,7 @@
         <v>69</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>61</v>
@@ -3499,7 +3500,7 @@
         <v>62</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>70</v>
@@ -3512,7 +3513,7 @@
         <v>71</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>61</v>
@@ -3530,7 +3531,7 @@
         <v>72</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>73</v>
@@ -3543,7 +3544,7 @@
         <v>74</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>61</v>
@@ -3561,7 +3562,7 @@
         <v>72</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>75</v>
@@ -3571,10 +3572,10 @@
     </row>
     <row r="52" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>61</v>
@@ -3592,10 +3593,10 @@
         <v>62</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -3605,7 +3606,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>61</v>
@@ -3623,7 +3624,7 @@
         <v>72</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>77</v>
@@ -3633,62 +3634,62 @@
     </row>
     <row r="54" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I54" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>172</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I55" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>178</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -3698,7 +3699,7 @@
         <v>99</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>100</v>
@@ -3713,10 +3714,10 @@
         <v>114</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>101</v>
@@ -3730,7 +3731,7 @@
         <v>102</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>100</v>
@@ -3745,10 +3746,10 @@
         <v>114</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>103</v>
@@ -3762,7 +3763,7 @@
         <v>104</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>100</v>
@@ -3777,10 +3778,10 @@
         <v>114</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>105</v>
@@ -3794,7 +3795,7 @@
         <v>106</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>100</v>
@@ -3809,10 +3810,10 @@
         <v>114</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>107</v>
@@ -3826,7 +3827,7 @@
         <v>108</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>100</v>
@@ -3841,10 +3842,10 @@
         <v>114</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>109</v>
@@ -3858,7 +3859,7 @@
         <v>110</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>100</v>
@@ -3873,10 +3874,10 @@
         <v>114</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>111</v>
@@ -3890,7 +3891,7 @@
         <v>112</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>100</v>
@@ -3905,10 +3906,10 @@
         <v>114</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>113</v>
@@ -3919,10 +3920,10 @@
     </row>
     <row r="63" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>91</v>
@@ -3940,18 +3941,18 @@
         <v>92</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>91</v>
@@ -3969,7 +3970,7 @@
         <v>92</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>93</v>
@@ -3980,7 +3981,7 @@
         <v>94</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>91</v>
@@ -3992,13 +3993,13 @@
         <v>114</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>95</v>
@@ -4009,7 +4010,7 @@
         <v>78</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>79</v>
@@ -4027,7 +4028,7 @@
         <v>80</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>81</v>
@@ -4035,10 +4036,10 @@
     </row>
     <row r="67" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>79</v>
@@ -4056,10 +4057,10 @@
         <v>83</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -4067,7 +4068,7 @@
         <v>82</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>79</v>
@@ -4085,7 +4086,7 @@
         <v>83</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>84</v>
@@ -4096,7 +4097,7 @@
         <v>85</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>79</v>
@@ -4114,10 +4115,10 @@
         <v>86</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -4125,7 +4126,7 @@
         <v>87</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>79</v>
@@ -4143,7 +4144,7 @@
         <v>86</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>88</v>
@@ -4154,7 +4155,7 @@
         <v>89</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>79</v>
@@ -4172,7 +4173,7 @@
         <v>83</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>90</v>
@@ -4180,39 +4181,39 @@
     </row>
     <row r="72" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I72" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>79</v>
@@ -4227,24 +4228,24 @@
         <v>114</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -4256,24 +4257,24 @@
         <v>114</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>11</v>
@@ -4285,53 +4286,53 @@
         <v>114</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="17" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="I76" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G76" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="H76" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="I76" s="16" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
@@ -4343,385 +4344,385 @@
         <v>114</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I78" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I78" s="8" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G79" s="1" t="s">
+      <c r="H79" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I79" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I80" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I81" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I81" s="8" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I82" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I82" s="8" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I83" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
     <row r="84" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I84" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I85" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J86" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J86" s="6" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="H87" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I87" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
     <row r="88" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G88" s="1" t="s">
+      <c r="H88" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I88" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
     <row r="89" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G89" s="1" t="s">
+      <c r="H89" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I89" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
     <row r="90" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>11</v>
@@ -4733,24 +4734,24 @@
         <v>114</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -4762,24 +4763,24 @@
         <v>114</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>11</v>
@@ -4791,24 +4792,24 @@
         <v>114</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>11</v>
@@ -4820,24 +4821,24 @@
         <v>114</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>11</v>
@@ -4849,24 +4850,24 @@
         <v>114</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>11</v>
@@ -4878,24 +4879,24 @@
         <v>114</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
@@ -4907,24 +4908,24 @@
         <v>114</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
@@ -4936,24 +4937,24 @@
         <v>114</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>11</v>
@@ -4965,24 +4966,24 @@
         <v>114</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
@@ -4994,25 +4995,25 @@
         <v>114</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="300" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="D100" s="1" t="s">
         <v>11</v>
       </c>
@@ -5023,24 +5024,24 @@
         <v>114</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>11</v>
@@ -5052,30 +5053,30 @@
         <v>114</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I101" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="J101" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="J101" s="6" t="s">
+      <c r="K101" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="K101" s="6" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="300" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
@@ -5087,161 +5088,161 @@
         <v>114</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I102" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="J102" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="J102" s="6" t="s">
+      <c r="K102" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="L102" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="K102" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="L102" s="6" t="s">
+      <c r="M102" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="M102" s="6" t="s">
+      <c r="N102" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="N102" s="6" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>254</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C103" t="s">
         <v>255</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G103" t="s">
         <v>256</v>
       </c>
-      <c r="D103" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="H103" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="I103" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>258</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C104" t="s">
+        <v>255</v>
+      </c>
+      <c r="D104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G104" t="s">
+        <v>256</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="I104" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C104" t="s">
-        <v>256</v>
-      </c>
-      <c r="D104" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G104" t="s">
-        <v>257</v>
-      </c>
-      <c r="H104" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>260</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C105" t="s">
+        <v>255</v>
+      </c>
+      <c r="D105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G105" t="s">
+        <v>256</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="I105" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C105" t="s">
-        <v>256</v>
-      </c>
-      <c r="D105" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G105" t="s">
-        <v>257</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="I106" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D106" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="H106" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="I106" s="8" t="s">
-        <v>275</v>
-      </c>
       <c r="J106" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
@@ -5253,26 +5254,26 @@
         <v>114</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
     </row>
     <row r="108" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>11</v>
@@ -5284,19 +5285,19 @@
         <v>114</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Admin(17-11-2022)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99A6D2E-5D11-41ED-A0DC-862D0F162F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B06FD1A-54FF-4029-88DE-766764DF40A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,13 +105,6 @@
   </si>
   <si>
     <t>Coyni Portal</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.CoyniPortalTest,
-testCoyniPortal,
--pcssProp,
--pexpValue,
--pexpColor</t>
   </si>
   <si>
     <t>verify TopBar</t>
@@ -1647,9 +1640,6 @@
 </t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>coyni.admin.tests.LoginTest,
 testForgotPassword,
 -ploginHeading,
@@ -1666,6 +1656,17 @@
 -psuccessHeading,
 -psuccessDescription,
 -pattribute</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.CoyniPortalTest,
+testCoyniPortal,
+-pcssProp,
+-pexpValue,
+-pexpColor,
+-pheadings</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -2080,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2136,7 +2137,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -2145,24 +2146,24 @@
         <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2171,16 +2172,16 @@
         <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2188,7 +2189,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2197,10 +2198,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -2214,7 +2215,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2223,24 +2224,24 @@
         <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2249,24 +2250,24 @@
         <v>14</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -2275,183 +2276,183 @@
         <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="210.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>14</v>
@@ -2463,21 +2464,21 @@
         <v>3</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -2489,21 +2490,21 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -2515,18 +2516,18 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
@@ -2535,48 +2536,48 @@
         <v>11</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="17" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
@@ -2585,31 +2586,31 @@
     </row>
     <row r="19" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2618,31 +2619,31 @@
     </row>
     <row r="20" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>159</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2651,31 +2652,31 @@
     </row>
     <row r="21" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2687,7 +2688,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
@@ -2696,16 +2697,16 @@
         <v>11</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="135" x14ac:dyDescent="0.25">
@@ -2713,7 +2714,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>18</v>
@@ -2722,27 +2723,27 @@
         <v>11</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>20</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>18</v>
@@ -2751,27 +2752,27 @@
         <v>11</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>18</v>
@@ -2780,30 +2781,30 @@
         <v>11</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="270" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -2815,24 +2816,24 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>14</v>
@@ -2844,24 +2845,24 @@
         <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -2873,50 +2874,50 @@
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="285" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="23" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>18</v>
@@ -2925,27 +2926,27 @@
         <v>11</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G30" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="I30" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>18</v>
@@ -2954,27 +2955,27 @@
         <v>14</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>18</v>
@@ -2983,27 +2984,27 @@
         <v>14</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>18</v>
@@ -3012,27 +3013,27 @@
         <v>11</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>18</v>
@@ -3041,27 +3042,27 @@
         <v>11</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>18</v>
@@ -3070,27 +3071,27 @@
         <v>11</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>18</v>
@@ -3099,27 +3100,27 @@
         <v>11</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>18</v>
@@ -3128,599 +3129,599 @@
         <v>11</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H45" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I54" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>171</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I55" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -3728,31 +3729,31 @@
     </row>
     <row r="57" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -3760,31 +3761,31 @@
     </row>
     <row r="58" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -3792,31 +3793,31 @@
     </row>
     <row r="59" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -3824,31 +3825,31 @@
     </row>
     <row r="60" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -3856,31 +3857,31 @@
     </row>
     <row r="61" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -3888,31 +3889,31 @@
     </row>
     <row r="62" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -3920,1384 +3921,1384 @@
     </row>
     <row r="63" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="H63" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G64" s="1" t="s">
+      <c r="H64" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G66" s="1" t="s">
+      <c r="H66" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G68" s="1" t="s">
+      <c r="H68" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="H69" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I70" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I71" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I72" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="17" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="I76" s="16" t="s">
         <v>141</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G76" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="H76" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="I76" s="16" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I78" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I78" s="8" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G79" s="1" t="s">
+      <c r="H79" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I79" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I80" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I81" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I81" s="8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I82" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I82" s="8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I83" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
     <row r="84" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I84" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I85" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J86" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="J86" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="H87" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I87" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
     <row r="88" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G88" s="1" t="s">
+      <c r="H88" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I88" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
     <row r="89" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G89" s="1" t="s">
+      <c r="H89" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I89" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
     <row r="90" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="300" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="D100" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I101" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="J101" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J101" s="6" t="s">
+      <c r="K101" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="K101" s="6" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="300" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I102" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="J102" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="J102" s="6" t="s">
+      <c r="K102" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="L102" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="K102" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="L102" s="6" t="s">
+      <c r="M102" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="M102" s="6" t="s">
+      <c r="N102" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="N102" s="6" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>253</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C103" t="s">
         <v>254</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G103" t="s">
         <v>255</v>
       </c>
-      <c r="D103" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="H103" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="I103" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>257</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C104" t="s">
+        <v>254</v>
+      </c>
+      <c r="D104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G104" t="s">
+        <v>255</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="I104" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C104" t="s">
-        <v>255</v>
-      </c>
-      <c r="D104" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G104" t="s">
-        <v>256</v>
-      </c>
-      <c r="H104" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>259</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C105" t="s">
+        <v>254</v>
+      </c>
+      <c r="D105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G105" t="s">
+        <v>255</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="I105" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C105" t="s">
-        <v>255</v>
-      </c>
-      <c r="D105" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G105" t="s">
-        <v>256</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="I106" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D106" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="H106" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="I106" s="8" t="s">
-        <v>274</v>
-      </c>
       <c r="J106" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
     </row>
     <row r="108" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B06FD1A-54FF-4029-88DE-766764DF40A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEED5B47-7BC6-42EB-AEFA-029112B65BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\fix-Features in Admin\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEED5B47-7BC6-42EB-AEFA-029112B65BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCED058-8B6D-4AF9-B2A3-3AD8A0771096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1561,9 +1561,6 @@
 </t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>Verify Create Account Merchant with valid credentials</t>
   </si>
   <si>
@@ -1615,12 +1612,6 @@
   </si>
   <si>
     <t>verify New Verification CodeSend Upto 5Times</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.LoginTest,
-testNewCodeUpto5Times,
--pemail,
--ppassword</t>
   </si>
   <si>
     <t>testdata-admin.xlsx,SignupPageMerchant</t>
@@ -1666,7 +1657,17 @@
 -pheadings</t>
   </si>
   <si>
-    <t>yes</t>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testNewCodeUpto5Times,
+-pemail,
+-ppassword,
+-pfiveTimeContent</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +1746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1795,10 +1796,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2081,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,7 +2139,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -2159,11 +2161,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>277</v>
+      <c r="A3" s="25" t="s">
+        <v>276</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2175,13 +2177,13 @@
         <v>113</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2189,7 +2191,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2211,11 +2213,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2233,7 +2235,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2241,7 +2243,7 @@
         <v>165</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2264,10 +2266,10 @@
     </row>
     <row r="7" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -2285,7 +2287,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="240" x14ac:dyDescent="0.25">
@@ -2293,7 +2295,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
@@ -2311,7 +2313,7 @@
         <v>28</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="210.75" x14ac:dyDescent="0.3">
@@ -2319,7 +2321,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -2345,7 +2347,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
@@ -2371,7 +2373,7 @@
         <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
@@ -2397,7 +2399,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>35</v>
@@ -2423,7 +2425,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>35</v>
@@ -2449,7 +2451,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>35</v>
@@ -2475,7 +2477,7 @@
         <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>35</v>
@@ -2501,7 +2503,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>35</v>
@@ -2524,10 +2526,10 @@
     </row>
     <row r="17" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
@@ -2548,7 +2550,7 @@
         <v>251</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="17" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -2556,7 +2558,7 @@
         <v>153</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>156</v>
@@ -2577,7 +2579,7 @@
         <v>248</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
@@ -2589,7 +2591,7 @@
         <v>155</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>156</v>
@@ -2622,7 +2624,7 @@
         <v>157</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>158</v>
@@ -2655,7 +2657,7 @@
         <v>177</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>158</v>
@@ -2688,7 +2690,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
@@ -2714,7 +2716,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>18</v>
@@ -2735,7 +2737,7 @@
         <v>248</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="135" x14ac:dyDescent="0.25">
@@ -2743,7 +2745,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>18</v>
@@ -2772,7 +2774,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>18</v>
@@ -2801,7 +2803,7 @@
         <v>266</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>270</v>
@@ -2830,7 +2832,7 @@
         <v>267</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>270</v>
@@ -2859,7 +2861,7 @@
         <v>268</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>270</v>
@@ -2888,7 +2890,7 @@
         <v>269</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>270</v>
@@ -2897,7 +2899,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>133</v>
@@ -2917,7 +2919,7 @@
         <v>171</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>18</v>
@@ -2946,7 +2948,7 @@
         <v>95</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>18</v>
@@ -2975,7 +2977,7 @@
         <v>114</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>18</v>
@@ -3004,7 +3006,7 @@
         <v>116</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>18</v>
@@ -3033,7 +3035,7 @@
         <v>118</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>18</v>
@@ -3062,7 +3064,7 @@
         <v>120</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>18</v>
@@ -3091,7 +3093,7 @@
         <v>122</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>18</v>
@@ -3120,7 +3122,7 @@
         <v>124</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>18</v>
@@ -3149,7 +3151,7 @@
         <v>46</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>47</v>
@@ -3179,7 +3181,7 @@
         <v>204</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>47</v>
@@ -3209,7 +3211,7 @@
         <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>47</v>
@@ -3239,7 +3241,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>47</v>
@@ -3269,7 +3271,7 @@
         <v>53</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>47</v>
@@ -3299,7 +3301,7 @@
         <v>55</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>47</v>
@@ -3329,7 +3331,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>47</v>
@@ -3359,7 +3361,7 @@
         <v>59</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>60</v>
@@ -3390,7 +3392,7 @@
         <v>62</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>60</v>
@@ -3421,7 +3423,7 @@
         <v>64</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>60</v>
@@ -3452,7 +3454,7 @@
         <v>66</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>60</v>
@@ -3483,7 +3485,7 @@
         <v>68</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>60</v>
@@ -3514,7 +3516,7 @@
         <v>70</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>60</v>
@@ -3545,7 +3547,7 @@
         <v>73</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>60</v>
@@ -3576,7 +3578,7 @@
         <v>160</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>60</v>
@@ -3607,7 +3609,7 @@
         <v>75</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>60</v>
@@ -3638,7 +3640,7 @@
         <v>168</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>163</v>
@@ -3669,7 +3671,7 @@
         <v>174</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>163</v>
@@ -3696,11 +3698,11 @@
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="12" t="s">
         <v>98</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>99</v>
@@ -3728,11 +3730,11 @@
       <c r="L56" s="1"/>
     </row>
     <row r="57" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="12" t="s">
         <v>101</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>99</v>
@@ -3760,11 +3762,11 @@
       <c r="L57" s="1"/>
     </row>
     <row r="58" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="12" t="s">
         <v>103</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>99</v>
@@ -3792,11 +3794,11 @@
       <c r="L58" s="1"/>
     </row>
     <row r="59" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="12" t="s">
         <v>105</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>99</v>
@@ -3824,11 +3826,11 @@
       <c r="L59" s="1"/>
     </row>
     <row r="60" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="12" t="s">
         <v>107</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>99</v>
@@ -3856,11 +3858,11 @@
       <c r="L60" s="1"/>
     </row>
     <row r="61" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="12" t="s">
         <v>109</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>99</v>
@@ -3888,11 +3890,11 @@
       <c r="L61" s="1"/>
     </row>
     <row r="62" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="12" t="s">
         <v>111</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>99</v>
@@ -3924,7 +3926,7 @@
         <v>195</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>90</v>
@@ -3953,7 +3955,7 @@
         <v>135</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>90</v>
@@ -3982,7 +3984,7 @@
         <v>93</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>90</v>
@@ -4007,11 +4009,11 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="12" t="s">
         <v>77</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>78</v>
@@ -4036,11 +4038,11 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="26" t="s">
         <v>207</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>78</v>
@@ -4065,11 +4067,11 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="12" t="s">
         <v>81</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>78</v>
@@ -4094,11 +4096,11 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="12" t="s">
         <v>84</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>78</v>
@@ -4123,11 +4125,11 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="12" t="s">
         <v>86</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>78</v>
@@ -4152,11 +4154,11 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="12" t="s">
         <v>88</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>78</v>
@@ -4181,11 +4183,11 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="12" t="s">
         <v>130</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>136</v>
@@ -4210,11 +4212,11 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="26" t="s">
         <v>209</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>78</v>
@@ -4239,11 +4241,11 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>136</v>
@@ -4268,11 +4270,11 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>136</v>
@@ -4301,7 +4303,7 @@
         <v>140</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>146</v>
@@ -4330,7 +4332,7 @@
         <v>142</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>146</v>
@@ -4359,7 +4361,7 @@
         <v>143</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>146</v>
@@ -4388,7 +4390,7 @@
         <v>145</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>146</v>
@@ -4417,7 +4419,7 @@
         <v>149</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>146</v>
@@ -4446,7 +4448,7 @@
         <v>151</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>146</v>
@@ -4475,7 +4477,7 @@
         <v>151</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>146</v>
@@ -4500,11 +4502,11 @@
       </c>
     </row>
     <row r="83" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="12" t="s">
         <v>162</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>163</v>
@@ -4531,11 +4533,11 @@
       <c r="K83" s="1"/>
     </row>
     <row r="84" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="12" t="s">
         <v>197</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>198</v>
@@ -4561,11 +4563,11 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="12" t="s">
         <v>200</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>198</v>
@@ -4591,11 +4593,11 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="12" t="s">
         <v>202</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>198</v>
@@ -4627,7 +4629,7 @@
         <v>184</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>186</v>
@@ -4658,7 +4660,7 @@
         <v>188</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>186</v>
@@ -4689,7 +4691,7 @@
         <v>191</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>186</v>
@@ -4720,7 +4722,7 @@
         <v>213</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>246</v>
@@ -4749,7 +4751,7 @@
         <v>214</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>246</v>
@@ -4778,7 +4780,7 @@
         <v>215</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>246</v>
@@ -4807,7 +4809,7 @@
         <v>216</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>246</v>
@@ -4836,7 +4838,7 @@
         <v>217</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>246</v>
@@ -4865,7 +4867,7 @@
         <v>218</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>246</v>
@@ -4894,7 +4896,7 @@
         <v>219</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>246</v>
@@ -4923,7 +4925,7 @@
         <v>220</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>246</v>
@@ -4952,7 +4954,7 @@
         <v>221</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>246</v>
@@ -4981,7 +4983,7 @@
         <v>222</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>246</v>
@@ -5006,11 +5008,11 @@
       </c>
     </row>
     <row r="100" spans="1:14" ht="300" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="12" t="s">
         <v>223</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>224</v>
@@ -5035,11 +5037,11 @@
       </c>
     </row>
     <row r="101" spans="1:14" ht="165" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="12" t="s">
         <v>225</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>224</v>
@@ -5070,11 +5072,11 @@
       </c>
     </row>
     <row r="102" spans="1:14" ht="300" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="12" t="s">
         <v>226</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>224</v>
@@ -5118,7 +5120,7 @@
         <v>253</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C103" t="s">
         <v>254</v>
@@ -5147,7 +5149,7 @@
         <v>257</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C104" t="s">
         <v>254</v>
@@ -5176,7 +5178,7 @@
         <v>259</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C105" t="s">
         <v>254</v>
@@ -5201,11 +5203,11 @@
       </c>
     </row>
     <row r="106" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="25" t="s">
+      <c r="A106" s="27" t="s">
         <v>272</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>224</v>
@@ -5232,18 +5234,18 @@
         <v>239</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>275</v>
+      <c r="A107" s="12" t="s">
+        <v>274</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
@@ -5267,11 +5269,11 @@
       <c r="K107" s="6"/>
     </row>
     <row r="108" spans="1:14" ht="165" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>285</v>
+      <c r="A108" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>224</v>
@@ -5298,7 +5300,7 @@
         <v>239</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\fix-Features in Admin\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebAutomation\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCED058-8B6D-4AF9-B2A3-3AD8A0771096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051F85C9-5B93-4BBC-ACED-8994734991DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="292">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1660,14 +1660,17 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>coyni.admin.tests.LoginTest,
 testNewCodeUpto5Times,
 -pemail,
 -ppassword,
 -pfiveTimeContent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -2083,8 +2086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2139,7 +2142,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -2165,7 +2168,7 @@
         <v>276</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2191,7 +2194,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2217,7 +2220,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2243,7 +2246,7 @@
         <v>165</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2269,7 +2272,7 @@
         <v>281</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -2287,7 +2290,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="240" x14ac:dyDescent="0.25">
@@ -2295,7 +2298,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
@@ -2321,7 +2324,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -2347,7 +2350,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
@@ -2373,7 +2376,7 @@
         <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
@@ -2399,7 +2402,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>35</v>
@@ -2425,7 +2428,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>35</v>
@@ -2451,7 +2454,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>35</v>
@@ -2477,7 +2480,7 @@
         <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>35</v>
@@ -2503,7 +2506,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>35</v>
@@ -2529,7 +2532,7 @@
         <v>284</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
@@ -2558,7 +2561,7 @@
         <v>153</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>156</v>
@@ -2591,7 +2594,7 @@
         <v>155</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>156</v>
@@ -2624,7 +2627,7 @@
         <v>157</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>158</v>
@@ -2657,7 +2660,7 @@
         <v>177</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>158</v>
@@ -2690,7 +2693,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
@@ -2716,7 +2719,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>18</v>
@@ -2745,7 +2748,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>18</v>
@@ -2774,7 +2777,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>18</v>
@@ -2803,7 +2806,7 @@
         <v>266</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>270</v>
@@ -2832,7 +2835,7 @@
         <v>267</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>270</v>
@@ -2861,7 +2864,7 @@
         <v>268</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>270</v>
@@ -2890,7 +2893,7 @@
         <v>269</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>270</v>
@@ -2919,7 +2922,7 @@
         <v>171</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>18</v>
@@ -2948,7 +2951,7 @@
         <v>95</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>18</v>
@@ -2977,7 +2980,7 @@
         <v>114</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>18</v>
@@ -3006,7 +3009,7 @@
         <v>116</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>18</v>
@@ -3035,7 +3038,7 @@
         <v>118</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>18</v>
@@ -3064,7 +3067,7 @@
         <v>120</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>18</v>
@@ -3093,7 +3096,7 @@
         <v>122</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>18</v>
@@ -3122,7 +3125,7 @@
         <v>124</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>18</v>
@@ -3151,7 +3154,7 @@
         <v>46</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>47</v>
@@ -3181,7 +3184,7 @@
         <v>204</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>47</v>
@@ -3211,7 +3214,7 @@
         <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>47</v>
@@ -3241,7 +3244,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>47</v>
@@ -3271,7 +3274,7 @@
         <v>53</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>47</v>
@@ -3301,7 +3304,7 @@
         <v>55</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>47</v>
@@ -3331,7 +3334,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>47</v>
@@ -3361,7 +3364,7 @@
         <v>59</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>60</v>
@@ -3392,7 +3395,7 @@
         <v>62</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>60</v>
@@ -3423,7 +3426,7 @@
         <v>64</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>60</v>
@@ -3454,7 +3457,7 @@
         <v>66</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>60</v>
@@ -3485,7 +3488,7 @@
         <v>68</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>60</v>
@@ -3516,7 +3519,7 @@
         <v>70</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>60</v>
@@ -3547,7 +3550,7 @@
         <v>73</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>60</v>
@@ -3578,7 +3581,7 @@
         <v>160</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>60</v>
@@ -3609,7 +3612,7 @@
         <v>75</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>60</v>
@@ -3640,7 +3643,7 @@
         <v>168</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>163</v>
@@ -3671,7 +3674,7 @@
         <v>174</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>163</v>
@@ -3702,7 +3705,7 @@
         <v>98</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>99</v>
@@ -3734,7 +3737,7 @@
         <v>101</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>99</v>
@@ -3766,7 +3769,7 @@
         <v>103</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>99</v>
@@ -3798,7 +3801,7 @@
         <v>105</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>99</v>
@@ -3830,7 +3833,7 @@
         <v>107</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>99</v>
@@ -3862,7 +3865,7 @@
         <v>109</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>99</v>
@@ -3894,7 +3897,7 @@
         <v>111</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>99</v>
@@ -3926,7 +3929,7 @@
         <v>195</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>90</v>
@@ -3955,7 +3958,7 @@
         <v>135</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>90</v>
@@ -3984,7 +3987,7 @@
         <v>93</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>90</v>
@@ -4013,7 +4016,7 @@
         <v>77</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>78</v>
@@ -4042,7 +4045,7 @@
         <v>207</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>78</v>
@@ -4071,7 +4074,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>78</v>
@@ -4100,7 +4103,7 @@
         <v>84</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>78</v>
@@ -4129,7 +4132,7 @@
         <v>86</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>78</v>
@@ -4158,7 +4161,7 @@
         <v>88</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>78</v>
@@ -4187,7 +4190,7 @@
         <v>130</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>136</v>
@@ -4216,7 +4219,7 @@
         <v>209</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>78</v>
@@ -4245,7 +4248,7 @@
         <v>128</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>136</v>
@@ -4274,7 +4277,7 @@
         <v>129</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>136</v>
@@ -4303,7 +4306,7 @@
         <v>140</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>146</v>
@@ -4332,7 +4335,7 @@
         <v>142</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>146</v>
@@ -4361,7 +4364,7 @@
         <v>143</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>146</v>
@@ -4390,7 +4393,7 @@
         <v>145</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>146</v>
@@ -4419,7 +4422,7 @@
         <v>149</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>146</v>
@@ -4448,7 +4451,7 @@
         <v>151</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>146</v>
@@ -4477,7 +4480,7 @@
         <v>151</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>146</v>
@@ -4506,7 +4509,7 @@
         <v>162</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>163</v>
@@ -4537,7 +4540,7 @@
         <v>197</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>198</v>
@@ -4567,7 +4570,7 @@
         <v>200</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>198</v>
@@ -4597,7 +4600,7 @@
         <v>202</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>198</v>
@@ -4629,7 +4632,7 @@
         <v>184</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>186</v>
@@ -4660,7 +4663,7 @@
         <v>188</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>186</v>
@@ -4691,7 +4694,7 @@
         <v>191</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>186</v>
@@ -4722,7 +4725,7 @@
         <v>213</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>246</v>
@@ -4751,7 +4754,7 @@
         <v>214</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>246</v>
@@ -4780,7 +4783,7 @@
         <v>215</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>246</v>
@@ -4809,7 +4812,7 @@
         <v>216</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>246</v>
@@ -4838,7 +4841,7 @@
         <v>217</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>246</v>
@@ -4867,7 +4870,7 @@
         <v>218</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>246</v>
@@ -4896,7 +4899,7 @@
         <v>219</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>246</v>
@@ -4925,7 +4928,7 @@
         <v>220</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>246</v>
@@ -4954,7 +4957,7 @@
         <v>221</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>246</v>
@@ -4983,7 +4986,7 @@
         <v>222</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>246</v>
@@ -5012,7 +5015,7 @@
         <v>223</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>224</v>
@@ -5041,7 +5044,7 @@
         <v>225</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>224</v>
@@ -5076,7 +5079,7 @@
         <v>226</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>224</v>
@@ -5120,7 +5123,7 @@
         <v>253</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C103" t="s">
         <v>254</v>
@@ -5149,7 +5152,7 @@
         <v>257</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C104" t="s">
         <v>254</v>
@@ -5178,7 +5181,7 @@
         <v>259</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C105" t="s">
         <v>254</v>
@@ -5207,7 +5210,7 @@
         <v>272</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>224</v>
@@ -5242,7 +5245,7 @@
         <v>274</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>282</v>
@@ -5273,7 +5276,7 @@
         <v>283</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>224</v>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebAutomation\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051F85C9-5B93-4BBC-ACED-8994734991DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C758B03-AC78-4473-9916-452C949799FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="291">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1657,9 +1657,6 @@
 -pheadings</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>coyni.admin.tests.LoginTest,
 testNewCodeUpto5Times,
 -pemail,
@@ -1667,10 +1664,10 @@
 -pfiveTimeContent</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1734,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1745,64 +1742,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2084,10 +2087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:AB108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,460 +2111,784 @@
     <col min="14" max="14" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:28" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+    </row>
+    <row r="3" spans="1:28" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+    </row>
+    <row r="4" spans="1:28" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+    </row>
+    <row r="5" spans="1:28" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+    </row>
+    <row r="6" spans="1:28" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+    </row>
+    <row r="7" spans="1:28" s="1" customFormat="1" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+    </row>
+    <row r="8" spans="1:28" ht="240" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+    </row>
+    <row r="9" spans="1:28" ht="210.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+    </row>
+    <row r="10" spans="1:28" ht="210" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+    </row>
+    <row r="11" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+    </row>
+    <row r="12" spans="1:28" ht="255" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+    </row>
+    <row r="13" spans="1:28" ht="225" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+    </row>
+    <row r="14" spans="1:28" ht="210" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>3</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+    </row>
+    <row r="15" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+    </row>
+    <row r="16" spans="1:28" ht="195" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+    </row>
+    <row r="17" spans="1:28" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H17" s="8" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="210.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="255" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="8" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" s="17" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+    </row>
+    <row r="18" spans="1:28" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>290</v>
+      <c r="B18" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>156</v>
@@ -2578,2736 +2905,4345 @@
       <c r="G18" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+    </row>
+    <row r="19" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+    </row>
+    <row r="20" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="E20" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+    </row>
+    <row r="21" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="9" t="s">
+      <c r="E21" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+    </row>
+    <row r="22" spans="1:28" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="8" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+    </row>
+    <row r="23" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="8" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+    </row>
+    <row r="24" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+    </row>
+    <row r="25" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="D25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="270" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+    </row>
+    <row r="26" spans="1:28" ht="270" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="6">
         <v>1</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="6">
         <v>1</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="8" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+    </row>
+    <row r="27" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="6">
         <v>1</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="6">
         <v>2</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+    </row>
+    <row r="28" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="6">
         <v>1</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="6">
         <v>1</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="285" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+    </row>
+    <row r="29" spans="1:28" ht="285" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="5" t="s">
+      <c r="E29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="8" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" s="23" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+    </row>
+    <row r="30" spans="1:28" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C30" s="19" t="s">
+      <c r="B30" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G30" s="19" t="s">
+      <c r="D30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H30" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I30" s="22" t="s">
+      <c r="I30" s="19" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="E31" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+    </row>
+    <row r="32" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="E32" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="20" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+    </row>
+    <row r="33" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="D33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="8" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+    </row>
+    <row r="34" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G34" s="1" t="s">
+      <c r="D34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+    </row>
+    <row r="35" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="D35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+    </row>
+    <row r="36" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="D36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+    </row>
+    <row r="37" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="D37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+    </row>
+    <row r="38" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="D38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="J38" s="6"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+    </row>
+    <row r="39" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="D39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="J39" s="6"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+    </row>
+    <row r="40" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="D40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="J40" s="6"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+    </row>
+    <row r="41" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="D41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="J41" s="6"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+    </row>
+    <row r="42" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="D42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="J42" s="6"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+    </row>
+    <row r="43" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G43" s="1" t="s">
+      <c r="D43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="J43" s="6"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+    </row>
+    <row r="44" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G44" s="1" t="s">
+      <c r="D44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="J44" s="6"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+    </row>
+    <row r="45" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G45" s="1" t="s">
+      <c r="D45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+    </row>
+    <row r="46" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G46" s="1" t="s">
+      <c r="D46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+    </row>
+    <row r="47" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="D47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+    </row>
+    <row r="48" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G48" s="1" t="s">
+      <c r="D48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+    </row>
+    <row r="49" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G49" s="1" t="s">
+      <c r="D49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+    </row>
+    <row r="50" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G50" s="1" t="s">
+      <c r="D50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+    </row>
+    <row r="51" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="B51" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G51" s="1" t="s">
+      <c r="D51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I51" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+    </row>
+    <row r="52" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G52" s="1" t="s">
+      <c r="D52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+    </row>
+    <row r="53" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G53" s="1" t="s">
+      <c r="D53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+    </row>
+    <row r="54" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G54" s="1" t="s">
+      <c r="D54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I54" s="11" t="s">
+      <c r="I54" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+    </row>
+    <row r="55" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G55" s="1" t="s">
+      <c r="D55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H55" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I55" s="11" t="s">
+      <c r="I55" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+    </row>
+    <row r="56" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G56" s="1" t="s">
+      <c r="D56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-    </row>
-    <row r="57" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+    </row>
+    <row r="57" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G57" s="1" t="s">
+      <c r="D57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G57" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I57" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-    </row>
-    <row r="58" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+    </row>
+    <row r="58" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G58" s="1" t="s">
+      <c r="D58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G58" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-    </row>
-    <row r="59" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+    </row>
+    <row r="59" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G59" s="1" t="s">
+      <c r="D59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G59" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-    </row>
-    <row r="60" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+    </row>
+    <row r="60" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B60" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G60" s="1" t="s">
+      <c r="D60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G60" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-    </row>
-    <row r="61" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+    </row>
+    <row r="61" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="B61" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G61" s="1" t="s">
+      <c r="D61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I61" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-    </row>
-    <row r="62" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+    </row>
+    <row r="62" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B62" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G62" s="1" t="s">
+      <c r="D62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G62" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I62" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-    </row>
-    <row r="63" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
+    </row>
+    <row r="63" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B63" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G63" s="1" t="s">
+      <c r="D63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="I63" s="8" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
+    </row>
+    <row r="64" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="B64" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G64" s="1" t="s">
+      <c r="D64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G64" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="I64" s="8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
+      <c r="AB64" s="2"/>
+    </row>
+    <row r="65" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B65" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F65" s="5" t="s">
+      <c r="E65" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H65" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="I65" s="8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="2"/>
+    </row>
+    <row r="66" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="B66" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G66" s="1" t="s">
+      <c r="D66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="I66" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
+      <c r="AB66" s="2"/>
+    </row>
+    <row r="67" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C67" s="7" t="s">
+      <c r="B67" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C67" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G67" s="7" t="s">
+      <c r="D67" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G67" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H67" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="I67" s="8" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="2"/>
+    </row>
+    <row r="68" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="B68" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G68" s="1" t="s">
+      <c r="D68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G68" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="I68" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+    </row>
+    <row r="69" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="B69" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G69" s="1" t="s">
+      <c r="D69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G69" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H69" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I69" s="8" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="2"/>
+    </row>
+    <row r="70" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="B70" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G70" s="1" t="s">
+      <c r="D70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G70" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H70" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="I70" s="8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="2"/>
+    </row>
+    <row r="71" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="B71" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G71" s="1" t="s">
+      <c r="D71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G71" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="H71" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="I71" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="2"/>
+    </row>
+    <row r="72" spans="1:28" s="1" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="B72" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G72" s="1" t="s">
+      <c r="D72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G72" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H72" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="I72" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="26" t="s">
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
+      <c r="AB72" s="2"/>
+    </row>
+    <row r="73" spans="1:28" s="1" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C73" s="7" t="s">
+      <c r="B73" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C73" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G73" s="1" t="s">
+      <c r="D73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G73" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="I73" s="8" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2"/>
+      <c r="AA73" s="2"/>
+      <c r="AB73" s="2"/>
+    </row>
+    <row r="74" spans="1:28" s="1" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="B74" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G74" s="1" t="s">
+      <c r="D74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G74" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H74" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="I74" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2"/>
+      <c r="AA74" s="2"/>
+      <c r="AB74" s="2"/>
+    </row>
+    <row r="75" spans="1:28" s="1" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="B75" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G75" s="1" t="s">
+      <c r="D75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G75" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H75" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="I75" s="8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" s="17" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
+    </row>
+    <row r="76" spans="1:28" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C76" s="12" t="s">
+      <c r="B76" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D76" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G76" s="12" t="s">
+      <c r="D76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="H76" s="16" t="s">
+      <c r="H76" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I76" s="16" t="s">
+      <c r="I76" s="8" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+    </row>
+    <row r="77" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="B77" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G77" s="1" t="s">
+      <c r="D77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G77" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H77" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I77" s="8" t="s">
+      <c r="I77" s="22" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2"/>
+      <c r="AA77" s="2"/>
+      <c r="AB77" s="2"/>
+    </row>
+    <row r="78" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="B78" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G78" s="1" t="s">
+      <c r="D78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H78" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I78" s="8" t="s">
+      <c r="I78" s="22" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+    </row>
+    <row r="79" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="B79" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G79" s="1" t="s">
+      <c r="D79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G79" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H79" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I79" s="8" t="s">
+      <c r="I79" s="22" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="2"/>
+      <c r="AA79" s="2"/>
+      <c r="AB79" s="2"/>
+    </row>
+    <row r="80" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="B80" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G80" s="1" t="s">
+      <c r="D80" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G80" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H80" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I80" s="8" t="s">
+      <c r="I80" s="22" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2"/>
+      <c r="AA80" s="2"/>
+      <c r="AB80" s="2"/>
+    </row>
+    <row r="81" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="B81" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G81" s="1" t="s">
+      <c r="D81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G81" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="H81" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I81" s="8" t="s">
+      <c r="I81" s="22" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="2"/>
+      <c r="AA81" s="2"/>
+      <c r="AB81" s="2"/>
+    </row>
+    <row r="82" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="B82" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G82" s="1" t="s">
+      <c r="D82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G82" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H82" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I82" s="8" t="s">
+      <c r="I82" s="22" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2"/>
+      <c r="AA82" s="2"/>
+      <c r="AB82" s="2"/>
+    </row>
+    <row r="83" spans="1:28" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="B83" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G83" s="1" t="s">
+      <c r="D83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G83" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="H83" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="I83" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-    </row>
-    <row r="84" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="2"/>
+    </row>
+    <row r="84" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="B84" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G84" s="1" t="s">
+      <c r="D84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="H84" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="I84" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="J84" s="2"/>
-    </row>
-    <row r="85" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
+      <c r="J84" s="8"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2"/>
+      <c r="AA84" s="2"/>
+      <c r="AB84" s="2"/>
+    </row>
+    <row r="85" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="B85" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G85" s="1" t="s">
+      <c r="D85" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="H85" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="I85" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="J85" s="2"/>
-    </row>
-    <row r="86" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
+      <c r="J85" s="8"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2"/>
+      <c r="AA85" s="2"/>
+      <c r="AB85" s="2"/>
+    </row>
+    <row r="86" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="B86" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G86" s="1" t="s">
+      <c r="D86" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G86" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="H86" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="I86" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="J86" s="6" t="s">
+      <c r="J86" s="20" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="2"/>
+      <c r="Z86" s="2"/>
+      <c r="AA86" s="2"/>
+      <c r="AB86" s="2"/>
+    </row>
+    <row r="87" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="B87" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G87" s="1" t="s">
+      <c r="D87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G87" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="H87" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="I87" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-    </row>
-    <row r="88" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="2"/>
+      <c r="AA87" s="2"/>
+      <c r="AB87" s="2"/>
+    </row>
+    <row r="88" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="B88" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G88" s="1" t="s">
+      <c r="D88" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="H88" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="I88" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-    </row>
-    <row r="89" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="2"/>
+      <c r="Z88" s="2"/>
+      <c r="AA88" s="2"/>
+      <c r="AB88" s="2"/>
+    </row>
+    <row r="89" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="B89" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G89" s="1" t="s">
+      <c r="D89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G89" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="H89" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="I89" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-    </row>
-    <row r="90" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A90" s="19" t="s">
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2"/>
+      <c r="AA89" s="2"/>
+      <c r="AB89" s="2"/>
+    </row>
+    <row r="90" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="B90" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G90" s="1" t="s">
+      <c r="D90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="H90" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I90" s="8" t="s">
+      <c r="I90" s="22" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A91" s="19" t="s">
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
+      <c r="X90" s="2"/>
+      <c r="Y90" s="2"/>
+      <c r="Z90" s="2"/>
+      <c r="AA90" s="2"/>
+      <c r="AB90" s="2"/>
+    </row>
+    <row r="91" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="B91" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G91" s="1" t="s">
+      <c r="D91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G91" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="H91" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I91" s="8" t="s">
+      <c r="I91" s="22" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A92" s="19" t="s">
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="2"/>
+      <c r="X91" s="2"/>
+      <c r="Y91" s="2"/>
+      <c r="Z91" s="2"/>
+      <c r="AA91" s="2"/>
+      <c r="AB91" s="2"/>
+    </row>
+    <row r="92" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="B92" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G92" s="1" t="s">
+      <c r="D92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G92" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="H92" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I92" s="8" t="s">
+      <c r="I92" s="22" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A93" s="19" t="s">
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="2"/>
+      <c r="Z92" s="2"/>
+      <c r="AA92" s="2"/>
+      <c r="AB92" s="2"/>
+    </row>
+    <row r="93" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="B93" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G93" s="1" t="s">
+      <c r="D93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G93" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="H93" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I93" s="8" t="s">
+      <c r="I93" s="22" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
+      <c r="Z93" s="2"/>
+      <c r="AA93" s="2"/>
+      <c r="AB93" s="2"/>
+    </row>
+    <row r="94" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="B94" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G94" s="1" t="s">
+      <c r="D94" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G94" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="H94" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I94" s="8" t="s">
+      <c r="I94" s="22" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="2"/>
+      <c r="X94" s="2"/>
+      <c r="Y94" s="2"/>
+      <c r="Z94" s="2"/>
+      <c r="AA94" s="2"/>
+      <c r="AB94" s="2"/>
+    </row>
+    <row r="95" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="B95" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G95" s="1" t="s">
+      <c r="D95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G95" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="H95" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I95" s="8" t="s">
+      <c r="I95" s="22" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="2"/>
+      <c r="X95" s="2"/>
+      <c r="Y95" s="2"/>
+      <c r="Z95" s="2"/>
+      <c r="AA95" s="2"/>
+      <c r="AB95" s="2"/>
+    </row>
+    <row r="96" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="B96" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G96" s="1" t="s">
+      <c r="D96" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G96" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="H96" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I96" s="8" t="s">
+      <c r="I96" s="22" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" ht="165" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
+      <c r="Z96" s="2"/>
+      <c r="AA96" s="2"/>
+      <c r="AB96" s="2"/>
+    </row>
+    <row r="97" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="B97" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G97" s="1" t="s">
+      <c r="D97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G97" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="H97" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I97" s="8" t="s">
+      <c r="I97" s="22" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" ht="165" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
+      <c r="AA97" s="2"/>
+      <c r="AB97" s="2"/>
+    </row>
+    <row r="98" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="B98" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G98" s="1" t="s">
+      <c r="D98" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G98" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="H98" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I98" s="8" t="s">
+      <c r="I98" s="22" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" ht="165" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
+      <c r="X98" s="2"/>
+      <c r="Y98" s="2"/>
+      <c r="Z98" s="2"/>
+      <c r="AA98" s="2"/>
+      <c r="AB98" s="2"/>
+    </row>
+    <row r="99" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="B99" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G99" s="1" t="s">
+      <c r="D99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G99" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H99" s="2" t="s">
+      <c r="H99" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I99" s="8" t="s">
+      <c r="I99" s="22" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" ht="300" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
+      <c r="X99" s="2"/>
+      <c r="Y99" s="2"/>
+      <c r="Z99" s="2"/>
+      <c r="AA99" s="2"/>
+      <c r="AB99" s="2"/>
+    </row>
+    <row r="100" spans="1:28" s="1" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="B100" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G100" s="1" t="s">
+      <c r="D100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G100" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="H100" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="I100" s="8" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" ht="165" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="2"/>
+      <c r="Y100" s="2"/>
+      <c r="Z100" s="2"/>
+      <c r="AA100" s="2"/>
+      <c r="AB100" s="2"/>
+    </row>
+    <row r="101" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="B101" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G101" s="1" t="s">
+      <c r="D101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G101" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="H101" s="2" t="s">
+      <c r="H101" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I101" s="8" t="s">
+      <c r="I101" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="J101" s="6" t="s">
+      <c r="J101" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="K101" s="6" t="s">
+      <c r="K101" s="20" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" ht="300" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="2"/>
+      <c r="W101" s="2"/>
+      <c r="X101" s="2"/>
+      <c r="Y101" s="2"/>
+      <c r="Z101" s="2"/>
+      <c r="AA101" s="2"/>
+      <c r="AB101" s="2"/>
+    </row>
+    <row r="102" spans="1:28" s="1" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="B102" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G102" s="1" t="s">
+      <c r="D102" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G102" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="H102" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="I102" s="8" t="s">
+      <c r="I102" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="J102" s="6" t="s">
+      <c r="J102" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="K102" s="6" t="s">
+      <c r="K102" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="L102" s="6" t="s">
+      <c r="L102" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="M102" s="6" t="s">
+      <c r="M102" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="N102" s="6" t="s">
+      <c r="N102" s="20" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="2"/>
+      <c r="Y102" s="2"/>
+      <c r="Z102" s="2"/>
+      <c r="AA102" s="2"/>
+      <c r="AB102" s="2"/>
+    </row>
+    <row r="103" spans="1:28" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B103" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C103" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="D103" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="D103" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G103" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="H103" s="6" t="s">
+      <c r="H103" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="I103" s="6" t="s">
+      <c r="I103" s="20" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="2"/>
+      <c r="X103" s="2"/>
+      <c r="Y103" s="2"/>
+      <c r="Z103" s="2"/>
+      <c r="AA103" s="2"/>
+      <c r="AB103" s="2"/>
+    </row>
+    <row r="104" spans="1:28" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B104" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C104" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="D104" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="D104" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G104" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="H104" s="6" t="s">
+      <c r="H104" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="I104" s="6" t="s">
+      <c r="I104" s="20" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2"/>
+      <c r="V104" s="2"/>
+      <c r="W104" s="2"/>
+      <c r="X104" s="2"/>
+      <c r="Y104" s="2"/>
+      <c r="Z104" s="2"/>
+      <c r="AA104" s="2"/>
+      <c r="AB104" s="2"/>
+    </row>
+    <row r="105" spans="1:28" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B105" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C105" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="D105" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="D105" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G105" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="H105" s="6" t="s">
+      <c r="H105" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="I105" s="6" t="s">
+      <c r="I105" s="20" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="27" t="s">
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="2"/>
+      <c r="X105" s="2"/>
+      <c r="Y105" s="2"/>
+      <c r="Z105" s="2"/>
+      <c r="AA105" s="2"/>
+      <c r="AB105" s="2"/>
+    </row>
+    <row r="106" spans="1:28" s="1" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="B106" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>224</v>
       </c>
       <c r="D106" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E106" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G106" s="1" t="s">
+      <c r="E106" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G106" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="H106" s="6" t="s">
+      <c r="H106" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="I106" s="8" t="s">
+      <c r="I106" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="J106" s="6" t="s">
+      <c r="J106" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="K106" s="6" t="s">
+      <c r="K106" s="20" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="2"/>
+      <c r="Y106" s="2"/>
+      <c r="Z106" s="2"/>
+      <c r="AA106" s="2"/>
+      <c r="AB106" s="2"/>
+    </row>
+    <row r="107" spans="1:28" s="1" customFormat="1" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C107" s="1" t="s">
+      <c r="B107" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C107" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G107" s="1" t="s">
+      <c r="D107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G107" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="H107" s="2" t="s">
+      <c r="H107" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I107" s="8" t="s">
+      <c r="I107" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-    </row>
-    <row r="108" spans="1:14" ht="165" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
+      <c r="J107" s="20"/>
+      <c r="K107" s="20"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="2"/>
+      <c r="X107" s="2"/>
+      <c r="Y107" s="2"/>
+      <c r="Z107" s="2"/>
+      <c r="AA107" s="2"/>
+      <c r="AB107" s="2"/>
+    </row>
+    <row r="108" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="B108" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G108" s="1" t="s">
+      <c r="D108" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G108" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="H108" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I108" s="8" t="s">
+      <c r="I108" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="J108" s="6" t="s">
+      <c r="J108" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="K108" s="6" t="s">
+      <c r="K108" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="L108" s="6"/>
-      <c r="M108" s="6"/>
-      <c r="N108" s="6"/>
+      <c r="L108" s="20"/>
+      <c r="M108" s="20"/>
+      <c r="N108" s="20"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="X108" s="2"/>
+      <c r="Y108" s="2"/>
+      <c r="Z108" s="2"/>
+      <c r="AA108" s="2"/>
+      <c r="AB108" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I108" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebAutomation\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C758B03-AC78-4473-9916-452C949799FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B23E1AA-C2B2-4F6B-A7C4-8BC512582F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="5220" windowWidth="10455" windowHeight="9180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2089,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2196,7 +2196,7 @@
         <v>276</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>10</v>
@@ -2242,7 +2242,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
@@ -2288,7 +2288,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>10</v>
@@ -2334,7 +2334,7 @@
         <v>165</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
@@ -2380,7 +2380,7 @@
         <v>281</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>10</v>
@@ -2426,7 +2426,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>27</v>
@@ -2472,7 +2472,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>27</v>
@@ -2518,7 +2518,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>27</v>
@@ -2564,7 +2564,7 @@
         <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>27</v>
@@ -2610,7 +2610,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>35</v>
@@ -2656,7 +2656,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>35</v>
@@ -2702,7 +2702,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>35</v>
@@ -2748,7 +2748,7 @@
         <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>35</v>
@@ -2794,7 +2794,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>35</v>
@@ -2840,7 +2840,7 @@
         <v>284</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>10</v>
@@ -2888,7 +2888,7 @@
         <v>153</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>156</v>
@@ -2936,7 +2936,7 @@
         <v>155</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>156</v>
@@ -2984,7 +2984,7 @@
         <v>157</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>158</v>
@@ -3032,7 +3032,7 @@
         <v>177</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>158</v>
@@ -3080,7 +3080,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>10</v>
@@ -3126,7 +3126,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>18</v>
@@ -3174,7 +3174,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>18</v>
@@ -3222,7 +3222,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>18</v>
@@ -3270,7 +3270,7 @@
         <v>266</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>270</v>
@@ -3318,7 +3318,7 @@
         <v>267</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>270</v>
@@ -3366,7 +3366,7 @@
         <v>268</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>270</v>
@@ -3414,7 +3414,7 @@
         <v>269</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>270</v>
@@ -3462,7 +3462,7 @@
         <v>171</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>18</v>
@@ -3496,7 +3496,7 @@
         <v>95</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>18</v>
@@ -3544,7 +3544,7 @@
         <v>114</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>18</v>
@@ -3592,7 +3592,7 @@
         <v>116</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>18</v>
@@ -3640,7 +3640,7 @@
         <v>118</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>18</v>
@@ -3688,7 +3688,7 @@
         <v>120</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>18</v>
@@ -3736,7 +3736,7 @@
         <v>122</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>18</v>
@@ -3784,7 +3784,7 @@
         <v>124</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>18</v>
@@ -3832,7 +3832,7 @@
         <v>46</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>47</v>
@@ -3880,7 +3880,7 @@
         <v>204</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>47</v>
@@ -3928,7 +3928,7 @@
         <v>49</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>47</v>
@@ -3976,7 +3976,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>47</v>
@@ -4024,7 +4024,7 @@
         <v>53</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>47</v>
@@ -4072,7 +4072,7 @@
         <v>55</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>47</v>
@@ -4120,7 +4120,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>47</v>
@@ -4168,7 +4168,7 @@
         <v>59</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>60</v>
@@ -4216,7 +4216,7 @@
         <v>62</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>60</v>
@@ -4264,7 +4264,7 @@
         <v>64</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>60</v>
@@ -4312,7 +4312,7 @@
         <v>66</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>60</v>
@@ -4360,7 +4360,7 @@
         <v>68</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>60</v>
@@ -4408,7 +4408,7 @@
         <v>70</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>60</v>
@@ -4456,7 +4456,7 @@
         <v>73</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>60</v>
@@ -4504,7 +4504,7 @@
         <v>160</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>60</v>
@@ -4552,7 +4552,7 @@
         <v>75</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>60</v>
@@ -4600,7 +4600,7 @@
         <v>168</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>163</v>
@@ -4648,7 +4648,7 @@
         <v>174</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>163</v>
@@ -4696,7 +4696,7 @@
         <v>98</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>99</v>
@@ -4744,7 +4744,7 @@
         <v>101</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>99</v>
@@ -4792,7 +4792,7 @@
         <v>103</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>99</v>
@@ -4840,7 +4840,7 @@
         <v>105</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>99</v>
@@ -4888,7 +4888,7 @@
         <v>107</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>99</v>
@@ -4936,7 +4936,7 @@
         <v>109</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>99</v>
@@ -4984,7 +4984,7 @@
         <v>111</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>99</v>
@@ -5032,7 +5032,7 @@
         <v>195</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>90</v>
@@ -5080,7 +5080,7 @@
         <v>135</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>90</v>
@@ -5128,7 +5128,7 @@
         <v>93</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>90</v>
@@ -5176,7 +5176,7 @@
         <v>77</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>78</v>
@@ -5224,7 +5224,7 @@
         <v>207</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>78</v>
@@ -5272,7 +5272,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>78</v>
@@ -5320,7 +5320,7 @@
         <v>84</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>78</v>
@@ -5368,7 +5368,7 @@
         <v>86</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>78</v>
@@ -5416,7 +5416,7 @@
         <v>88</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>78</v>
@@ -5464,7 +5464,7 @@
         <v>130</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>136</v>
@@ -5512,7 +5512,7 @@
         <v>209</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>78</v>
@@ -5560,7 +5560,7 @@
         <v>128</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>136</v>
@@ -5608,7 +5608,7 @@
         <v>129</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>136</v>
@@ -5978,7 +5978,7 @@
         <v>162</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>163</v>
@@ -6026,7 +6026,7 @@
         <v>197</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>198</v>
@@ -6074,7 +6074,7 @@
         <v>200</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>198</v>
@@ -6122,7 +6122,7 @@
         <v>202</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>198</v>
@@ -6172,7 +6172,7 @@
         <v>184</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>186</v>
@@ -6220,7 +6220,7 @@
         <v>188</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>186</v>
@@ -6268,7 +6268,7 @@
         <v>191</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>186</v>
@@ -6316,7 +6316,7 @@
         <v>213</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>246</v>
@@ -6364,7 +6364,7 @@
         <v>214</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>246</v>
@@ -6412,7 +6412,7 @@
         <v>215</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>246</v>
@@ -6460,7 +6460,7 @@
         <v>216</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>246</v>
@@ -6508,7 +6508,7 @@
         <v>217</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>246</v>
@@ -6556,7 +6556,7 @@
         <v>218</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>246</v>
@@ -6604,7 +6604,7 @@
         <v>219</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>246</v>
@@ -6652,7 +6652,7 @@
         <v>220</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>246</v>
@@ -6700,7 +6700,7 @@
         <v>221</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>246</v>
@@ -6748,7 +6748,7 @@
         <v>222</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>246</v>
@@ -6796,7 +6796,7 @@
         <v>223</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>224</v>
@@ -6844,7 +6844,7 @@
         <v>225</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>224</v>
@@ -6896,7 +6896,7 @@
         <v>226</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>224</v>
@@ -6954,7 +6954,7 @@
         <v>253</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>254</v>
@@ -7002,7 +7002,7 @@
         <v>257</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>254</v>
@@ -7050,7 +7050,7 @@
         <v>259</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>254</v>
@@ -7098,7 +7098,7 @@
         <v>272</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>224</v>
@@ -7150,7 +7150,7 @@
         <v>274</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>282</v>
@@ -7198,7 +7198,7 @@
         <v>283</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>224</v>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebAutomation\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DACB17-12BC-45BA-B0A7-392E281E6B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65EAE0F-84E5-4E19-8408-5D27F5B0CBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="10455" windowHeight="9180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$107</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="292">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1570,9 +1570,6 @@
 -ptoastMessage</t>
   </si>
   <si>
-    <t>Admin Login with invalid Authy</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -1668,6 +1665,12 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>tes+A28tData-admin.xlsx,AddCogentAccount</t>
+  </si>
+  <si>
+    <t>Admin Login with invalid Authy</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1717,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1730,6 +1733,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,7 +1770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1807,6 +1816,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2087,10 +2097,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB108"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AB107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2145,7 +2156,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:28" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -2191,9 +2202,9 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:28" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>276</v>
+    <row r="3" spans="1:28" ht="150.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>289</v>
@@ -2208,13 +2219,13 @@
         <v>113</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -2237,7 +2248,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
     </row>
-    <row r="4" spans="1:28" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="150.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -2283,7 +2294,7 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
     </row>
-    <row r="5" spans="1:28" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -2306,7 +2317,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -2329,7 +2340,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
     </row>
-    <row r="6" spans="1:28" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>165</v>
       </c>
@@ -2375,15 +2386,15 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
     </row>
-    <row r="7" spans="1:28" s="1" customFormat="1" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>281</v>
+    <row r="7" spans="1:28" ht="240" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>14</v>
@@ -2395,10 +2406,10 @@
         <v>113</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -2421,9 +2432,9 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
     </row>
-    <row r="8" spans="1:28" ht="240" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>26</v>
+    <row r="8" spans="1:28" ht="210.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>289</v>
@@ -2444,7 +2455,7 @@
         <v>28</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>286</v>
+        <v>126</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -2467,9 +2478,9 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
     </row>
-    <row r="9" spans="1:28" ht="210.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>29</v>
+    <row r="9" spans="1:28" ht="210" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>289</v>
@@ -2484,13 +2495,13 @@
         <v>113</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -2513,9 +2524,9 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
     </row>
-    <row r="10" spans="1:28" ht="210" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>289</v>
@@ -2530,13 +2541,13 @@
         <v>113</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -2559,18 +2570,18 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
     </row>
-    <row r="11" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>289</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>113</v>
@@ -2579,10 +2590,10 @@
         <v>113</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -2605,9 +2616,9 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
     </row>
-    <row r="12" spans="1:28" ht="255" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>289</v>
@@ -2628,7 +2639,7 @@
         <v>36</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -2651,9 +2662,9 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
     </row>
-    <row r="13" spans="1:28" ht="225" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>289</v>
@@ -2662,19 +2673,19 @@
         <v>35</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>113</v>
+        <v>14</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -2697,9 +2708,9 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
     </row>
-    <row r="14" spans="1:28" ht="210" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>289</v>
@@ -2708,19 +2719,19 @@
         <v>35</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
       </c>
       <c r="F14" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -2743,9 +2754,9 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
     </row>
-    <row r="15" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>289</v>
@@ -2766,7 +2777,7 @@
         <v>36</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2789,32 +2800,34 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
     </row>
-    <row r="16" spans="1:28" ht="195" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>289</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1</v>
+      <c r="E16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="9"/>
+        <v>251</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>284</v>
+      </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -2835,38 +2848,38 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
     </row>
-    <row r="17" spans="1:28" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>284</v>
+    <row r="17" spans="1:28" s="1" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>12</v>
+      <c r="C17" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+        <v>278</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
       <c r="N17" s="9"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -2883,12 +2896,12 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
     </row>
-    <row r="18" spans="1:28" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>153</v>
+    <row r="18" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>156</v>
@@ -2900,7 +2913,7 @@
         <v>113</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>154</v>
@@ -2909,7 +2922,7 @@
         <v>248</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -2931,15 +2944,15 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
     </row>
-    <row r="19" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>289</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>14</v>
@@ -2948,16 +2961,16 @@
         <v>113</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>248</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -2979,9 +2992,9 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
     </row>
-    <row r="20" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>289</v>
@@ -2999,13 +3012,13 @@
         <v>113</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>248</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -3027,38 +3040,36 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
     </row>
-    <row r="21" spans="1:28" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>177</v>
+    <row r="21" spans="1:28" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>180</v>
+      <c r="C21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -3075,15 +3086,15 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
     </row>
-    <row r="22" spans="1:28" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>289</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>11</v>
@@ -3095,12 +3106,14 @@
         <v>113</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="8" t="s">
+        <v>286</v>
+      </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
@@ -3121,9 +3134,9 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
     </row>
-    <row r="23" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>289</v>
@@ -3141,13 +3154,13 @@
         <v>113</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>248</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>287</v>
+        <v>22</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -3169,9 +3182,9 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
     </row>
-    <row r="24" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>289</v>
@@ -3188,14 +3201,14 @@
       <c r="F24" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>21</v>
+      <c r="G24" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -3217,33 +3230,33 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
     </row>
-    <row r="25" spans="1:28" ht="165" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>23</v>
+    <row r="25" spans="1:28" ht="270" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>266</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>289</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>24</v>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>249</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>25</v>
+        <v>261</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -3265,9 +3278,9 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
     </row>
-    <row r="26" spans="1:28" ht="270" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>266</v>
+    <row r="26" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>289</v>
@@ -3276,13 +3289,13 @@
         <v>270</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E26" s="6">
         <v>1</v>
       </c>
       <c r="F26" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>265</v>
@@ -3291,7 +3304,7 @@
         <v>249</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -3313,9 +3326,9 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
     </row>
-    <row r="27" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>289</v>
@@ -3324,13 +3337,13 @@
         <v>270</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E27" s="6">
         <v>1</v>
       </c>
       <c r="F27" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>265</v>
@@ -3339,7 +3352,7 @@
         <v>249</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -3361,24 +3374,24 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
     </row>
-    <row r="28" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>289</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>265</v>
@@ -3387,7 +3400,7 @@
         <v>249</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -3409,57 +3422,43 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
     </row>
-    <row r="29" spans="1:28" ht="285" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>269</v>
+    <row r="29" spans="1:28" s="2" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>171</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>289</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>270</v>
+        <v>18</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>113</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>264</v>
+      <c r="I29" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-    </row>
-    <row r="30" spans="1:28" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>171</v>
+    </row>
+    <row r="30" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>289</v>
@@ -3468,7 +3467,7 @@
         <v>18</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>113</v>
@@ -3477,23 +3476,37 @@
         <v>113</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I30" s="19" t="s">
-        <v>173</v>
+      <c r="I30" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+    </row>
+    <row r="31" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>289</v>
@@ -3516,8 +3529,8 @@
       <c r="H31" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>97</v>
+      <c r="I31" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -3539,9 +3552,9 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>289</v>
@@ -3550,7 +3563,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>113</v>
@@ -3564,8 +3577,8 @@
       <c r="H32" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I32" s="20" t="s">
-        <v>115</v>
+      <c r="I32" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -3587,9 +3600,9 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
     </row>
-    <row r="33" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>289</v>
@@ -3613,7 +3626,7 @@
         <v>249</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -3635,9 +3648,9 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
     </row>
-    <row r="34" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>289</v>
@@ -3661,7 +3674,7 @@
         <v>249</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -3683,9 +3696,9 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
     </row>
-    <row r="35" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>289</v>
@@ -3709,7 +3722,7 @@
         <v>249</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -3731,9 +3744,9 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>289</v>
@@ -3757,7 +3770,7 @@
         <v>249</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -3779,15 +3792,15 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
     </row>
-    <row r="37" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>289</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>11</v>
@@ -3799,15 +3812,15 @@
         <v>113</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>249</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="J37" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="J37" s="6"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
@@ -3827,9 +3840,9 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
     </row>
-    <row r="38" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>289</v>
@@ -3847,13 +3860,13 @@
         <v>113</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>249</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="9"/>
@@ -3875,9 +3888,9 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
     </row>
-    <row r="39" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>204</v>
+        <v>49</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>289</v>
@@ -3895,13 +3908,13 @@
         <v>113</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>249</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>206</v>
+        <v>50</v>
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="9"/>
@@ -3923,9 +3936,9 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
     </row>
-    <row r="40" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>289</v>
@@ -3949,7 +3962,7 @@
         <v>249</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="9"/>
@@ -3971,9 +3984,9 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
     </row>
-    <row r="41" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>289</v>
@@ -3997,7 +4010,7 @@
         <v>249</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="9"/>
@@ -4021,7 +4034,7 @@
     </row>
     <row r="42" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>289</v>
@@ -4045,7 +4058,7 @@
         <v>249</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="9"/>
@@ -4067,9 +4080,9 @@
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
     </row>
-    <row r="43" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>289</v>
@@ -4093,7 +4106,7 @@
         <v>249</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="9"/>
@@ -4115,15 +4128,15 @@
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
     </row>
-    <row r="44" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>289</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>11</v>
@@ -4135,16 +4148,16 @@
         <v>113</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>182</v>
+        <v>61</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>249</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J44" s="6"/>
-      <c r="K44" s="9"/>
+      <c r="K44" s="6"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -4163,9 +4176,9 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
     </row>
-    <row r="45" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>289</v>
@@ -4189,7 +4202,7 @@
         <v>249</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
@@ -4211,9 +4224,9 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
     </row>
-    <row r="46" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>289</v>
@@ -4237,7 +4250,7 @@
         <v>249</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
@@ -4259,9 +4272,9 @@
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
     </row>
-    <row r="47" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>289</v>
@@ -4285,7 +4298,7 @@
         <v>249</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -4307,9 +4320,9 @@
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
     </row>
-    <row r="48" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>289</v>
@@ -4333,7 +4346,7 @@
         <v>249</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
@@ -4355,9 +4368,9 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
     </row>
-    <row r="49" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>289</v>
@@ -4375,13 +4388,13 @@
         <v>113</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>249</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -4403,9 +4416,9 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
     </row>
-    <row r="50" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>289</v>
@@ -4429,7 +4442,7 @@
         <v>249</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
@@ -4451,9 +4464,9 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
     </row>
-    <row r="51" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>289</v>
@@ -4471,13 +4484,13 @@
         <v>113</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>249</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
@@ -4499,9 +4512,9 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
     </row>
-    <row r="52" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>289</v>
@@ -4519,13 +4532,13 @@
         <v>113</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>249</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
@@ -4547,15 +4560,15 @@
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
     </row>
-    <row r="53" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>289</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>11</v>
@@ -4567,13 +4580,13 @@
         <v>113</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I53" s="8" t="s">
-        <v>76</v>
+      <c r="I53" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
@@ -4595,9 +4608,9 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
     </row>
-    <row r="54" spans="1:28" ht="165" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>168</v>
+    <row r="54" spans="1:28" s="1" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>289</v>
@@ -4615,13 +4628,13 @@
         <v>113</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>249</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -4645,13 +4658,13 @@
     </row>
     <row r="55" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>11</v>
@@ -4663,17 +4676,17 @@
         <v>113</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="I55" s="19" t="s">
-        <v>176</v>
+        <v>250</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
-      <c r="L55" s="9"/>
+      <c r="L55" s="6"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
       <c r="O55" s="2"/>
@@ -4693,10 +4706,10 @@
     </row>
     <row r="56" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>99</v>
@@ -4717,7 +4730,7 @@
         <v>250</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
@@ -4739,12 +4752,12 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
     </row>
-    <row r="57" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" s="1" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>99</v>
@@ -4765,7 +4778,7 @@
         <v>250</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
@@ -4789,10 +4802,10 @@
     </row>
     <row r="58" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>99</v>
@@ -4813,7 +4826,7 @@
         <v>250</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
@@ -4835,12 +4848,12 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
     </row>
-    <row r="59" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" s="1" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>99</v>
@@ -4861,7 +4874,7 @@
         <v>250</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
@@ -4883,12 +4896,12 @@
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
     </row>
-    <row r="60" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>107</v>
+    <row r="60" spans="1:28" s="1" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>109</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>99</v>
@@ -4909,7 +4922,7 @@
         <v>250</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -4933,10 +4946,10 @@
     </row>
     <row r="61" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>99</v>
@@ -4957,7 +4970,7 @@
         <v>250</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -4979,15 +4992,15 @@
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
     </row>
-    <row r="62" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>111</v>
+    <row r="62" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>11</v>
@@ -4999,17 +5012,17 @@
         <v>113</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>250</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
+        <v>194</v>
+      </c>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
       <c r="O62" s="2"/>
@@ -5027,9 +5040,9 @@
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
     </row>
-    <row r="63" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>289</v>
@@ -5053,7 +5066,7 @@
         <v>250</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
@@ -5075,9 +5088,9 @@
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
     </row>
-    <row r="64" spans="1:28" ht="150" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>135</v>
+    <row r="64" spans="1:28" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>289</v>
@@ -5086,13 +5099,13 @@
         <v>90</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>113</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>91</v>
@@ -5101,7 +5114,7 @@
         <v>250</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -5123,33 +5136,33 @@
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
     </row>
-    <row r="65" spans="1:28" ht="150" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>93</v>
+    <row r="65" spans="1:28" s="1" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>289</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>113</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H65" s="8" t="s">
         <v>250</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
@@ -5171,17 +5184,17 @@
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
     </row>
-    <row r="66" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
-        <v>77</v>
+    <row r="66" spans="1:28" s="1" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>207</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C66" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C66" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="7" t="s">
@@ -5190,14 +5203,14 @@
       <c r="F66" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G66" s="6" t="s">
-        <v>79</v>
+      <c r="G66" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>250</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
@@ -5219,17 +5232,17 @@
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
     </row>
-    <row r="67" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A67" s="21" t="s">
-        <v>207</v>
+    <row r="67" spans="1:28" s="1" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C67" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="7" t="s">
@@ -5238,14 +5251,14 @@
       <c r="F67" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G67" s="18" t="s">
+      <c r="G67" s="6" t="s">
         <v>82</v>
       </c>
       <c r="H67" s="8" t="s">
         <v>250</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
@@ -5267,12 +5280,12 @@
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
     </row>
-    <row r="68" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" s="1" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>78</v>
@@ -5287,13 +5300,13 @@
         <v>113</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H68" s="8" t="s">
         <v>250</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
@@ -5315,12 +5328,12 @@
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
     </row>
-    <row r="69" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" s="1" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>78</v>
@@ -5341,7 +5354,7 @@
         <v>250</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
@@ -5363,12 +5376,12 @@
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
     </row>
-    <row r="70" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" s="1" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>78</v>
@@ -5383,13 +5396,13 @@
         <v>113</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>250</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -5411,15 +5424,15 @@
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
     </row>
-    <row r="71" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" s="1" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>11</v>
@@ -5431,13 +5444,13 @@
         <v>113</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>250</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
@@ -5459,15 +5472,15 @@
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
     </row>
-    <row r="72" spans="1:28" s="1" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
-        <v>130</v>
+    <row r="72" spans="1:28" s="1" customFormat="1" ht="141.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
+        <v>209</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>136</v>
+        <v>289</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>11</v>
@@ -5479,13 +5492,13 @@
         <v>113</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
       <c r="H72" s="8" t="s">
         <v>250</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -5507,15 +5520,15 @@
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
     </row>
-    <row r="73" spans="1:28" s="1" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="21" t="s">
-        <v>209</v>
+    <row r="73" spans="1:28" s="1" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>78</v>
+        <v>288</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>11</v>
@@ -5527,13 +5540,13 @@
         <v>113</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="H73" s="8" t="s">
         <v>250</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
@@ -5555,12 +5568,12 @@
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
     </row>
-    <row r="74" spans="1:28" s="1" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" s="1" customFormat="1" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>136</v>
@@ -5581,7 +5594,7 @@
         <v>250</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -5603,15 +5616,15 @@
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
     </row>
-    <row r="75" spans="1:28" s="1" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
-        <v>129</v>
+    <row r="75" spans="1:28" s="2" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>11</v>
@@ -5623,37 +5636,23 @@
         <v>113</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="H75" s="8" t="s">
         <v>250</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
-      <c r="Z75" s="2"/>
-      <c r="AA75" s="2"/>
-      <c r="AB75" s="2"/>
-    </row>
-    <row r="76" spans="1:28" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>140</v>
+    </row>
+    <row r="76" spans="1:28" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>289</v>
@@ -5676,21 +5675,35 @@
       <c r="H76" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I76" s="8" t="s">
-        <v>141</v>
+      <c r="I76" s="22" t="s">
+        <v>212</v>
       </c>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="2"/>
     </row>
     <row r="77" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>146</v>
@@ -5711,7 +5724,7 @@
         <v>250</v>
       </c>
       <c r="I77" s="22" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
@@ -5733,9 +5746,9 @@
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
     </row>
-    <row r="78" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>289</v>
@@ -5753,13 +5766,13 @@
         <v>113</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="H78" s="8" t="s">
         <v>250</v>
       </c>
       <c r="I78" s="22" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
@@ -5781,9 +5794,9 @@
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
     </row>
-    <row r="79" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>289</v>
@@ -5807,7 +5820,7 @@
         <v>250</v>
       </c>
       <c r="I79" s="22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
@@ -5829,9 +5842,9 @@
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
     </row>
-    <row r="80" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>289</v>
@@ -5855,7 +5868,7 @@
         <v>250</v>
       </c>
       <c r="I80" s="22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
@@ -5877,15 +5890,15 @@
       <c r="AA80" s="2"/>
       <c r="AB80" s="2"/>
     </row>
-    <row r="81" spans="1:28" ht="150" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>151</v>
+    <row r="81" spans="1:28" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>11</v>
@@ -5897,16 +5910,16 @@
         <v>113</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="H81" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I81" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
+      <c r="I81" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
@@ -5925,15 +5938,15 @@
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
     </row>
-    <row r="82" spans="1:28" ht="150" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>151</v>
+    <row r="82" spans="1:28" s="1" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>289</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>11</v>
@@ -5945,15 +5958,15 @@
         <v>113</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="H82" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I82" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="J82" s="9"/>
+      <c r="I82" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J82" s="8"/>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
@@ -5973,15 +5986,15 @@
       <c r="AA82" s="2"/>
       <c r="AB82" s="2"/>
     </row>
-    <row r="83" spans="1:28" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" s="1" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>11</v>
@@ -5999,10 +6012,10 @@
         <v>250</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
+        <v>201</v>
+      </c>
+      <c r="J83" s="8"/>
+      <c r="K83" s="9"/>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
@@ -6021,12 +6034,12 @@
       <c r="AA83" s="2"/>
       <c r="AB83" s="2"/>
     </row>
-    <row r="84" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" s="1" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>198</v>
@@ -6044,12 +6057,14 @@
         <v>196</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="J84" s="8"/>
+        <v>201</v>
+      </c>
+      <c r="J84" s="20" t="s">
+        <v>203</v>
+      </c>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
@@ -6069,15 +6084,15 @@
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
     </row>
-    <row r="85" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
-        <v>200</v>
+    <row r="85" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>11</v>
@@ -6089,16 +6104,16 @@
         <v>113</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="J85" s="8"/>
-      <c r="K85" s="9"/>
+        <v>187</v>
+      </c>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
@@ -6117,15 +6132,15 @@
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
     </row>
-    <row r="86" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
-        <v>202</v>
+    <row r="86" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>11</v>
@@ -6137,18 +6152,16 @@
         <v>113</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H86" s="8" t="s">
         <v>249</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="J86" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="K86" s="9"/>
+        <v>190</v>
+      </c>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
@@ -6167,9 +6180,9 @@
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
     </row>
-    <row r="87" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>289</v>
@@ -6187,13 +6200,13 @@
         <v>113</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H87" s="8" t="s">
         <v>249</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
@@ -6216,14 +6229,14 @@
       <c r="AB87" s="2"/>
     </row>
     <row r="88" spans="1:28" ht="165" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>188</v>
+      <c r="A88" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>11</v>
@@ -6235,16 +6248,16 @@
         <v>113</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I88" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
+      <c r="I88" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
@@ -6264,14 +6277,14 @@
       <c r="AB88" s="2"/>
     </row>
     <row r="89" spans="1:28" ht="165" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>191</v>
+      <c r="A89" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>11</v>
@@ -6283,16 +6296,16 @@
         <v>113</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="H89" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I89" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
+      <c r="I89" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
@@ -6313,10 +6326,10 @@
     </row>
     <row r="90" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>246</v>
@@ -6337,7 +6350,7 @@
         <v>249</v>
       </c>
       <c r="I90" s="22" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
@@ -6361,10 +6374,10 @@
     </row>
     <row r="91" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>246</v>
@@ -6385,7 +6398,7 @@
         <v>249</v>
       </c>
       <c r="I91" s="22" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
@@ -6407,9 +6420,9 @@
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
     </row>
-    <row r="92" spans="1:28" ht="165" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>215</v>
+    <row r="92" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>289</v>
@@ -6433,7 +6446,7 @@
         <v>249</v>
       </c>
       <c r="I92" s="22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
@@ -6455,9 +6468,9 @@
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
     </row>
-    <row r="93" spans="1:28" ht="165" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>216</v>
+    <row r="93" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="25" t="s">
+        <v>218</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>289</v>
@@ -6481,7 +6494,7 @@
         <v>249</v>
       </c>
       <c r="I93" s="22" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
@@ -6503,12 +6516,12 @@
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
     </row>
-    <row r="94" spans="1:28" ht="165" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>217</v>
+    <row r="94" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>246</v>
@@ -6529,7 +6542,7 @@
         <v>249</v>
       </c>
       <c r="I94" s="22" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
@@ -6553,10 +6566,10 @@
     </row>
     <row r="95" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>246</v>
@@ -6577,7 +6590,7 @@
         <v>249</v>
       </c>
       <c r="I95" s="22" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
@@ -6599,12 +6612,12 @@
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
     </row>
-    <row r="96" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
-        <v>219</v>
+    <row r="96" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>246</v>
@@ -6625,7 +6638,7 @@
         <v>249</v>
       </c>
       <c r="I96" s="22" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
@@ -6649,10 +6662,10 @@
     </row>
     <row r="97" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>246</v>
@@ -6673,7 +6686,7 @@
         <v>249</v>
       </c>
       <c r="I97" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
@@ -6695,15 +6708,15 @@
       <c r="AA97" s="2"/>
       <c r="AB97" s="2"/>
     </row>
-    <row r="98" spans="1:28" ht="165" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>221</v>
+    <row r="98" spans="1:28" s="1" customFormat="1" ht="300" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>223</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>289</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>11</v>
@@ -6715,13 +6728,13 @@
         <v>113</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>147</v>
+        <v>247</v>
       </c>
       <c r="H98" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I98" s="22" t="s">
-        <v>235</v>
+      <c r="I98" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
@@ -6743,15 +6756,15 @@
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
     </row>
-    <row r="99" spans="1:28" ht="165" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>222</v>
+    <row r="99" spans="1:28" s="1" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>289</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>11</v>
@@ -6763,16 +6776,20 @@
         <v>113</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>147</v>
+        <v>247</v>
       </c>
       <c r="H99" s="8" t="s">
         <v>249</v>
       </c>
       <c r="I99" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
+        <v>238</v>
+      </c>
+      <c r="J99" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="K99" s="20" t="s">
+        <v>240</v>
+      </c>
       <c r="L99" s="9"/>
       <c r="M99" s="9"/>
       <c r="N99" s="9"/>
@@ -6791,12 +6808,12 @@
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
     </row>
-    <row r="100" spans="1:28" s="1" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" s="1" customFormat="1" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>224</v>
@@ -6814,16 +6831,26 @@
         <v>247</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="I100" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="J100" s="9"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
-      <c r="M100" s="9"/>
-      <c r="N100" s="9"/>
+      <c r="I100" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="J100" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="K100" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="L100" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="M100" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="N100" s="20" t="s">
+        <v>245</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
@@ -6839,17 +6866,17 @@
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
     </row>
-    <row r="101" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
-        <v>225</v>
+    <row r="101" spans="1:28" ht="168" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D101" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E101" s="7" t="s">
@@ -6858,21 +6885,17 @@
       <c r="F101" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G101" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="H101" s="8" t="s">
+      <c r="G101" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H101" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="I101" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="J101" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="K101" s="20" t="s">
-        <v>240</v>
-      </c>
+      <c r="I101" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
       <c r="L101" s="9"/>
       <c r="M101" s="9"/>
       <c r="N101" s="9"/>
@@ -6891,17 +6914,17 @@
       <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
     </row>
-    <row r="102" spans="1:28" s="1" customFormat="1" ht="300" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
-        <v>226</v>
+    <row r="102" spans="1:28" ht="174" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D102" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E102" s="7" t="s">
@@ -6910,30 +6933,20 @@
       <c r="F102" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G102" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="H102" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="I102" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="J102" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="K102" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="L102" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="M102" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="N102" s="20" t="s">
-        <v>245</v>
-      </c>
+      <c r="G102" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H102" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="I102" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
@@ -6949,9 +6962,9 @@
       <c r="AA102" s="2"/>
       <c r="AB102" s="2"/>
     </row>
-    <row r="103" spans="1:28" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" ht="175.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>289</v>
@@ -6975,7 +6988,7 @@
         <v>249</v>
       </c>
       <c r="I103" s="20" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
@@ -6997,17 +7010,17 @@
       <c r="AA103" s="2"/>
       <c r="AB103" s="2"/>
     </row>
-    <row r="104" spans="1:28" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>257</v>
+    <row r="104" spans="1:28" s="1" customFormat="1" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="23" t="s">
+        <v>272</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C104" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="D104" s="9" t="s">
+      <c r="C104" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D104" s="24" t="s">
         <v>11</v>
       </c>
       <c r="E104" s="7" t="s">
@@ -7016,17 +7029,21 @@
       <c r="F104" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G104" s="9" t="s">
-        <v>255</v>
+      <c r="G104" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="H104" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="I104" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="J104" s="9"/>
-      <c r="K104" s="9"/>
+      <c r="I104" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="J104" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="K104" s="20" t="s">
+        <v>275</v>
+      </c>
       <c r="L104" s="9"/>
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
@@ -7045,17 +7062,17 @@
       <c r="AA104" s="2"/>
       <c r="AB104" s="2"/>
     </row>
-    <row r="105" spans="1:28" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>259</v>
+    <row r="105" spans="1:28" s="1" customFormat="1" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
+        <v>274</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C105" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="D105" s="9" t="s">
+      <c r="C105" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E105" s="7" t="s">
@@ -7064,17 +7081,17 @@
       <c r="F105" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G105" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="H105" s="20" t="s">
+      <c r="G105" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H105" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I105" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9"/>
+      <c r="I105" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="J105" s="20"/>
+      <c r="K105" s="20"/>
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
@@ -7093,17 +7110,17 @@
       <c r="AA105" s="2"/>
       <c r="AB105" s="2"/>
     </row>
-    <row r="106" spans="1:28" s="1" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="23" t="s">
-        <v>272</v>
+    <row r="106" spans="1:28" s="1" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
+        <v>282</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D106" s="24" t="s">
+      <c r="D106" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E106" s="7" t="s">
@@ -7115,7 +7132,7 @@
       <c r="G106" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="H106" s="20" t="s">
+      <c r="H106" s="8" t="s">
         <v>249</v>
       </c>
       <c r="I106" s="22" t="s">
@@ -7127,9 +7144,9 @@
       <c r="K106" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="L106" s="9"/>
-      <c r="M106" s="9"/>
-      <c r="N106" s="9"/>
+      <c r="L106" s="20"/>
+      <c r="M106" s="20"/>
+      <c r="N106" s="20"/>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
@@ -7145,18 +7162,18 @@
       <c r="AA106" s="2"/>
       <c r="AB106" s="2"/>
     </row>
-    <row r="107" spans="1:28" s="1" customFormat="1" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" s="1" customFormat="1" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>282</v>
+        <v>10</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>113</v>
@@ -7165,16 +7182,14 @@
         <v>113</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="I107" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="J107" s="20"/>
-      <c r="K107" s="20"/>
+        <v>287</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
       <c r="L107" s="9"/>
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
@@ -7193,60 +7208,14 @@
       <c r="AA107" s="2"/>
       <c r="AB107" s="2"/>
     </row>
-    <row r="108" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="H108" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="I108" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="J108" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="K108" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="L108" s="20"/>
-      <c r="M108" s="20"/>
-      <c r="N108" s="20"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="2"/>
-      <c r="S108" s="2"/>
-      <c r="T108" s="2"/>
-      <c r="U108" s="2"/>
-      <c r="V108" s="2"/>
-      <c r="W108" s="2"/>
-      <c r="X108" s="2"/>
-      <c r="Y108" s="2"/>
-      <c r="Z108" s="2"/>
-      <c r="AA108" s="2"/>
-      <c r="AB108" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I108" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I107" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebAutomation\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Admin(08-02-2023)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65EAE0F-84E5-4E19-8408-5D27F5B0CBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DD1B99-E645-489E-9302-EB0038F5B85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="10455" windowHeight="9180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="307">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1661,9 +1661,6 @@
 -pfiveTimeContent</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -1671,13 +1668,97 @@
   </si>
   <si>
     <t>Admin Login with invalid Authy</t>
+  </si>
+  <si>
+    <t>add Merchant user</t>
+  </si>
+  <si>
+    <t>Profile Merchant</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>add Merchant user with invalid scenarios</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testAddMerchantWithInvalidData,
+-pheading,
+-pheadingContact,
+-pfirstName,
+-plastName,
+-ppartnerName,
+-pcompanyName,
+-perrMessage,
+-pcolour,
+-pelementName</t>
+  </si>
+  <si>
+    <t>add Merchant user with Field Validation</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testAddMerchantWithFieldValidation,
+-pheading,
+-pheadingContact,
+-pfirstName,
+-plastName,
+-ppartnerName,
+-pcompanyName</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testAddMerchantUser,
+-pheading,
+-pheadingContact,
+-pfirstName,
+-plastName,
+-ppartnerName,
+-pcompanyName,
+-pmessage,
+-ptitle</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testEditMerchantInvitation,
+-pheading,
+-pheadingContact</t>
+  </si>
+  <si>
+    <t>Resend Merchant invitation</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testMerchantResendInvitation,
+-pfirstName,
+-plastName</t>
+  </si>
+  <si>
+    <t>Cancel Merchant invitation</t>
+  </si>
+  <si>
+    <t>Verify Edit Merchant Invitation</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testMerchantCancelInvitation,
+-pfirstName,
+-plastName,
+-pheading</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1716,6 +1797,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1743,7 +1831,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1766,11 +1854,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1817,6 +1916,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2098,10 +2199,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AB107"/>
+  <dimension ref="A1:AB113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,7 +2262,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>10</v>
@@ -2204,10 +2305,10 @@
     </row>
     <row r="3" spans="1:28" ht="150.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>10</v>
@@ -2253,7 +2354,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
@@ -2299,7 +2400,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>10</v>
@@ -2345,7 +2446,7 @@
         <v>165</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
@@ -2391,7 +2492,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>27</v>
@@ -2437,7 +2538,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>27</v>
@@ -2483,7 +2584,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>27</v>
@@ -2529,7 +2630,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>27</v>
@@ -2575,7 +2676,7 @@
         <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>35</v>
@@ -2621,7 +2722,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>35</v>
@@ -2667,7 +2768,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>35</v>
@@ -2713,7 +2814,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>35</v>
@@ -2759,7 +2860,7 @@
         <v>44</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>35</v>
@@ -2805,7 +2906,7 @@
         <v>283</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>10</v>
@@ -2853,7 +2954,7 @@
         <v>153</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>156</v>
@@ -2901,7 +3002,7 @@
         <v>155</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>156</v>
@@ -2949,7 +3050,7 @@
         <v>157</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>158</v>
@@ -2997,7 +3098,7 @@
         <v>177</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>158</v>
@@ -3045,7 +3146,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>10</v>
@@ -3091,7 +3192,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>18</v>
@@ -3139,7 +3240,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>18</v>
@@ -3187,7 +3288,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>18</v>
@@ -3235,7 +3336,7 @@
         <v>266</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>270</v>
@@ -3283,7 +3384,7 @@
         <v>267</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>270</v>
@@ -3331,7 +3432,7 @@
         <v>268</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>270</v>
@@ -3379,10 +3480,10 @@
         <v>269</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>290</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>14</v>
@@ -3427,7 +3528,7 @@
         <v>171</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>18</v>
@@ -3461,7 +3562,7 @@
         <v>95</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>18</v>
@@ -3509,7 +3610,7 @@
         <v>114</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>18</v>
@@ -3557,7 +3658,7 @@
         <v>116</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>18</v>
@@ -3605,7 +3706,7 @@
         <v>118</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>18</v>
@@ -3653,7 +3754,7 @@
         <v>120</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>18</v>
@@ -3701,7 +3802,7 @@
         <v>122</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>18</v>
@@ -3749,7 +3850,7 @@
         <v>124</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>18</v>
@@ -3797,7 +3898,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>47</v>
@@ -3845,7 +3946,7 @@
         <v>204</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>47</v>
@@ -3893,7 +3994,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>47</v>
@@ -3941,7 +4042,7 @@
         <v>51</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>47</v>
@@ -3989,7 +4090,7 @@
         <v>53</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>47</v>
@@ -4037,7 +4138,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>47</v>
@@ -4085,7 +4186,7 @@
         <v>57</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>47</v>
@@ -4133,7 +4234,7 @@
         <v>59</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>60</v>
@@ -4181,7 +4282,7 @@
         <v>62</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>60</v>
@@ -4229,7 +4330,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>60</v>
@@ -4277,7 +4378,7 @@
         <v>66</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>60</v>
@@ -4325,7 +4426,7 @@
         <v>68</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>60</v>
@@ -4373,7 +4474,7 @@
         <v>70</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>60</v>
@@ -4421,7 +4522,7 @@
         <v>73</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>60</v>
@@ -4469,7 +4570,7 @@
         <v>160</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>60</v>
@@ -4517,7 +4618,7 @@
         <v>75</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>60</v>
@@ -4565,7 +4666,7 @@
         <v>168</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>163</v>
@@ -4613,7 +4714,7 @@
         <v>174</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>163</v>
@@ -4661,7 +4762,7 @@
         <v>98</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>99</v>
@@ -4709,7 +4810,7 @@
         <v>101</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>99</v>
@@ -4757,7 +4858,7 @@
         <v>103</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>99</v>
@@ -4805,7 +4906,7 @@
         <v>105</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>99</v>
@@ -4853,7 +4954,7 @@
         <v>107</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>99</v>
@@ -4901,7 +5002,7 @@
         <v>109</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>99</v>
@@ -4949,7 +5050,7 @@
         <v>111</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>99</v>
@@ -4997,7 +5098,7 @@
         <v>195</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>90</v>
@@ -5045,7 +5146,7 @@
         <v>135</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>90</v>
@@ -5093,7 +5194,7 @@
         <v>93</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>90</v>
@@ -5141,7 +5242,7 @@
         <v>77</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>78</v>
@@ -5189,7 +5290,7 @@
         <v>207</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>78</v>
@@ -5237,7 +5338,7 @@
         <v>81</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>78</v>
@@ -5285,7 +5386,7 @@
         <v>84</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>78</v>
@@ -5333,7 +5434,7 @@
         <v>86</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>78</v>
@@ -5381,7 +5482,7 @@
         <v>88</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>78</v>
@@ -5429,7 +5530,7 @@
         <v>130</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>136</v>
@@ -5477,7 +5578,7 @@
         <v>209</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>78</v>
@@ -5525,7 +5626,7 @@
         <v>128</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>136</v>
@@ -5573,7 +5674,7 @@
         <v>129</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>136</v>
@@ -5621,7 +5722,7 @@
         <v>140</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>146</v>
@@ -5655,7 +5756,7 @@
         <v>142</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>146</v>
@@ -5703,7 +5804,7 @@
         <v>143</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>146</v>
@@ -5751,7 +5852,7 @@
         <v>145</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>146</v>
@@ -5799,7 +5900,7 @@
         <v>149</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>146</v>
@@ -5847,7 +5948,7 @@
         <v>151</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>146</v>
@@ -5895,7 +5996,7 @@
         <v>162</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>163</v>
@@ -5943,7 +6044,7 @@
         <v>197</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>198</v>
@@ -5991,7 +6092,7 @@
         <v>200</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>198</v>
@@ -6039,7 +6140,7 @@
         <v>202</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>198</v>
@@ -6089,7 +6190,7 @@
         <v>184</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>186</v>
@@ -6137,7 +6238,7 @@
         <v>188</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>186</v>
@@ -6185,7 +6286,7 @@
         <v>191</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>186</v>
@@ -6233,7 +6334,7 @@
         <v>213</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>246</v>
@@ -6281,7 +6382,7 @@
         <v>214</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>246</v>
@@ -6329,7 +6430,7 @@
         <v>215</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>246</v>
@@ -6377,7 +6478,7 @@
         <v>216</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>246</v>
@@ -6425,7 +6526,7 @@
         <v>217</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>246</v>
@@ -6473,7 +6574,7 @@
         <v>218</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>246</v>
@@ -6521,7 +6622,7 @@
         <v>219</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>246</v>
@@ -6569,7 +6670,7 @@
         <v>220</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>246</v>
@@ -6617,7 +6718,7 @@
         <v>221</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>246</v>
@@ -6665,7 +6766,7 @@
         <v>222</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>246</v>
@@ -6713,7 +6814,7 @@
         <v>223</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>224</v>
@@ -6761,7 +6862,7 @@
         <v>225</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>224</v>
@@ -6813,7 +6914,7 @@
         <v>226</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>224</v>
@@ -6871,7 +6972,7 @@
         <v>253</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>254</v>
@@ -6919,7 +7020,7 @@
         <v>257</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>254</v>
@@ -6967,7 +7068,7 @@
         <v>259</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>254</v>
@@ -7015,7 +7116,7 @@
         <v>272</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>224</v>
@@ -7067,7 +7168,7 @@
         <v>274</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>281</v>
@@ -7115,7 +7216,7 @@
         <v>282</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>224</v>
@@ -7167,7 +7268,7 @@
         <v>280</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>10</v>
@@ -7208,6 +7309,180 @@
       <c r="AA107" s="2"/>
       <c r="AB107" s="2"/>
     </row>
+    <row r="108" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A108" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G108" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I108" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>295</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G109" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I109" s="22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>298</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G110" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="H110" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I110" s="22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>305</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G111" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I111" s="22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>302</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G112" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="H112" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I112" s="22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>304</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G113" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I113" s="22" t="s">
+        <v>306</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I107" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Admin(08-02-2023)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DD1B99-E645-489E-9302-EB0038F5B85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF77370D-CC71-4853-87DA-7279387C7FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="313">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1752,6 +1752,37 @@
 -pfirstName,
 -plastName,
 -pheading</t>
+  </si>
+  <si>
+    <t>Merchant Details Filters And Exports</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testProfileMerchantFilterandExports,
+-pheading,
+-pexportHeading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchant user  Details </t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testProfileMerchantDetails,
+-psearchText,
+-pexportHeading</t>
+  </si>
+  <si>
+    <t>Merchant user  Details  with Token Account</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testProfileMerchantDetailsWithTokenAccount,
+-pfilterType,
+-ptoAmount,
+-pamount,
+-pheading,
+-pexportHeading,
+-psearchText</t>
   </si>
 </sst>
 </file>
@@ -2199,10 +2230,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AB113"/>
+  <dimension ref="A1:AB116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="B115" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7430,7 +7461,7 @@
         <v>302</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>146</v>
@@ -7459,7 +7490,7 @@
         <v>304</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>146</v>
@@ -7481,6 +7512,93 @@
       </c>
       <c r="I113" s="22" t="s">
         <v>306</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>307</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G114" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I114" s="22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>309</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G115" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I115" s="22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>311</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G116" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I116" s="22" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Admin(08-02-2023)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Admin(17-02-2023)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF77370D-CC71-4853-87DA-7279387C7FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C5F0A0-CC30-4F36-8F5C-FA9A4F8B032B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="315">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1782,6 +1782,14 @@
 -pamount,
 -pheading,
 -pexportHeading,
+-psearchText</t>
+  </si>
+  <si>
+    <t>Merchant user  Details  with Payout Transaction</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testProfileMerchantPayoutHistory,
 -psearchText</t>
   </si>
 </sst>
@@ -2230,10 +2238,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AB116"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B115" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I116" sqref="I116"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7577,7 +7585,7 @@
         <v>311</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>146</v>
@@ -7599,6 +7607,35 @@
       </c>
       <c r="I116" s="22" t="s">
         <v>312</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>313</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G117" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I117" s="22" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Admin(17-02-2023)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C5F0A0-CC30-4F36-8F5C-FA9A4F8B032B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B14CEC-E9B9-4C4C-A5CB-4382D262B845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$120</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="324">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1791,6 +1791,39 @@
     <t>coyni.admin.tests.ProfilesTest,
 testProfileMerchantPayoutHistory,
 -psearchText</t>
+  </si>
+  <si>
+    <t>testGobalSearchWithLast4digits</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.HomeTest,
+tesGobalSearchWithLastFourDigitsOfDebitCardAndCreditCard,
+-plastFourDigits</t>
+  </si>
+  <si>
+    <t>testGobalSearchWithFirst6digits</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.HomeTest,
+tesGobalSearchWithFirstSixDigitsOfDebitCardAndCreditCard,
+-pfirstSixDigits</t>
+  </si>
+  <si>
+    <t>Gobal Seach with First 6 digits</t>
+  </si>
+  <si>
+    <t>Gobal Seach with last 4 digits</t>
+  </si>
+  <si>
+    <t>testGobalSearchWithBankAccount</t>
+  </si>
+  <si>
+    <t>Gobal Seach with Bank Account</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.HomeTest,
+tesGobalSearchWithBankNumber,
+-pbankAccount</t>
   </si>
 </sst>
 </file>
@@ -2237,11 +2270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2296,7 +2328,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:28" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -2342,7 +2374,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:28" ht="150.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>290</v>
       </c>
@@ -2388,7 +2420,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
     </row>
-    <row r="4" spans="1:28" ht="150.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -2434,7 +2466,7 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
     </row>
-    <row r="5" spans="1:28" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -2480,7 +2512,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
     </row>
-    <row r="6" spans="1:28" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>165</v>
       </c>
@@ -2526,7 +2558,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
     </row>
-    <row r="7" spans="1:28" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="240" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -2572,7 +2604,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
     </row>
-    <row r="8" spans="1:28" ht="210.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="210.75" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -2618,7 +2650,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
     </row>
-    <row r="9" spans="1:28" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="210" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -2664,7 +2696,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
     </row>
-    <row r="10" spans="1:28" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2710,7 +2742,7 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
     </row>
-    <row r="11" spans="1:28" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="255" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -2756,7 +2788,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
     </row>
-    <row r="12" spans="1:28" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="225" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -2802,7 +2834,7 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
     </row>
-    <row r="13" spans="1:28" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="210" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
@@ -2848,7 +2880,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
     </row>
-    <row r="14" spans="1:28" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
@@ -2894,7 +2926,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
     </row>
-    <row r="15" spans="1:28" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="195" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -2940,7 +2972,7 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
     </row>
-    <row r="16" spans="1:28" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>283</v>
       </c>
@@ -2988,7 +3020,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
     </row>
-    <row r="17" spans="1:28" s="1" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>153</v>
       </c>
@@ -3036,7 +3068,7 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
     </row>
-    <row r="18" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>155</v>
       </c>
@@ -3084,7 +3116,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
     </row>
-    <row r="19" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>157</v>
       </c>
@@ -3132,7 +3164,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
     </row>
-    <row r="20" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>177</v>
       </c>
@@ -3180,7 +3212,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
     </row>
-    <row r="21" spans="1:28" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
@@ -3226,7 +3258,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
     </row>
-    <row r="22" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -3274,7 +3306,7 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
     </row>
-    <row r="23" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
@@ -3322,7 +3354,7 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
     </row>
-    <row r="24" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -3370,7 +3402,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
     </row>
-    <row r="25" spans="1:28" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="270" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>266</v>
       </c>
@@ -3418,7 +3450,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
     </row>
-    <row r="26" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>267</v>
       </c>
@@ -3466,7 +3498,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
     </row>
-    <row r="27" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>268</v>
       </c>
@@ -3514,7 +3546,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
     </row>
-    <row r="28" spans="1:28" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="285" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>269</v>
       </c>
@@ -3562,7 +3594,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
     </row>
-    <row r="29" spans="1:28" s="2" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>171</v>
       </c>
@@ -3596,7 +3628,7 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
     </row>
-    <row r="30" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>95</v>
       </c>
@@ -3644,7 +3676,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="31" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>114</v>
       </c>
@@ -3692,7 +3724,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>116</v>
       </c>
@@ -3740,7 +3772,7 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
     </row>
-    <row r="33" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>118</v>
       </c>
@@ -3788,7 +3820,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
     </row>
-    <row r="34" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>120</v>
       </c>
@@ -3836,7 +3868,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
     </row>
-    <row r="35" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>122</v>
       </c>
@@ -3884,7 +3916,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>124</v>
       </c>
@@ -3932,7 +3964,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
     </row>
-    <row r="37" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
@@ -3980,7 +4012,7 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
     </row>
-    <row r="38" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>204</v>
       </c>
@@ -4028,7 +4060,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
     </row>
-    <row r="39" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>49</v>
       </c>
@@ -4076,7 +4108,7 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
     </row>
-    <row r="40" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>51</v>
       </c>
@@ -4124,7 +4156,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
     </row>
-    <row r="41" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>53</v>
       </c>
@@ -4220,7 +4252,7 @@
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
     </row>
-    <row r="43" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>57</v>
       </c>
@@ -4268,7 +4300,7 @@
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
     </row>
-    <row r="44" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>59</v>
       </c>
@@ -4316,7 +4348,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
     </row>
-    <row r="45" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>62</v>
       </c>
@@ -4364,7 +4396,7 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
     </row>
-    <row r="46" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>64</v>
       </c>
@@ -4412,7 +4444,7 @@
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
     </row>
-    <row r="47" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>66</v>
       </c>
@@ -4460,7 +4492,7 @@
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
     </row>
-    <row r="48" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>68</v>
       </c>
@@ -4508,7 +4540,7 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
     </row>
-    <row r="49" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>70</v>
       </c>
@@ -4556,7 +4588,7 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
     </row>
-    <row r="50" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>73</v>
       </c>
@@ -4604,7 +4636,7 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
     </row>
-    <row r="51" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>160</v>
       </c>
@@ -4652,7 +4684,7 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
     </row>
-    <row r="52" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>75</v>
       </c>
@@ -4700,7 +4732,7 @@
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
     </row>
-    <row r="53" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>168</v>
       </c>
@@ -4748,7 +4780,7 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
     </row>
-    <row r="54" spans="1:28" s="1" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>174</v>
       </c>
@@ -4892,7 +4924,7 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
     </row>
-    <row r="57" spans="1:28" s="1" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>103</v>
       </c>
@@ -4988,7 +5020,7 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
     </row>
-    <row r="59" spans="1:28" s="1" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>107</v>
       </c>
@@ -5036,7 +5068,7 @@
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
     </row>
-    <row r="60" spans="1:28" s="1" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
         <v>109</v>
       </c>
@@ -5180,7 +5212,7 @@
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
     </row>
-    <row r="63" spans="1:28" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>135</v>
       </c>
@@ -5228,7 +5260,7 @@
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
     </row>
-    <row r="64" spans="1:28" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>93</v>
       </c>
@@ -5276,7 +5308,7 @@
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
     </row>
-    <row r="65" spans="1:28" s="1" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>77</v>
       </c>
@@ -5324,7 +5356,7 @@
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
     </row>
-    <row r="66" spans="1:28" s="1" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
         <v>207</v>
       </c>
@@ -5372,7 +5404,7 @@
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
     </row>
-    <row r="67" spans="1:28" s="1" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>81</v>
       </c>
@@ -5420,7 +5452,7 @@
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
     </row>
-    <row r="68" spans="1:28" s="1" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>84</v>
       </c>
@@ -5468,7 +5500,7 @@
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
     </row>
-    <row r="69" spans="1:28" s="1" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>86</v>
       </c>
@@ -5516,7 +5548,7 @@
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
     </row>
-    <row r="70" spans="1:28" s="1" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>88</v>
       </c>
@@ -5612,7 +5644,7 @@
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
     </row>
-    <row r="72" spans="1:28" s="1" customFormat="1" ht="141.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" s="1" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>209</v>
       </c>
@@ -5708,7 +5740,7 @@
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
     </row>
-    <row r="74" spans="1:28" s="1" customFormat="1" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" s="1" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>129</v>
       </c>
@@ -5756,7 +5788,7 @@
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
     </row>
-    <row r="75" spans="1:28" s="2" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>140</v>
       </c>
@@ -5790,7 +5822,7 @@
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
     </row>
-    <row r="76" spans="1:28" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>142</v>
       </c>
@@ -5886,7 +5918,7 @@
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
     </row>
-    <row r="78" spans="1:28" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>145</v>
       </c>
@@ -5934,7 +5966,7 @@
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
     </row>
-    <row r="79" spans="1:28" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>149</v>
       </c>
@@ -5982,7 +6014,7 @@
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
     </row>
-    <row r="80" spans="1:28" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>151</v>
       </c>
@@ -6078,7 +6110,7 @@
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
     </row>
-    <row r="82" spans="1:28" s="1" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>197</v>
       </c>
@@ -6126,7 +6158,7 @@
       <c r="AA82" s="2"/>
       <c r="AB82" s="2"/>
     </row>
-    <row r="83" spans="1:28" s="1" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>200</v>
       </c>
@@ -6174,7 +6206,7 @@
       <c r="AA83" s="2"/>
       <c r="AB83" s="2"/>
     </row>
-    <row r="84" spans="1:28" s="1" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>202</v>
       </c>
@@ -6224,12 +6256,12 @@
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
     </row>
-    <row r="85" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>186</v>
@@ -6272,12 +6304,12 @@
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
     </row>
-    <row r="86" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>186</v>
@@ -6320,12 +6352,12 @@
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
     </row>
-    <row r="87" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>186</v>
@@ -6340,13 +6372,13 @@
         <v>113</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="H87" s="8" t="s">
         <v>249</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>193</v>
+        <v>323</v>
       </c>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
@@ -6369,14 +6401,14 @@
       <c r="AB87" s="2"/>
     </row>
     <row r="88" spans="1:28" ht="165" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>213</v>
+      <c r="A88" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>11</v>
@@ -6388,16 +6420,16 @@
         <v>113</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>147</v>
+        <v>319</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I88" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
+      <c r="I88" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
@@ -6417,14 +6449,14 @@
       <c r="AB88" s="2"/>
     </row>
     <row r="89" spans="1:28" ht="165" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>214</v>
+      <c r="A89" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>11</v>
@@ -6436,16 +6468,16 @@
         <v>113</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>147</v>
+        <v>320</v>
       </c>
       <c r="H89" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I89" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
+      <c r="I89" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
@@ -6465,14 +6497,14 @@
       <c r="AB89" s="2"/>
     </row>
     <row r="90" spans="1:28" ht="165" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>215</v>
+      <c r="A90" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>11</v>
@@ -6484,16 +6516,16 @@
         <v>113</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="H90" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I90" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
+      <c r="I90" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
@@ -6514,7 +6546,7 @@
     </row>
     <row r="91" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>293</v>
@@ -6538,7 +6570,7 @@
         <v>249</v>
       </c>
       <c r="I91" s="22" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
@@ -6560,12 +6592,12 @@
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
     </row>
-    <row r="92" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>217</v>
+    <row r="92" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>246</v>
@@ -6586,7 +6618,7 @@
         <v>249</v>
       </c>
       <c r="I92" s="22" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
@@ -6608,12 +6640,12 @@
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
     </row>
-    <row r="93" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="25" t="s">
-        <v>218</v>
+    <row r="93" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>246</v>
@@ -6634,7 +6666,7 @@
         <v>249</v>
       </c>
       <c r="I93" s="22" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
@@ -6656,9 +6688,9 @@
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
     </row>
-    <row r="94" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>293</v>
@@ -6682,7 +6714,7 @@
         <v>249</v>
       </c>
       <c r="I94" s="22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
@@ -6706,10 +6738,10 @@
     </row>
     <row r="95" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>246</v>
@@ -6730,7 +6762,7 @@
         <v>249</v>
       </c>
       <c r="I95" s="22" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
@@ -6752,9 +6784,9 @@
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
     </row>
-    <row r="96" spans="1:28" ht="165" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>221</v>
+    <row r="96" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A96" s="25" t="s">
+        <v>218</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>288</v>
@@ -6778,7 +6810,7 @@
         <v>249</v>
       </c>
       <c r="I96" s="22" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
@@ -6800,9 +6832,9 @@
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
     </row>
-    <row r="97" spans="1:28" ht="165" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>222</v>
+    <row r="97" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>293</v>
@@ -6826,7 +6858,7 @@
         <v>249</v>
       </c>
       <c r="I97" s="22" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
@@ -6848,15 +6880,15 @@
       <c r="AA97" s="2"/>
       <c r="AB97" s="2"/>
     </row>
-    <row r="98" spans="1:28" s="1" customFormat="1" ht="300" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
-        <v>223</v>
+    <row r="98" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>11</v>
@@ -6868,13 +6900,13 @@
         <v>113</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="H98" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I98" s="8" t="s">
-        <v>237</v>
+      <c r="I98" s="22" t="s">
+        <v>234</v>
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
@@ -6896,15 +6928,15 @@
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
     </row>
-    <row r="99" spans="1:28" s="1" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
-        <v>225</v>
+    <row r="99" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>288</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>11</v>
@@ -6916,20 +6948,16 @@
         <v>113</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="H99" s="8" t="s">
         <v>249</v>
       </c>
       <c r="I99" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="J99" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="K99" s="20" t="s">
-        <v>240</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
       <c r="L99" s="9"/>
       <c r="M99" s="9"/>
       <c r="N99" s="9"/>
@@ -6948,15 +6976,15 @@
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
     </row>
-    <row r="100" spans="1:28" s="1" customFormat="1" ht="300" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="11" t="s">
-        <v>226</v>
+    <row r="100" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>11</v>
@@ -6968,29 +6996,19 @@
         <v>113</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="I100" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="J100" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="K100" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="L100" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="M100" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="N100" s="20" t="s">
-        <v>245</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
@@ -7006,17 +7024,17 @@
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
     </row>
-    <row r="101" spans="1:28" ht="168" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>253</v>
+    <row r="101" spans="1:28" s="1" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
+        <v>223</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="D101" s="9" t="s">
+      <c r="C101" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E101" s="7" t="s">
@@ -7025,14 +7043,14 @@
       <c r="F101" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G101" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="H101" s="20" t="s">
+      <c r="G101" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H101" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I101" s="20" t="s">
-        <v>256</v>
+      <c r="I101" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
@@ -7054,17 +7072,17 @@
       <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
     </row>
-    <row r="102" spans="1:28" ht="174" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>257</v>
+    <row r="102" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C102" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="D102" s="9" t="s">
+      <c r="C102" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E102" s="7" t="s">
@@ -7073,17 +7091,21 @@
       <c r="F102" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G102" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="H102" s="20" t="s">
+      <c r="G102" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H102" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I102" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="J102" s="9"/>
-      <c r="K102" s="9"/>
+      <c r="I102" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="J102" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="K102" s="20" t="s">
+        <v>240</v>
+      </c>
       <c r="L102" s="9"/>
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
@@ -7102,17 +7124,17 @@
       <c r="AA102" s="2"/>
       <c r="AB102" s="2"/>
     </row>
-    <row r="103" spans="1:28" ht="175.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>259</v>
+    <row r="103" spans="1:28" s="1" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
+        <v>226</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C103" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="D103" s="9" t="s">
+      <c r="C103" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E103" s="7" t="s">
@@ -7121,20 +7143,30 @@
       <c r="F103" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G103" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="H103" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="I103" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
-      <c r="L103" s="9"/>
-      <c r="M103" s="9"/>
-      <c r="N103" s="9"/>
+      <c r="G103" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I103" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="J103" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="K103" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="L103" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="M103" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="N103" s="20" t="s">
+        <v>245</v>
+      </c>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
@@ -7150,17 +7182,17 @@
       <c r="AA103" s="2"/>
       <c r="AB103" s="2"/>
     </row>
-    <row r="104" spans="1:28" s="1" customFormat="1" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="23" t="s">
-        <v>272</v>
+    <row r="104" spans="1:28" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D104" s="24" t="s">
+      <c r="C104" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E104" s="7" t="s">
@@ -7169,21 +7201,17 @@
       <c r="F104" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G104" s="6" t="s">
-        <v>247</v>
+      <c r="G104" s="9" t="s">
+        <v>255</v>
       </c>
       <c r="H104" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="I104" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="J104" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="K104" s="20" t="s">
-        <v>275</v>
-      </c>
+      <c r="I104" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
       <c r="L104" s="9"/>
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
@@ -7202,17 +7230,17 @@
       <c r="AA104" s="2"/>
       <c r="AB104" s="2"/>
     </row>
-    <row r="105" spans="1:28" s="1" customFormat="1" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
-        <v>274</v>
+    <row r="105" spans="1:28" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="D105" s="6" t="s">
+      <c r="C105" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E105" s="7" t="s">
@@ -7221,17 +7249,17 @@
       <c r="F105" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G105" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="H105" s="8" t="s">
+      <c r="G105" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H105" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="I105" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="J105" s="20"/>
-      <c r="K105" s="20"/>
+      <c r="I105" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
@@ -7250,17 +7278,17 @@
       <c r="AA105" s="2"/>
       <c r="AB105" s="2"/>
     </row>
-    <row r="106" spans="1:28" s="1" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
-        <v>282</v>
+    <row r="106" spans="1:28" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C106" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D106" s="6" t="s">
+      <c r="C106" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E106" s="7" t="s">
@@ -7269,24 +7297,20 @@
       <c r="F106" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G106" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="H106" s="8" t="s">
+      <c r="G106" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H106" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="I106" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="J106" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="K106" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="L106" s="20"/>
-      <c r="M106" s="20"/>
-      <c r="N106" s="20"/>
+      <c r="I106" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
@@ -7302,18 +7326,18 @@
       <c r="AA106" s="2"/>
       <c r="AB106" s="2"/>
     </row>
-    <row r="107" spans="1:28" s="1" customFormat="1" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
-        <v>280</v>
+    <row r="107" spans="1:28" s="1" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="23" t="s">
+        <v>272</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>288</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>14</v>
+        <v>224</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>11</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>113</v>
@@ -7322,14 +7346,20 @@
         <v>113</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H107" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
+        <v>247</v>
+      </c>
+      <c r="H107" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="I107" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="J107" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="K107" s="20" t="s">
+        <v>275</v>
+      </c>
       <c r="L107" s="9"/>
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
@@ -7348,18 +7378,18 @@
       <c r="AA107" s="2"/>
       <c r="AB107" s="2"/>
     </row>
-    <row r="108" spans="1:28" ht="165" x14ac:dyDescent="0.25">
-      <c r="A108" s="27" t="s">
-        <v>291</v>
+    <row r="108" spans="1:28" s="1" customFormat="1" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
+        <v>274</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>288</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>146</v>
+        <v>281</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>113</v>
@@ -7367,54 +7397,96 @@
       <c r="F108" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G108" s="26" t="s">
-        <v>292</v>
+      <c r="G108" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="H108" s="8" t="s">
         <v>249</v>
       </c>
       <c r="I108" s="22" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="109" spans="1:28" ht="165" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>295</v>
+        <v>271</v>
+      </c>
+      <c r="J108" s="20"/>
+      <c r="K108" s="20"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="X108" s="2"/>
+      <c r="Y108" s="2"/>
+      <c r="Z108" s="2"/>
+      <c r="AA108" s="2"/>
+      <c r="AB108" s="2"/>
+    </row>
+    <row r="109" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
+        <v>282</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>113</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G109" s="26" t="s">
-        <v>292</v>
+        <v>113</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="H109" s="8" t="s">
         <v>249</v>
       </c>
       <c r="I109" s="22" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="110" spans="1:28" ht="165" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>298</v>
+        <v>273</v>
+      </c>
+      <c r="J109" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="K109" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="L109" s="20"/>
+      <c r="M109" s="20"/>
+      <c r="N109" s="20"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="2"/>
+      <c r="X109" s="2"/>
+      <c r="Y109" s="2"/>
+      <c r="Z109" s="2"/>
+      <c r="AA109" s="2"/>
+      <c r="AB109" s="2"/>
+    </row>
+    <row r="110" spans="1:28" s="1" customFormat="1" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
+        <v>280</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>14</v>
@@ -7425,22 +7497,39 @@
       <c r="F110" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G110" s="26" t="s">
-        <v>292</v>
+      <c r="G110" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="I110" s="22" t="s">
-        <v>299</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="2"/>
+      <c r="X110" s="2"/>
+      <c r="Y110" s="2"/>
+      <c r="Z110" s="2"/>
+      <c r="AA110" s="2"/>
+      <c r="AB110" s="2"/>
     </row>
     <row r="111" spans="1:28" ht="165" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>305</v>
+      <c r="A111" s="27" t="s">
+        <v>291</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>146</v>
@@ -7461,12 +7550,12 @@
         <v>249</v>
       </c>
       <c r="I111" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>293</v>
@@ -7481,7 +7570,7 @@
         <v>113</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>113</v>
+        <v>296</v>
       </c>
       <c r="G112" s="26" t="s">
         <v>292</v>
@@ -7490,12 +7579,12 @@
         <v>249</v>
       </c>
       <c r="I112" s="22" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>293</v>
@@ -7519,12 +7608,12 @@
         <v>249</v>
       </c>
       <c r="I113" s="22" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>293</v>
@@ -7548,12 +7637,12 @@
         <v>249</v>
       </c>
       <c r="I114" s="22" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>293</v>
@@ -7577,12 +7666,12 @@
         <v>249</v>
       </c>
       <c r="I115" s="22" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>293</v>
@@ -7606,15 +7695,15 @@
         <v>249</v>
       </c>
       <c r="I116" s="22" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>146</v>
@@ -7635,17 +7724,98 @@
         <v>249</v>
       </c>
       <c r="I117" s="22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>309</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G118" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I118" s="22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>311</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G119" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I119" s="22" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>313</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G120" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I120" s="22" t="s">
         <v>314</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I107" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="yes"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I120" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Web/coyni/resources/TestScript-admin.xlsx
+++ b/Web/coyni/resources/TestScript-admin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Admin(17-02-2023)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(02-01-2023)-Admin(2.3)encha\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B14CEC-E9B9-4C4C-A5CB-4382D262B845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07BE90B-41CA-417B-A99C-4BEDB36C4738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$119</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="321">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -445,15 +445,7 @@
 -plabelColumn</t>
   </si>
   <si>
-    <t>verify fee struture view</t>
-  </si>
-  <si>
     <t>feeStructureView</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.SystemSettingsTest,
-testViewPersonalFeeStructure,
--pexpViewHeading</t>
   </si>
   <si>
     <t>verify fee struture Edit</t>
@@ -469,14 +461,6 @@
 testEditMerchantFeeStructure,
 -pexpHeading,
 -pexpEditHeading</t>
-  </si>
-  <si>
-    <t>verify fee struture Merchant view</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.SystemSettingsTest,
-testViewMerchantfeeStructurePage,
--pexpViewHeading</t>
   </si>
   <si>
     <t>testdata-admin.xlsx,BalanceReport</t>
@@ -584,22 +568,6 @@
   <si>
     <t>coyni.admin.tests.AccountingTest,
 testTotalDepositsBankAccount,
--pwithdraw,
--pbatchId,
--pbID,
--pwithdrawId,
--prefrenceId,
--puserId,
--pnameOnBank,
--pheading,
--pexportPrepared</t>
-  </si>
-  <si>
-    <t>testTotalDepositSignetAccount</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.AccountingTest,
-testTotalDepositSignetAccount,
 -pwithdraw,
 -pbatchId,
 -pbID,
@@ -1012,11 +980,6 @@
   </si>
   <si>
     <t>testdata-admin.xlsx,Disputes</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.DisputesTest,
-VerifyFilter,
--pfilterHeadings</t>
   </si>
   <si>
     <t>Verify case num filter won dispaly</t>
@@ -1661,9 +1624,6 @@
 -pfiveTimeContent</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>tes+A28tData-admin.xlsx,AddCogentAccount</t>
   </si>
   <si>
@@ -1824,6 +1784,36 @@
     <t>coyni.admin.tests.HomeTest,
 tesGobalSearchWithBankNumber,
 -pbankAccount</t>
+  </si>
+  <si>
+    <t>Merchant user  Details  with Payout Transaction Switch to window example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.admin.tests.AccountingTest,
+testSwitchToWindow
+</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.DisputesTest,
+VerifyFilter,
+-pfilterHeadings,
+-pstartDate</t>
+  </si>
+  <si>
+    <t>testTotalDepositCogentAccount</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.AccountingTest,
+testTotalDepositCogentAccount,
+-pwithdraw,
+-pbatchId,
+-pbID,
+-pwithdrawId,
+-prefrenceId,
+-puserId,
+-pnameOnBank,
+-pheading,
+-pexportPrepared</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +1867,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1899,6 +1889,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1941,7 +1937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1990,6 +1986,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2270,10 +2268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,7 +2331,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>10</v>
@@ -2342,16 +2340,16 @@
         <v>11</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -2376,10 +2374,10 @@
     </row>
     <row r="3" spans="1:28" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>10</v>
@@ -2388,16 +2386,16 @@
         <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -2425,7 +2423,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
@@ -2434,10 +2432,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>12</v>
@@ -2471,7 +2469,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>10</v>
@@ -2480,16 +2478,16 @@
         <v>14</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -2514,10 +2512,10 @@
     </row>
     <row r="6" spans="1:28" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
@@ -2526,16 +2524,16 @@
         <v>14</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -2563,7 +2561,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>27</v>
@@ -2572,16 +2570,16 @@
         <v>14</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -2609,7 +2607,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>27</v>
@@ -2618,16 +2616,16 @@
         <v>14</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -2655,7 +2653,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>27</v>
@@ -2664,10 +2662,10 @@
         <v>14</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>28</v>
@@ -2701,7 +2699,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>27</v>
@@ -2710,10 +2708,10 @@
         <v>14</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>28</v>
@@ -2747,7 +2745,7 @@
         <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>35</v>
@@ -2756,10 +2754,10 @@
         <v>11</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>36</v>
@@ -2793,7 +2791,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>35</v>
@@ -2802,10 +2800,10 @@
         <v>11</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>36</v>
@@ -2839,7 +2837,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>35</v>
@@ -2885,7 +2883,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>35</v>
@@ -2931,7 +2929,7 @@
         <v>44</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>35</v>
@@ -2974,10 +2972,10 @@
     </row>
     <row r="16" spans="1:28" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>10</v>
@@ -2986,19 +2984,19 @@
         <v>11</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -3022,31 +3020,31 @@
     </row>
     <row r="17" spans="1:28" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -3070,31 +3068,31 @@
     </row>
     <row r="18" spans="1:28" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -3118,31 +3116,31 @@
     </row>
     <row r="19" spans="1:28" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -3166,31 +3164,31 @@
     </row>
     <row r="20" spans="1:28" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -3217,7 +3215,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>10</v>
@@ -3226,16 +3224,16 @@
         <v>11</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -3263,7 +3261,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>18</v>
@@ -3272,19 +3270,19 @@
         <v>11</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -3311,7 +3309,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>18</v>
@@ -3320,16 +3318,16 @@
         <v>11</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>22</v>
@@ -3359,7 +3357,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>18</v>
@@ -3368,16 +3366,16 @@
         <v>11</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>25</v>
@@ -3404,13 +3402,13 @@
     </row>
     <row r="25" spans="1:28" ht="270" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>11</v>
@@ -3422,13 +3420,13 @@
         <v>1</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -3452,13 +3450,13 @@
     </row>
     <row r="26" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>14</v>
@@ -3470,13 +3468,13 @@
         <v>2</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -3500,13 +3498,13 @@
     </row>
     <row r="27" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>11</v>
@@ -3518,13 +3516,13 @@
         <v>1</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -3548,31 +3546,31 @@
     </row>
     <row r="28" spans="1:28" ht="285" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -3596,10 +3594,10 @@
     </row>
     <row r="29" spans="1:28" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>18</v>
@@ -3608,19 +3606,19 @@
         <v>11</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -3630,10 +3628,10 @@
     </row>
     <row r="30" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>18</v>
@@ -3642,19 +3640,19 @@
         <v>14</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -3678,10 +3676,10 @@
     </row>
     <row r="31" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>18</v>
@@ -3690,19 +3688,19 @@
         <v>14</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -3726,10 +3724,10 @@
     </row>
     <row r="32" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>18</v>
@@ -3738,19 +3736,19 @@
         <v>11</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -3774,10 +3772,10 @@
     </row>
     <row r="33" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>18</v>
@@ -3786,19 +3784,19 @@
         <v>11</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I33" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -3822,10 +3820,10 @@
     </row>
     <row r="34" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>18</v>
@@ -3834,19 +3832,19 @@
         <v>11</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -3870,10 +3868,10 @@
     </row>
     <row r="35" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>18</v>
@@ -3882,19 +3880,19 @@
         <v>11</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -3918,10 +3916,10 @@
     </row>
     <row r="36" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>18</v>
@@ -3930,19 +3928,19 @@
         <v>11</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -3969,7 +3967,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>47</v>
@@ -3978,16 +3976,16 @@
         <v>11</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>48</v>
@@ -4014,10 +4012,10 @@
     </row>
     <row r="38" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>47</v>
@@ -4026,19 +4024,19 @@
         <v>11</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="9"/>
@@ -4065,7 +4063,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>47</v>
@@ -4074,16 +4072,16 @@
         <v>11</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>50</v>
@@ -4113,7 +4111,7 @@
         <v>51</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>47</v>
@@ -4122,16 +4120,16 @@
         <v>11</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>52</v>
@@ -4161,7 +4159,7 @@
         <v>53</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>47</v>
@@ -4170,16 +4168,16 @@
         <v>11</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>54</v>
@@ -4209,7 +4207,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>47</v>
@@ -4218,16 +4216,16 @@
         <v>11</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>56</v>
@@ -4257,7 +4255,7 @@
         <v>57</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>47</v>
@@ -4266,16 +4264,16 @@
         <v>11</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>58</v>
@@ -4305,7 +4303,7 @@
         <v>59</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>60</v>
@@ -4314,19 +4312,19 @@
         <v>11</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>61</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -4353,7 +4351,7 @@
         <v>62</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>60</v>
@@ -4362,16 +4360,16 @@
         <v>11</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>61</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>63</v>
@@ -4401,7 +4399,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>60</v>
@@ -4410,16 +4408,16 @@
         <v>11</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>61</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>65</v>
@@ -4449,7 +4447,7 @@
         <v>66</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>60</v>
@@ -4458,16 +4456,16 @@
         <v>11</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>61</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>67</v>
@@ -4497,7 +4495,7 @@
         <v>68</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>60</v>
@@ -4506,16 +4504,16 @@
         <v>11</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>61</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>69</v>
@@ -4545,7 +4543,7 @@
         <v>70</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>60</v>
@@ -4554,16 +4552,16 @@
         <v>11</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>71</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>72</v>
@@ -4593,7 +4591,7 @@
         <v>73</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>60</v>
@@ -4602,16 +4600,16 @@
         <v>11</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>71</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>74</v>
@@ -4638,10 +4636,10 @@
     </row>
     <row r="51" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>60</v>
@@ -4650,19 +4648,19 @@
         <v>11</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>61</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
@@ -4689,7 +4687,7 @@
         <v>75</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>60</v>
@@ -4698,16 +4696,16 @@
         <v>11</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>71</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>76</v>
@@ -4734,31 +4732,31 @@
     </row>
     <row r="53" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C53" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="H53" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
@@ -4781,32 +4779,32 @@
       <c r="AB53" s="2"/>
     </row>
     <row r="54" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>174</v>
+      <c r="A54" s="29" t="s">
+        <v>168</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -4829,32 +4827,32 @@
       <c r="AB54" s="2"/>
     </row>
     <row r="55" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>98</v>
+      <c r="A55" s="29" t="s">
+        <v>94</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
@@ -4877,32 +4875,32 @@
       <c r="AB55" s="2"/>
     </row>
     <row r="56" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>101</v>
+      <c r="A56" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
@@ -4925,32 +4923,32 @@
       <c r="AB56" s="2"/>
     </row>
     <row r="57" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>103</v>
+      <c r="A57" s="29" t="s">
+        <v>99</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
@@ -4973,32 +4971,32 @@
       <c r="AB57" s="2"/>
     </row>
     <row r="58" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>105</v>
+      <c r="A58" s="29" t="s">
+        <v>101</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
@@ -5021,32 +5019,32 @@
       <c r="AB58" s="2"/>
     </row>
     <row r="59" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>107</v>
+      <c r="A59" s="29" t="s">
+        <v>103</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
@@ -5069,32 +5067,32 @@
       <c r="AB59" s="2"/>
     </row>
     <row r="60" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A60" s="25" t="s">
-        <v>109</v>
+      <c r="A60" s="28" t="s">
+        <v>319</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>110</v>
+        <v>320</v>
       </c>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -5117,32 +5115,32 @@
       <c r="AB60" s="2"/>
     </row>
     <row r="61" spans="1:28" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
-        <v>111</v>
+      <c r="A61" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -5166,31 +5164,31 @@
     </row>
     <row r="62" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
@@ -5214,31 +5212,31 @@
     </row>
     <row r="63" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
@@ -5262,31 +5260,31 @@
     </row>
     <row r="64" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -5309,11 +5307,11 @@
       <c r="AB64" s="2"/>
     </row>
     <row r="65" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="29" t="s">
         <v>77</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>78</v>
@@ -5322,16 +5320,16 @@
         <v>11</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>79</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I65" s="8" t="s">
         <v>80</v>
@@ -5358,10 +5356,10 @@
     </row>
     <row r="66" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>78</v>
@@ -5370,19 +5368,19 @@
         <v>11</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
@@ -5405,11 +5403,11 @@
       <c r="AB66" s="2"/>
     </row>
     <row r="67" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
-        <v>81</v>
+      <c r="A67" s="29" t="s">
+        <v>82</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>78</v>
@@ -5418,19 +5416,19 @@
         <v>11</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
@@ -5453,11 +5451,11 @@
       <c r="AB67" s="2"/>
     </row>
     <row r="68" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>78</v>
@@ -5466,19 +5464,19 @@
         <v>11</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G68" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="I68" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
@@ -5500,33 +5498,33 @@
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
     </row>
-    <row r="69" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" s="1" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
@@ -5548,33 +5546,33 @@
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
     </row>
-    <row r="70" spans="1:28" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
-        <v>88</v>
+    <row r="70" spans="1:28" s="1" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
+        <v>202</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C70" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C70" s="18" t="s">
         <v>78</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -5598,31 +5596,31 @@
     </row>
     <row r="71" spans="1:28" s="1" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="D71" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
@@ -5644,33 +5642,33 @@
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
     </row>
-    <row r="72" spans="1:28" s="1" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="21" t="s">
-        <v>209</v>
+    <row r="72" spans="1:28" s="1" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>78</v>
+        <v>286</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -5692,81 +5690,67 @@
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
     </row>
-    <row r="73" spans="1:28" s="1" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
-        <v>128</v>
+    <row r="73" spans="1:28" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
-      <c r="U73" s="2"/>
-      <c r="V73" s="2"/>
-      <c r="W73" s="2"/>
-      <c r="X73" s="2"/>
-      <c r="Y73" s="2"/>
-      <c r="Z73" s="2"/>
-      <c r="AA73" s="2"/>
-      <c r="AB73" s="2"/>
-    </row>
-    <row r="74" spans="1:28" s="1" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
-        <v>129</v>
+    </row>
+    <row r="74" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>138</v>
+        <v>243</v>
+      </c>
+      <c r="I74" s="22" t="s">
+        <v>205</v>
       </c>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -5788,67 +5772,81 @@
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
     </row>
-    <row r="75" spans="1:28" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+    <row r="75" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="D75" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>141</v>
+        <v>243</v>
+      </c>
+      <c r="I75" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
     </row>
     <row r="76" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="I76" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="I76" s="22" t="s">
-        <v>212</v>
       </c>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -5875,25 +5873,25 @@
         <v>143</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I77" s="22" t="s">
         <v>144</v>
@@ -5923,28 +5921,28 @@
         <v>145</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C78" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="I78" s="22" t="s">
         <v>146</v>
-      </c>
-      <c r="D78" s="6" t="s">
-    